--- a/update_db/items.xlsx
+++ b/update_db/items.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\OSPanel\domains\parser-troica.loc\update_db\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11985"/>
   </bookViews>
@@ -18,8 +13,8 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'аким, елиз, анаст'!$A$1:$Q$1</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -9830,8 +9825,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -9895,7 +9890,33 @@
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="5">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
@@ -10169,22 +10190,22 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q591"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A556" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C562" sqref="C562"/>
+      <selection pane="bottomLeft" activeCell="G568" sqref="G568"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="3" width="31.5703125" customWidth="1"/>
     <col min="4" max="4" width="15.42578125" bestFit="1" customWidth="1"/>
@@ -10197,7 +10218,7 @@
     <col min="15" max="15" width="19.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17">
       <c r="A1" s="1" t="s">
         <v>2053</v>
       </c>
@@ -10250,7 +10271,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" ht="15" customHeight="1">
       <c r="A2" s="3">
         <v>4</v>
       </c>
@@ -10299,7 +10320,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" ht="15" customHeight="1">
       <c r="A3" s="3">
         <v>4</v>
       </c>
@@ -10348,7 +10369,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" ht="15" customHeight="1">
       <c r="A4" s="3">
         <v>4</v>
       </c>
@@ -10397,7 +10418,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" ht="15" customHeight="1">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -10451,7 +10472,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" ht="15" customHeight="1">
       <c r="A6" s="3">
         <v>4</v>
       </c>
@@ -10498,7 +10519,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" ht="15" customHeight="1">
       <c r="A7" s="3">
         <v>8</v>
       </c>
@@ -10550,7 +10571,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17">
       <c r="A8" s="3">
         <v>4</v>
       </c>
@@ -10602,7 +10623,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17">
       <c r="A9" s="3">
         <v>4</v>
       </c>
@@ -10654,7 +10675,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17">
       <c r="A10" s="3">
         <v>4</v>
       </c>
@@ -10706,7 +10727,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17">
       <c r="A11" s="3">
         <v>4</v>
       </c>
@@ -10760,7 +10781,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="12" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" ht="15" customHeight="1">
       <c r="A12" s="3">
         <v>8</v>
       </c>
@@ -10812,7 +10833,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="13" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" ht="15" customHeight="1">
       <c r="A13" s="3">
         <v>4</v>
       </c>
@@ -10866,7 +10887,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="14" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" ht="15" customHeight="1">
       <c r="A14" s="3">
         <v>4</v>
       </c>
@@ -10918,7 +10939,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="15" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" ht="15" customHeight="1">
       <c r="A15" s="3">
         <v>4</v>
       </c>
@@ -10970,7 +10991,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="16" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" ht="15" customHeight="1">
       <c r="A16" s="3">
         <v>4</v>
       </c>
@@ -11022,7 +11043,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="17" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" ht="15" customHeight="1">
       <c r="A17" s="3">
         <v>4</v>
       </c>
@@ -11076,7 +11097,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="18" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" ht="15" customHeight="1">
       <c r="A18" s="3">
         <v>4</v>
       </c>
@@ -11128,7 +11149,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="19" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" ht="15" customHeight="1">
       <c r="A19" s="3">
         <v>4</v>
       </c>
@@ -11182,7 +11203,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="20" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" ht="15" customHeight="1">
       <c r="A20" s="3">
         <v>4</v>
       </c>
@@ -11236,7 +11257,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="21" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" ht="15" customHeight="1">
       <c r="A21" s="3">
         <v>4</v>
       </c>
@@ -11290,7 +11311,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="22" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" ht="15" customHeight="1">
       <c r="A22" s="3">
         <v>8</v>
       </c>
@@ -11342,7 +11363,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="23" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" ht="15" customHeight="1">
       <c r="A23" s="3">
         <v>4</v>
       </c>
@@ -11396,7 +11417,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="24" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" ht="15" customHeight="1">
       <c r="A24" s="3">
         <v>4</v>
       </c>
@@ -11450,7 +11471,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="25" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" ht="15" customHeight="1">
       <c r="A25" s="3">
         <v>4</v>
       </c>
@@ -11502,7 +11523,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="26" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" ht="15" customHeight="1">
       <c r="A26" s="3">
         <v>4</v>
       </c>
@@ -11554,7 +11575,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="27" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17" ht="15" customHeight="1">
       <c r="A27" s="3">
         <v>4</v>
       </c>
@@ -11608,7 +11629,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="28" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17" ht="15" customHeight="1">
       <c r="A28" s="3">
         <v>4</v>
       </c>
@@ -11662,7 +11683,7 @@
         <v>778</v>
       </c>
     </row>
-    <row r="29" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:17" ht="15" customHeight="1">
       <c r="A29" s="3">
         <v>4</v>
       </c>
@@ -11716,7 +11737,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="30" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:17" ht="15" customHeight="1">
       <c r="A30" s="3">
         <v>4</v>
       </c>
@@ -11768,7 +11789,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="31" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:17" ht="15" customHeight="1">
       <c r="A31" s="3">
         <v>8</v>
       </c>
@@ -11820,7 +11841,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="32" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:17" ht="15" customHeight="1">
       <c r="A32" s="3">
         <v>17</v>
       </c>
@@ -11872,7 +11893,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="33" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:17" ht="15" customHeight="1">
       <c r="A33" s="3">
         <v>11</v>
       </c>
@@ -11922,7 +11943,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="34" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:17" ht="15" customHeight="1">
       <c r="A34" s="3">
         <v>4</v>
       </c>
@@ -11974,7 +11995,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="35" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:17" ht="15" customHeight="1">
       <c r="A35" s="3">
         <v>4</v>
       </c>
@@ -12026,7 +12047,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="36" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:17" ht="15" customHeight="1">
       <c r="A36" s="3">
         <v>4</v>
       </c>
@@ -12080,7 +12101,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="37" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:17" ht="15" customHeight="1">
       <c r="A37" s="3">
         <v>4</v>
       </c>
@@ -12134,7 +12155,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="38" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:17" ht="15" customHeight="1">
       <c r="A38" s="3">
         <v>4</v>
       </c>
@@ -12184,7 +12205,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="39" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:17" ht="15" customHeight="1">
       <c r="A39" s="3">
         <v>4</v>
       </c>
@@ -12238,7 +12259,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="40" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:17" ht="15" customHeight="1">
       <c r="A40" s="3">
         <v>4</v>
       </c>
@@ -12290,7 +12311,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="41" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:17" ht="15" customHeight="1">
       <c r="A41" s="3">
         <v>4</v>
       </c>
@@ -12344,7 +12365,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="42" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:17" ht="15" customHeight="1">
       <c r="A42" s="3">
         <v>4</v>
       </c>
@@ -12398,7 +12419,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="43" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:17" ht="15" customHeight="1">
       <c r="A43" s="3">
         <v>4</v>
       </c>
@@ -12452,7 +12473,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="44" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:17" ht="15" customHeight="1">
       <c r="A44" s="3">
         <v>4</v>
       </c>
@@ -12504,7 +12525,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="45" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:17" ht="15" customHeight="1">
       <c r="A45" s="3">
         <v>4</v>
       </c>
@@ -12556,7 +12577,7 @@
         <v>812</v>
       </c>
     </row>
-    <row r="46" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:17" ht="15" customHeight="1">
       <c r="A46" s="3">
         <v>4</v>
       </c>
@@ -12608,7 +12629,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="47" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:17" ht="15" customHeight="1">
       <c r="A47" s="3">
         <v>4</v>
       </c>
@@ -12662,7 +12683,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="48" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:17" ht="15" customHeight="1">
       <c r="A48" s="3">
         <v>4</v>
       </c>
@@ -12716,7 +12737,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="49" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:17" ht="15" customHeight="1">
       <c r="A49" s="3">
         <v>4</v>
       </c>
@@ -12770,7 +12791,7 @@
         <v>822</v>
       </c>
     </row>
-    <row r="50" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:17" ht="15" customHeight="1">
       <c r="A50" s="3">
         <v>4</v>
       </c>
@@ -12824,7 +12845,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="51" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:17" ht="15" customHeight="1">
       <c r="A51" s="3">
         <v>4</v>
       </c>
@@ -12878,7 +12899,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="52" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:17" ht="15" customHeight="1">
       <c r="A52" s="3">
         <v>4</v>
       </c>
@@ -12932,7 +12953,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="53" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:17" ht="15" customHeight="1">
       <c r="A53" s="3">
         <v>4</v>
       </c>
@@ -12984,7 +13005,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="54" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:17" ht="15" customHeight="1">
       <c r="A54" s="3">
         <v>4</v>
       </c>
@@ -13036,7 +13057,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="55" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:17" ht="15" customHeight="1">
       <c r="A55" s="3">
         <v>4</v>
       </c>
@@ -13088,7 +13109,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="56" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:17" ht="15" customHeight="1">
       <c r="A56" s="3">
         <v>4</v>
       </c>
@@ -13142,7 +13163,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="57" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:17" ht="15" customHeight="1">
       <c r="A57" s="3">
         <v>4</v>
       </c>
@@ -13194,7 +13215,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="58" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:17" ht="15" customHeight="1">
       <c r="A58" s="3">
         <v>4</v>
       </c>
@@ -13246,7 +13267,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="59" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:17" ht="15" customHeight="1">
       <c r="A59" s="3">
         <v>4</v>
       </c>
@@ -13298,7 +13319,7 @@
         <v>846</v>
       </c>
     </row>
-    <row r="60" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:17" ht="15" customHeight="1">
       <c r="A60" s="3">
         <v>17</v>
       </c>
@@ -13348,7 +13369,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="61" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:17" ht="15" customHeight="1">
       <c r="A61" s="3">
         <v>17</v>
       </c>
@@ -13400,7 +13421,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="62" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:17" ht="15" customHeight="1">
       <c r="A62" s="3">
         <v>4</v>
       </c>
@@ -13454,7 +13475,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="63" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:17" ht="15" customHeight="1">
       <c r="A63" s="3">
         <v>4</v>
       </c>
@@ -13508,7 +13529,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="64" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:17" ht="15" customHeight="1">
       <c r="A64" s="3">
         <v>4</v>
       </c>
@@ -13562,7 +13583,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="65" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:17" ht="15" customHeight="1">
       <c r="A65" s="3">
         <v>4</v>
       </c>
@@ -13616,7 +13637,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="66" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:17" ht="15" customHeight="1">
       <c r="A66" s="3">
         <v>4</v>
       </c>
@@ -13670,7 +13691,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="67" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:17" ht="15" customHeight="1">
       <c r="A67" s="3">
         <v>17</v>
       </c>
@@ -13722,7 +13743,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="68" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:17" ht="15" customHeight="1">
       <c r="A68" s="3">
         <v>17</v>
       </c>
@@ -13774,7 +13795,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="69" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:17" ht="15" customHeight="1">
       <c r="A69" s="3">
         <v>4</v>
       </c>
@@ -13828,7 +13849,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="70" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:17" ht="15" customHeight="1">
       <c r="A70" s="3">
         <v>4</v>
       </c>
@@ -13880,7 +13901,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="71" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:17" ht="15" customHeight="1">
       <c r="A71" s="3">
         <v>17</v>
       </c>
@@ -13934,7 +13955,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="72" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:17" ht="15" customHeight="1">
       <c r="A72" s="3">
         <v>4</v>
       </c>
@@ -13986,7 +14007,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="73" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:17" ht="15" customHeight="1">
       <c r="A73" s="3">
         <v>17</v>
       </c>
@@ -14038,7 +14059,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="74" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:17" ht="15" customHeight="1">
       <c r="A74" s="3">
         <v>4</v>
       </c>
@@ -14094,7 +14115,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="75" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:17" ht="15" customHeight="1">
       <c r="A75" s="3">
         <v>4</v>
       </c>
@@ -14150,7 +14171,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="76" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:17" ht="15" customHeight="1">
       <c r="A76" s="3">
         <v>4</v>
       </c>
@@ -14202,7 +14223,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="77" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:17" ht="15" customHeight="1">
       <c r="A77" s="3">
         <v>17</v>
       </c>
@@ -14258,7 +14279,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="78" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:17" ht="15" customHeight="1">
       <c r="A78" s="3">
         <v>17</v>
       </c>
@@ -14310,7 +14331,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="79" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:17" ht="15" customHeight="1">
       <c r="A79" s="3">
         <v>4</v>
       </c>
@@ -14362,7 +14383,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="80" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:17" ht="15" customHeight="1">
       <c r="A80" s="3">
         <v>4</v>
       </c>
@@ -14414,7 +14435,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="81" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:17" ht="15" customHeight="1">
       <c r="A81" s="3">
         <v>17</v>
       </c>
@@ -14468,7 +14489,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="82" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:17" ht="15" customHeight="1">
       <c r="A82" s="3">
         <v>17</v>
       </c>
@@ -14522,7 +14543,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="83" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:17" ht="15" customHeight="1">
       <c r="A83" s="3">
         <v>4</v>
       </c>
@@ -14574,7 +14595,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="84" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:17" ht="15" customHeight="1">
       <c r="A84" s="3">
         <v>4</v>
       </c>
@@ -14626,7 +14647,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="85" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:17" ht="15" customHeight="1">
       <c r="A85" s="3">
         <v>4</v>
       </c>
@@ -14678,7 +14699,7 @@
         <v>884</v>
       </c>
     </row>
-    <row r="86" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:17" ht="15" customHeight="1">
       <c r="A86" s="3">
         <v>17</v>
       </c>
@@ -14730,7 +14751,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="87" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:17" ht="15" customHeight="1">
       <c r="A87" s="3">
         <v>4</v>
       </c>
@@ -14782,7 +14803,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="88" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:17" ht="15" customHeight="1">
       <c r="A88" s="3">
         <v>4</v>
       </c>
@@ -14836,7 +14857,7 @@
         <v>888</v>
       </c>
     </row>
-    <row r="89" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:17" ht="15" customHeight="1">
       <c r="A89" s="3">
         <v>4</v>
       </c>
@@ -14890,7 +14911,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="90" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:17" ht="15" customHeight="1">
       <c r="A90" s="3">
         <v>4</v>
       </c>
@@ -14942,7 +14963,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="91" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:17" ht="15" customHeight="1">
       <c r="A91" s="3">
         <v>12</v>
       </c>
@@ -14994,7 +15015,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="92" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:17" ht="15" customHeight="1">
       <c r="A92" s="3">
         <v>16</v>
       </c>
@@ -15046,7 +15067,7 @@
         <v>3234</v>
       </c>
     </row>
-    <row r="93" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:17" ht="15" customHeight="1">
       <c r="A93" s="3">
         <v>16</v>
       </c>
@@ -15098,7 +15119,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="94" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:17" ht="15" customHeight="1">
       <c r="A94" s="3">
         <v>13</v>
       </c>
@@ -15148,7 +15169,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="95" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:17" ht="15" customHeight="1">
       <c r="A95" s="3">
         <v>15</v>
       </c>
@@ -15202,7 +15223,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="96" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:17" ht="15" customHeight="1">
       <c r="A96" s="3">
         <v>4</v>
       </c>
@@ -15256,7 +15277,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="97" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:17" ht="15" customHeight="1">
       <c r="A97" s="3">
         <v>4</v>
       </c>
@@ -15310,7 +15331,7 @@
         <v>897</v>
       </c>
     </row>
-    <row r="98" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:17" ht="15" customHeight="1">
       <c r="A98" s="3">
         <v>15</v>
       </c>
@@ -15364,7 +15385,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="99" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:17" ht="15" customHeight="1">
       <c r="A99" s="3">
         <v>4</v>
       </c>
@@ -15418,7 +15439,7 @@
         <v>899</v>
       </c>
     </row>
-    <row r="100" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:17" ht="15" customHeight="1">
       <c r="A100" s="3">
         <v>4</v>
       </c>
@@ -15472,7 +15493,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="101" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:17" ht="15" customHeight="1">
       <c r="A101" s="3">
         <v>4</v>
       </c>
@@ -15526,7 +15547,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="102" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:17" ht="15" customHeight="1">
       <c r="A102" s="3">
         <v>4</v>
       </c>
@@ -15580,7 +15601,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="103" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:17" ht="15" customHeight="1">
       <c r="A103" s="3">
         <v>4</v>
       </c>
@@ -15634,7 +15655,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="104" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:17" ht="15" customHeight="1">
       <c r="A104" s="3">
         <v>4</v>
       </c>
@@ -15690,7 +15711,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="105" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:17" ht="15" customHeight="1">
       <c r="A105" s="3">
         <v>4</v>
       </c>
@@ -15746,7 +15767,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="106" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:17" ht="15" customHeight="1">
       <c r="A106" s="3">
         <v>4</v>
       </c>
@@ -15800,7 +15821,7 @@
         <v>919</v>
       </c>
     </row>
-    <row r="107" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:17" ht="15" customHeight="1">
       <c r="A107" s="3">
         <v>15</v>
       </c>
@@ -15854,7 +15875,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="108" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:17" ht="15" customHeight="1">
       <c r="A108" s="3">
         <v>4</v>
       </c>
@@ -15906,7 +15927,7 @@
         <v>916</v>
       </c>
     </row>
-    <row r="109" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:17" ht="15" customHeight="1">
       <c r="A109" s="3">
         <v>4</v>
       </c>
@@ -15955,7 +15976,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="110" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:17" ht="15" customHeight="1">
       <c r="A110" s="3">
         <v>4</v>
       </c>
@@ -16007,7 +16028,7 @@
         <v>923</v>
       </c>
     </row>
-    <row r="111" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:17" ht="15" customHeight="1">
       <c r="A111" s="3">
         <v>15</v>
       </c>
@@ -16061,7 +16082,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="112" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:17" ht="15" customHeight="1">
       <c r="A112" s="3">
         <v>4</v>
       </c>
@@ -16113,7 +16134,7 @@
         <v>926</v>
       </c>
     </row>
-    <row r="113" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:17" ht="15" customHeight="1">
       <c r="A113" s="3">
         <v>4</v>
       </c>
@@ -16165,7 +16186,7 @@
         <v>928</v>
       </c>
     </row>
-    <row r="114" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:17" ht="15" customHeight="1">
       <c r="A114" s="3">
         <v>4</v>
       </c>
@@ -16219,7 +16240,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="115" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:17" ht="15" customHeight="1">
       <c r="A115" s="3">
         <v>4</v>
       </c>
@@ -16273,7 +16294,7 @@
         <v>933</v>
       </c>
     </row>
-    <row r="116" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:17" ht="15" customHeight="1">
       <c r="A116" s="3">
         <v>4</v>
       </c>
@@ -16325,7 +16346,7 @@
         <v>936</v>
       </c>
     </row>
-    <row r="117" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:17" ht="15" customHeight="1">
       <c r="A117" s="3">
         <v>4</v>
       </c>
@@ -16377,7 +16398,7 @@
         <v>938</v>
       </c>
     </row>
-    <row r="118" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:17" ht="15" customHeight="1">
       <c r="A118" s="3">
         <v>15</v>
       </c>
@@ -16429,7 +16450,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="119" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:17" ht="15" customHeight="1">
       <c r="A119" s="3">
         <v>4</v>
       </c>
@@ -16481,7 +16502,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="120" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:17" ht="15" customHeight="1">
       <c r="A120" s="3">
         <v>15</v>
       </c>
@@ -16533,7 +16554,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="121" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:17" ht="15" customHeight="1">
       <c r="A121" s="3">
         <v>4</v>
       </c>
@@ -16585,7 +16606,7 @@
         <v>944</v>
       </c>
     </row>
-    <row r="122" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:17" ht="15" customHeight="1">
       <c r="A122" s="3">
         <v>4</v>
       </c>
@@ -16637,7 +16658,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="123" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:17" ht="15" customHeight="1">
       <c r="A123" s="3">
         <v>4</v>
       </c>
@@ -16691,7 +16712,7 @@
         <v>949</v>
       </c>
     </row>
-    <row r="124" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:17" ht="15" customHeight="1">
       <c r="A124" s="3">
         <v>4</v>
       </c>
@@ -16745,7 +16766,7 @@
         <v>951</v>
       </c>
     </row>
-    <row r="125" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:17" ht="15" customHeight="1">
       <c r="A125" s="3">
         <v>15</v>
       </c>
@@ -16797,7 +16818,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="126" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:17" ht="15" customHeight="1">
       <c r="A126" s="3">
         <v>4</v>
       </c>
@@ -16851,7 +16872,7 @@
         <v>956</v>
       </c>
     </row>
-    <row r="127" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:17" ht="15" customHeight="1">
       <c r="A127" s="3">
         <v>4</v>
       </c>
@@ -16905,7 +16926,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="128" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:17" ht="15" customHeight="1">
       <c r="A128" s="3">
         <v>4</v>
       </c>
@@ -16959,7 +16980,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="129" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:17" ht="15" customHeight="1">
       <c r="A129" s="3">
         <v>4</v>
       </c>
@@ -17013,7 +17034,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="130" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:17" ht="15" customHeight="1">
       <c r="A130" s="3">
         <v>4</v>
       </c>
@@ -17067,7 +17088,7 @@
         <v>963</v>
       </c>
     </row>
-    <row r="131" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:17" ht="15" customHeight="1">
       <c r="A131" s="3">
         <v>4</v>
       </c>
@@ -17119,7 +17140,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="132" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:17" ht="15" customHeight="1">
       <c r="A132" s="3">
         <v>4</v>
       </c>
@@ -17171,7 +17192,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="133" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:17" ht="15" customHeight="1">
       <c r="A133" s="3">
         <v>15</v>
       </c>
@@ -17223,7 +17244,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="134" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:17" ht="15" customHeight="1">
       <c r="A134" s="3">
         <v>3</v>
       </c>
@@ -17277,7 +17298,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="135" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:17" ht="15" customHeight="1">
       <c r="A135" s="3">
         <v>3</v>
       </c>
@@ -17326,7 +17347,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="136" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:17" ht="15" customHeight="1">
       <c r="A136" s="3">
         <v>3</v>
       </c>
@@ -17378,7 +17399,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="137" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:17" ht="15" customHeight="1">
       <c r="A137" s="3">
         <v>3</v>
       </c>
@@ -17432,7 +17453,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="138" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:17" ht="15" customHeight="1">
       <c r="A138" s="3">
         <v>4</v>
       </c>
@@ -17486,7 +17507,7 @@
         <v>970</v>
       </c>
     </row>
-    <row r="139" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:17" ht="15" customHeight="1">
       <c r="A139" s="3">
         <v>4</v>
       </c>
@@ -17540,7 +17561,7 @@
         <v>972</v>
       </c>
     </row>
-    <row r="140" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:17" ht="15" customHeight="1">
       <c r="A140" s="3">
         <v>4</v>
       </c>
@@ -17594,7 +17615,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="141" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:17" ht="15" customHeight="1">
       <c r="A141" s="3">
         <v>4</v>
       </c>
@@ -17646,7 +17667,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="142" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:17" ht="15" customHeight="1">
       <c r="A142" s="3">
         <v>4</v>
       </c>
@@ -17700,7 +17721,7 @@
         <v>978</v>
       </c>
     </row>
-    <row r="143" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:17" ht="15" customHeight="1">
       <c r="A143" s="3">
         <v>4</v>
       </c>
@@ -17754,7 +17775,7 @@
         <v>985</v>
       </c>
     </row>
-    <row r="144" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:17" ht="15" customHeight="1">
       <c r="A144" s="3">
         <v>4</v>
       </c>
@@ -17806,7 +17827,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="145" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:17" ht="15" customHeight="1">
       <c r="A145" s="3">
         <v>4</v>
       </c>
@@ -17858,7 +17879,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="146" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:17" ht="15" customHeight="1">
       <c r="A146" s="3">
         <v>4</v>
       </c>
@@ -17910,7 +17931,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="147" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:17" ht="15" customHeight="1">
       <c r="A147" s="3">
         <v>3</v>
       </c>
@@ -17964,7 +17985,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="148" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:17" ht="15" customHeight="1">
       <c r="A148" s="3">
         <v>4</v>
       </c>
@@ -18013,7 +18034,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="149" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:17" ht="15" customHeight="1">
       <c r="A149" s="3">
         <v>4</v>
       </c>
@@ -18065,7 +18086,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="150" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:17" ht="15" customHeight="1">
       <c r="A150" s="3">
         <v>4</v>
       </c>
@@ -18117,7 +18138,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="151" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:17" ht="15" customHeight="1">
       <c r="A151" s="3">
         <v>4</v>
       </c>
@@ -18169,7 +18190,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="152" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:17" ht="15" customHeight="1">
       <c r="A152" s="3">
         <v>4</v>
       </c>
@@ -18223,7 +18244,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="153" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:17" ht="15" customHeight="1">
       <c r="A153" s="3">
         <v>4</v>
       </c>
@@ -18277,7 +18298,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="154" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:17" ht="15" customHeight="1">
       <c r="A154" s="3">
         <v>4</v>
       </c>
@@ -18331,7 +18352,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="155" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:17" ht="15" customHeight="1">
       <c r="A155" s="3">
         <v>4</v>
       </c>
@@ -18378,7 +18399,7 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="156" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:17" ht="15" customHeight="1">
       <c r="A156" s="3">
         <v>3</v>
       </c>
@@ -18432,7 +18453,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="157" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:17" ht="15" customHeight="1">
       <c r="A157" s="3">
         <v>4</v>
       </c>
@@ -18486,7 +18507,7 @@
         <v>1014</v>
       </c>
     </row>
-    <row r="158" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:17" ht="15" customHeight="1">
       <c r="A158" s="3">
         <v>3</v>
       </c>
@@ -18540,7 +18561,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="159" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:17" ht="15" customHeight="1">
       <c r="A159" s="3">
         <v>4</v>
       </c>
@@ -18592,7 +18613,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="160" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:17" ht="15" customHeight="1">
       <c r="A160" s="3">
         <v>44</v>
       </c>
@@ -18646,7 +18667,7 @@
         <v>1168</v>
       </c>
     </row>
-    <row r="161" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:17" ht="15" customHeight="1">
       <c r="A161" s="3">
         <v>4</v>
       </c>
@@ -18698,7 +18719,7 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="162" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:17" ht="15" customHeight="1">
       <c r="A162" s="3">
         <v>4</v>
       </c>
@@ -18752,7 +18773,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="163" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:17" ht="15" customHeight="1">
       <c r="A163" s="3">
         <v>44</v>
       </c>
@@ -18804,7 +18825,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="164" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:17" ht="15" customHeight="1">
       <c r="A164" s="3">
         <v>4</v>
       </c>
@@ -18856,7 +18877,7 @@
         <v>1022</v>
       </c>
     </row>
-    <row r="165" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:17" ht="15" customHeight="1">
       <c r="A165" s="3">
         <v>44</v>
       </c>
@@ -18906,7 +18927,7 @@
         <v>3261</v>
       </c>
     </row>
-    <row r="166" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:17" ht="15" customHeight="1">
       <c r="A166" s="3">
         <v>4</v>
       </c>
@@ -18958,7 +18979,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="167" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:17" ht="15" customHeight="1">
       <c r="A167" s="3">
         <v>4</v>
       </c>
@@ -19010,7 +19031,7 @@
         <v>1029</v>
       </c>
     </row>
-    <row r="168" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:17" ht="15" customHeight="1">
       <c r="A168" s="3">
         <v>4</v>
       </c>
@@ -19064,7 +19085,7 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="169" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:17" ht="15" customHeight="1">
       <c r="A169" s="3">
         <v>44</v>
       </c>
@@ -19116,7 +19137,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="170" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:17" ht="15" customHeight="1">
       <c r="A170" s="3">
         <v>4</v>
       </c>
@@ -19170,7 +19191,7 @@
         <v>1043</v>
       </c>
     </row>
-    <row r="171" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:17" ht="15" customHeight="1">
       <c r="A171" s="3">
         <v>4</v>
       </c>
@@ -19222,7 +19243,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="172" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:17" ht="15" customHeight="1">
       <c r="A172" s="3">
         <v>4</v>
       </c>
@@ -19274,7 +19295,7 @@
         <v>1038</v>
       </c>
     </row>
-    <row r="173" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:17" ht="15" customHeight="1">
       <c r="A173" s="3">
         <v>4</v>
       </c>
@@ -19326,7 +19347,7 @@
         <v>1041</v>
       </c>
     </row>
-    <row r="174" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:17" ht="15" customHeight="1">
       <c r="A174" s="3">
         <v>4</v>
       </c>
@@ -19378,7 +19399,7 @@
         <v>1046</v>
       </c>
     </row>
-    <row r="175" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:17" ht="15" customHeight="1">
       <c r="A175" s="3">
         <v>44</v>
       </c>
@@ -19430,7 +19451,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="176" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:17" ht="15" customHeight="1">
       <c r="A176" s="3">
         <v>44</v>
       </c>
@@ -19482,7 +19503,7 @@
         <v>1179</v>
       </c>
     </row>
-    <row r="177" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:17" ht="15" customHeight="1">
       <c r="A177" s="3">
         <v>44</v>
       </c>
@@ -19536,7 +19557,7 @@
         <v>1182</v>
       </c>
     </row>
-    <row r="178" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:17" ht="15" customHeight="1">
       <c r="A178" s="3">
         <v>44</v>
       </c>
@@ -19588,7 +19609,7 @@
         <v>1187</v>
       </c>
     </row>
-    <row r="179" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:17" ht="15" customHeight="1">
       <c r="A179" s="3">
         <v>44</v>
       </c>
@@ -19640,7 +19661,7 @@
         <v>1190</v>
       </c>
     </row>
-    <row r="180" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:17" ht="15" customHeight="1">
       <c r="A180" s="3">
         <v>44</v>
       </c>
@@ -19692,7 +19713,7 @@
         <v>1193</v>
       </c>
     </row>
-    <row r="181" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:17" ht="15" customHeight="1">
       <c r="A181" s="3">
         <v>12</v>
       </c>
@@ -19744,7 +19765,7 @@
         <v>1198</v>
       </c>
     </row>
-    <row r="182" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:17" ht="15" customHeight="1">
       <c r="A182" s="3">
         <v>12</v>
       </c>
@@ -19798,7 +19819,7 @@
         <v>1195</v>
       </c>
     </row>
-    <row r="183" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:17" ht="15" customHeight="1">
       <c r="A183" s="3">
         <v>12</v>
       </c>
@@ -19850,7 +19871,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="184" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:17" ht="15" customHeight="1">
       <c r="A184" s="3">
         <v>4</v>
       </c>
@@ -19902,7 +19923,7 @@
         <v>1048</v>
       </c>
     </row>
-    <row r="185" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:17" ht="15" customHeight="1">
       <c r="A185" s="3">
         <v>4</v>
       </c>
@@ -19954,7 +19975,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="186" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:17" ht="15" customHeight="1">
       <c r="A186" s="3">
         <v>12</v>
       </c>
@@ -20006,7 +20027,7 @@
         <v>1202</v>
       </c>
     </row>
-    <row r="187" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:17" ht="15" customHeight="1">
       <c r="A187" s="3">
         <v>12</v>
       </c>
@@ -20060,7 +20081,7 @@
         <v>1204</v>
       </c>
     </row>
-    <row r="188" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:17" ht="15" customHeight="1">
       <c r="A188" s="3">
         <v>12</v>
       </c>
@@ -20114,7 +20135,7 @@
         <v>1206</v>
       </c>
     </row>
-    <row r="189" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:17" ht="15" customHeight="1">
       <c r="A189" s="3">
         <v>4</v>
       </c>
@@ -20166,7 +20187,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="190" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:17" ht="15" customHeight="1">
       <c r="A190" s="3">
         <v>6</v>
       </c>
@@ -20222,7 +20243,7 @@
         <v>1208</v>
       </c>
     </row>
-    <row r="191" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:17" ht="15" customHeight="1">
       <c r="A191" s="3">
         <v>4</v>
       </c>
@@ -20269,7 +20290,7 @@
         <v>1055</v>
       </c>
     </row>
-    <row r="192" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:17" ht="15" customHeight="1">
       <c r="A192" s="3">
         <v>4</v>
       </c>
@@ -20323,7 +20344,7 @@
         <v>1057</v>
       </c>
     </row>
-    <row r="193" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:17" ht="15" customHeight="1">
       <c r="A193" s="3">
         <v>4</v>
       </c>
@@ -20377,7 +20398,7 @@
         <v>1059</v>
       </c>
     </row>
-    <row r="194" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:17" ht="15" customHeight="1">
       <c r="A194" s="3">
         <v>4</v>
       </c>
@@ -20431,7 +20452,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="195" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:17" ht="15" customHeight="1">
       <c r="A195" s="3">
         <v>4</v>
       </c>
@@ -20485,7 +20506,7 @@
         <v>1063</v>
       </c>
     </row>
-    <row r="196" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:17" ht="15" customHeight="1">
       <c r="A196" s="3">
         <v>4</v>
       </c>
@@ -20539,7 +20560,7 @@
         <v>1065</v>
       </c>
     </row>
-    <row r="197" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:17" ht="15" customHeight="1">
       <c r="A197" s="3">
         <v>6</v>
       </c>
@@ -20595,7 +20616,7 @@
         <v>1210</v>
       </c>
     </row>
-    <row r="198" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:17" ht="15" customHeight="1">
       <c r="A198" s="3">
         <v>43</v>
       </c>
@@ -20647,7 +20668,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="199" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:17" ht="15" customHeight="1">
       <c r="A199" s="3">
         <v>4</v>
       </c>
@@ -20701,7 +20722,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="200" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:17" ht="15" customHeight="1">
       <c r="A200" s="3">
         <v>4</v>
       </c>
@@ -20755,7 +20776,7 @@
         <v>1070</v>
       </c>
     </row>
-    <row r="201" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:17" ht="15" customHeight="1">
       <c r="A201" s="3">
         <v>43</v>
       </c>
@@ -20805,7 +20826,7 @@
         <v>1218</v>
       </c>
     </row>
-    <row r="202" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:17" ht="15" customHeight="1">
       <c r="A202" s="3">
         <v>43</v>
       </c>
@@ -20855,7 +20876,7 @@
         <v>1225</v>
       </c>
     </row>
-    <row r="203" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:17" ht="15" customHeight="1">
       <c r="A203" s="3">
         <v>43</v>
       </c>
@@ -20907,7 +20928,7 @@
         <v>1213</v>
       </c>
     </row>
-    <row r="204" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:17" ht="15" customHeight="1">
       <c r="A204" s="3">
         <v>43</v>
       </c>
@@ -20961,7 +20982,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="205" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:17" ht="15" customHeight="1">
       <c r="A205" s="3">
         <v>4</v>
       </c>
@@ -21015,7 +21036,7 @@
         <v>1072</v>
       </c>
     </row>
-    <row r="206" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:17" ht="15" customHeight="1">
       <c r="A206" s="3">
         <v>4</v>
       </c>
@@ -21071,7 +21092,7 @@
         <v>1074</v>
       </c>
     </row>
-    <row r="207" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:17" ht="15" customHeight="1">
       <c r="A207" s="3">
         <v>4</v>
       </c>
@@ -21123,7 +21144,7 @@
         <v>1076</v>
       </c>
     </row>
-    <row r="208" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:17" ht="15" customHeight="1">
       <c r="A208" s="3">
         <v>43</v>
       </c>
@@ -21175,7 +21196,7 @@
         <v>1228</v>
       </c>
     </row>
-    <row r="209" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:17" ht="15" customHeight="1">
       <c r="A209" s="3">
         <v>43</v>
       </c>
@@ -21227,7 +21248,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="210" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:17" ht="15" customHeight="1">
       <c r="A210" s="3">
         <v>4</v>
       </c>
@@ -21279,7 +21300,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="211" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:17" ht="15" customHeight="1">
       <c r="A211" s="3">
         <v>4</v>
       </c>
@@ -21333,7 +21354,7 @@
         <v>1082</v>
       </c>
     </row>
-    <row r="212" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:17" ht="15" customHeight="1">
       <c r="A212" s="3">
         <v>43</v>
       </c>
@@ -21385,7 +21406,7 @@
         <v>1235</v>
       </c>
     </row>
-    <row r="213" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:17" ht="15" customHeight="1">
       <c r="A213" s="3">
         <v>4</v>
       </c>
@@ -21439,7 +21460,7 @@
         <v>1084</v>
       </c>
     </row>
-    <row r="214" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:17" ht="15" customHeight="1">
       <c r="A214" s="3">
         <v>43</v>
       </c>
@@ -21489,7 +21510,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="215" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:17" ht="15" customHeight="1">
       <c r="A215" s="3">
         <v>43</v>
       </c>
@@ -21539,7 +21560,7 @@
         <v>1242</v>
       </c>
     </row>
-    <row r="216" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:17" ht="15" customHeight="1">
       <c r="A216" s="3">
         <v>8</v>
       </c>
@@ -21593,7 +21614,7 @@
         <v>1244</v>
       </c>
     </row>
-    <row r="217" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:17" ht="15" customHeight="1">
       <c r="A217" s="3">
         <v>11</v>
       </c>
@@ -21643,7 +21664,7 @@
         <v>1246</v>
       </c>
     </row>
-    <row r="218" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:17" ht="15" customHeight="1">
       <c r="A218" s="3">
         <v>8</v>
       </c>
@@ -21695,7 +21716,7 @@
         <v>1248</v>
       </c>
     </row>
-    <row r="219" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:17" ht="15" customHeight="1">
       <c r="A219" s="3">
         <v>8</v>
       </c>
@@ -21747,7 +21768,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="220" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:17" ht="15" customHeight="1">
       <c r="A220" s="3">
         <v>8</v>
       </c>
@@ -21799,7 +21820,7 @@
         <v>1252</v>
       </c>
     </row>
-    <row r="221" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:17" ht="15" customHeight="1">
       <c r="A221" s="3">
         <v>8</v>
       </c>
@@ -21853,7 +21874,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="222" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:17" ht="15" customHeight="1">
       <c r="A222" s="3">
         <v>7</v>
       </c>
@@ -21907,7 +21928,7 @@
         <v>1256</v>
       </c>
     </row>
-    <row r="223" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:17" ht="15" customHeight="1">
       <c r="A223" s="3">
         <v>7</v>
       </c>
@@ -21957,7 +21978,7 @@
         <v>1268</v>
       </c>
     </row>
-    <row r="224" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:17" ht="15" customHeight="1">
       <c r="A224" s="3">
         <v>7</v>
       </c>
@@ -22009,7 +22030,7 @@
         <v>1265</v>
       </c>
     </row>
-    <row r="225" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:17" ht="15" customHeight="1">
       <c r="A225" s="3">
         <v>7</v>
       </c>
@@ -22061,7 +22082,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="226" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:17" ht="15" customHeight="1">
       <c r="A226" s="3">
         <v>7</v>
       </c>
@@ -22113,7 +22134,7 @@
         <v>3259</v>
       </c>
     </row>
-    <row r="227" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:17" ht="15" customHeight="1">
       <c r="A227" s="3">
         <v>7</v>
       </c>
@@ -22165,7 +22186,7 @@
         <v>1262</v>
       </c>
     </row>
-    <row r="228" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:17" ht="15" customHeight="1">
       <c r="A228" s="3">
         <v>7</v>
       </c>
@@ -22215,7 +22236,7 @@
         <v>3258</v>
       </c>
     </row>
-    <row r="229" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:17" ht="15" customHeight="1">
       <c r="A229" s="3">
         <v>7</v>
       </c>
@@ -22267,7 +22288,7 @@
         <v>1273</v>
       </c>
     </row>
-    <row r="230" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:17" ht="15" customHeight="1">
       <c r="A230" s="3">
         <v>7</v>
       </c>
@@ -22321,7 +22342,7 @@
         <v>1275</v>
       </c>
     </row>
-    <row r="231" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:17" ht="15" customHeight="1">
       <c r="A231" s="3">
         <v>7</v>
       </c>
@@ -22373,7 +22394,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="232" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:17" ht="15" customHeight="1">
       <c r="A232" s="3">
         <v>7</v>
       </c>
@@ -22425,7 +22446,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="233" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:17" ht="15" customHeight="1">
       <c r="A233" s="3">
         <v>8</v>
       </c>
@@ -22477,7 +22498,7 @@
         <v>1281</v>
       </c>
     </row>
-    <row r="234" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:17" ht="15" customHeight="1">
       <c r="A234" s="3">
         <v>8</v>
       </c>
@@ -22529,7 +22550,7 @@
         <v>1283</v>
       </c>
     </row>
-    <row r="235" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:17" ht="15" customHeight="1">
       <c r="A235" s="3">
         <v>8</v>
       </c>
@@ -22583,7 +22604,7 @@
         <v>1285</v>
       </c>
     </row>
-    <row r="236" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:17" ht="15" customHeight="1">
       <c r="A236" s="3">
         <v>8</v>
       </c>
@@ -22637,7 +22658,7 @@
         <v>1287</v>
       </c>
     </row>
-    <row r="237" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:17" ht="15" customHeight="1">
       <c r="A237" s="3">
         <v>8</v>
       </c>
@@ -22689,7 +22710,7 @@
         <v>1289</v>
       </c>
     </row>
-    <row r="238" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:17" ht="15" customHeight="1">
       <c r="A238" s="3">
         <v>14</v>
       </c>
@@ -22743,7 +22764,7 @@
         <v>1291</v>
       </c>
     </row>
-    <row r="239" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:17" ht="15" customHeight="1">
       <c r="A239" s="3">
         <v>12</v>
       </c>
@@ -22795,7 +22816,7 @@
         <v>1293</v>
       </c>
     </row>
-    <row r="240" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:17" ht="15" customHeight="1">
       <c r="A240" s="3">
         <v>12</v>
       </c>
@@ -22849,7 +22870,7 @@
         <v>1295</v>
       </c>
     </row>
-    <row r="241" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:17" ht="15" customHeight="1">
       <c r="A241" s="3">
         <v>8</v>
       </c>
@@ -22901,7 +22922,7 @@
         <v>1297</v>
       </c>
     </row>
-    <row r="242" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:17" ht="15" customHeight="1">
       <c r="A242" s="3">
         <v>8</v>
       </c>
@@ -22955,7 +22976,7 @@
         <v>1299</v>
       </c>
     </row>
-    <row r="243" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:17" ht="15" customHeight="1">
       <c r="A243" s="3">
         <v>8</v>
       </c>
@@ -23007,7 +23028,7 @@
         <v>1301</v>
       </c>
     </row>
-    <row r="244" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:17" ht="15" customHeight="1">
       <c r="A244" s="3">
         <v>8</v>
       </c>
@@ -23059,7 +23080,7 @@
         <v>1304</v>
       </c>
     </row>
-    <row r="245" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:17" ht="15" customHeight="1">
       <c r="A245" s="3">
         <v>8</v>
       </c>
@@ -23111,7 +23132,7 @@
         <v>1306</v>
       </c>
     </row>
-    <row r="246" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:17" ht="15" customHeight="1">
       <c r="A246" s="3">
         <v>8</v>
       </c>
@@ -23163,7 +23184,7 @@
         <v>1309</v>
       </c>
     </row>
-    <row r="247" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:17" ht="15" customHeight="1">
       <c r="A247" s="3">
         <v>8</v>
       </c>
@@ -23217,7 +23238,7 @@
         <v>1311</v>
       </c>
     </row>
-    <row r="248" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:17" ht="15" customHeight="1">
       <c r="A248" s="3">
         <v>11</v>
       </c>
@@ -23269,7 +23290,7 @@
         <v>1313</v>
       </c>
     </row>
-    <row r="249" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:17" ht="15" customHeight="1">
       <c r="A249" s="3">
         <v>8</v>
       </c>
@@ -23321,7 +23342,7 @@
         <v>1315</v>
       </c>
     </row>
-    <row r="250" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:17" ht="15" customHeight="1">
       <c r="A250" s="3">
         <v>8</v>
       </c>
@@ -23373,7 +23394,7 @@
         <v>1317</v>
       </c>
     </row>
-    <row r="251" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:17" ht="15" customHeight="1">
       <c r="A251" s="3">
         <v>11</v>
       </c>
@@ -23423,7 +23444,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="252" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:17" ht="15" customHeight="1">
       <c r="A252" s="3">
         <v>8</v>
       </c>
@@ -23473,7 +23494,7 @@
         <v>1324</v>
       </c>
     </row>
-    <row r="253" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:17" ht="15" customHeight="1">
       <c r="A253" s="3">
         <v>8</v>
       </c>
@@ -23525,7 +23546,7 @@
         <v>1321</v>
       </c>
     </row>
-    <row r="254" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:17" ht="15" customHeight="1">
       <c r="A254" s="3">
         <v>14</v>
       </c>
@@ -23577,7 +23598,7 @@
         <v>1326</v>
       </c>
     </row>
-    <row r="255" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:17" ht="15" customHeight="1">
       <c r="A255" s="3">
         <v>11</v>
       </c>
@@ -23631,7 +23652,7 @@
         <v>1328</v>
       </c>
     </row>
-    <row r="256" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:17" ht="15" customHeight="1">
       <c r="A256" s="3">
         <v>8</v>
       </c>
@@ -23683,7 +23704,7 @@
         <v>1330</v>
       </c>
     </row>
-    <row r="257" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:17" ht="15" customHeight="1">
       <c r="A257" s="3">
         <v>8</v>
       </c>
@@ -23733,7 +23754,7 @@
         <v>1334</v>
       </c>
     </row>
-    <row r="258" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:17" ht="15" customHeight="1">
       <c r="A258" s="3">
         <v>8</v>
       </c>
@@ -23783,7 +23804,7 @@
         <v>1337</v>
       </c>
     </row>
-    <row r="259" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:17" ht="15" customHeight="1">
       <c r="A259" s="3">
         <v>8</v>
       </c>
@@ -23837,7 +23858,7 @@
         <v>1339</v>
       </c>
     </row>
-    <row r="260" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:17" ht="15" customHeight="1">
       <c r="A260" s="3">
         <v>13</v>
       </c>
@@ -23889,7 +23910,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="261" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:17" ht="15" customHeight="1">
       <c r="A261" s="3">
         <v>13</v>
       </c>
@@ -23943,7 +23964,7 @@
         <v>1344</v>
       </c>
     </row>
-    <row r="262" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:17" ht="15" customHeight="1">
       <c r="A262" s="3">
         <v>13</v>
       </c>
@@ -23997,7 +24018,7 @@
         <v>1346</v>
       </c>
     </row>
-    <row r="263" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:17" ht="15" customHeight="1">
       <c r="A263" s="3">
         <v>8</v>
       </c>
@@ -24049,7 +24070,7 @@
         <v>1348</v>
       </c>
     </row>
-    <row r="264" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:17" ht="15" customHeight="1">
       <c r="A264" s="3">
         <v>13</v>
       </c>
@@ -24101,7 +24122,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="265" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:17" ht="15" customHeight="1">
       <c r="A265" s="3">
         <v>13</v>
       </c>
@@ -24155,7 +24176,7 @@
         <v>1352</v>
       </c>
     </row>
-    <row r="266" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:17" ht="15" customHeight="1">
       <c r="A266" s="3">
         <v>13</v>
       </c>
@@ -24205,7 +24226,7 @@
         <v>1354</v>
       </c>
     </row>
-    <row r="267" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:17" ht="15" customHeight="1">
       <c r="A267" s="3">
         <v>13</v>
       </c>
@@ -24257,7 +24278,7 @@
         <v>1356</v>
       </c>
     </row>
-    <row r="268" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:17" ht="15" customHeight="1">
       <c r="A268" s="3">
         <v>13</v>
       </c>
@@ -24309,7 +24330,7 @@
         <v>1358</v>
       </c>
     </row>
-    <row r="269" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:17" ht="15" customHeight="1">
       <c r="A269" s="3">
         <v>13</v>
       </c>
@@ -24361,7 +24382,7 @@
         <v>1362</v>
       </c>
     </row>
-    <row r="270" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:17" ht="15" customHeight="1">
       <c r="A270" s="3">
         <v>13</v>
       </c>
@@ -24413,7 +24434,7 @@
         <v>1366</v>
       </c>
     </row>
-    <row r="271" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:17" ht="15" customHeight="1">
       <c r="A271" s="3">
         <v>13</v>
       </c>
@@ -24465,7 +24486,7 @@
         <v>1368</v>
       </c>
     </row>
-    <row r="272" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:17" ht="15" customHeight="1">
       <c r="A272" s="3">
         <v>13</v>
       </c>
@@ -24519,7 +24540,7 @@
         <v>1370</v>
       </c>
     </row>
-    <row r="273" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:17" ht="15" customHeight="1">
       <c r="A273" s="3">
         <v>13</v>
       </c>
@@ -24569,7 +24590,7 @@
         <v>1372</v>
       </c>
     </row>
-    <row r="274" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:17" ht="15" customHeight="1">
       <c r="A274" s="3">
         <v>13</v>
       </c>
@@ -24621,7 +24642,7 @@
         <v>1375</v>
       </c>
     </row>
-    <row r="275" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:17" ht="15" customHeight="1">
       <c r="A275" s="3">
         <v>13</v>
       </c>
@@ -24671,7 +24692,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="276" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:17" ht="15" customHeight="1">
       <c r="A276" s="3">
         <v>13</v>
       </c>
@@ -24721,7 +24742,7 @@
         <v>1383</v>
       </c>
     </row>
-    <row r="277" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:17" ht="15" customHeight="1">
       <c r="A277" s="3">
         <v>13</v>
       </c>
@@ -24773,7 +24794,7 @@
         <v>1385</v>
       </c>
     </row>
-    <row r="278" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:17" ht="15" customHeight="1">
       <c r="A278" s="3">
         <v>13</v>
       </c>
@@ -24823,7 +24844,7 @@
         <v>1387</v>
       </c>
     </row>
-    <row r="279" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:17" ht="15" customHeight="1">
       <c r="A279" s="3">
         <v>13</v>
       </c>
@@ -24875,7 +24896,7 @@
         <v>1391</v>
       </c>
     </row>
-    <row r="280" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:17" ht="15" customHeight="1">
       <c r="A280" s="3">
         <v>13</v>
       </c>
@@ -24925,7 +24946,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="281" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:17" ht="15" customHeight="1">
       <c r="A281" s="3">
         <v>13</v>
       </c>
@@ -24975,7 +24996,7 @@
         <v>1395</v>
       </c>
     </row>
-    <row r="282" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:17" ht="15" customHeight="1">
       <c r="A282" s="3">
         <v>13</v>
       </c>
@@ -25025,7 +25046,7 @@
         <v>1402</v>
       </c>
     </row>
-    <row r="283" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:17" ht="15" customHeight="1">
       <c r="A283" s="3">
         <v>13</v>
       </c>
@@ -25079,7 +25100,7 @@
         <v>1398</v>
       </c>
     </row>
-    <row r="284" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:17" ht="15" customHeight="1">
       <c r="A284" s="3">
         <v>13</v>
       </c>
@@ -25129,7 +25150,7 @@
         <v>1404</v>
       </c>
     </row>
-    <row r="285" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:17" ht="15" customHeight="1">
       <c r="A285" s="3">
         <v>13</v>
       </c>
@@ -25181,7 +25202,7 @@
         <v>1409</v>
       </c>
     </row>
-    <row r="286" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:17" ht="15" customHeight="1">
       <c r="A286" s="3">
         <v>13</v>
       </c>
@@ -25235,7 +25256,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="287" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:17" ht="15" customHeight="1">
       <c r="A287" s="3">
         <v>13</v>
       </c>
@@ -25285,7 +25306,7 @@
         <v>1413</v>
       </c>
     </row>
-    <row r="288" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:17" ht="15" customHeight="1">
       <c r="A288" s="3">
         <v>13</v>
       </c>
@@ -25335,7 +25356,7 @@
         <v>1416</v>
       </c>
     </row>
-    <row r="289" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:17" ht="15" customHeight="1">
       <c r="A289" s="3">
         <v>13</v>
       </c>
@@ -25389,7 +25410,7 @@
         <v>1418</v>
       </c>
     </row>
-    <row r="290" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:17" ht="15" customHeight="1">
       <c r="A290" s="3">
         <v>13</v>
       </c>
@@ -25439,7 +25460,7 @@
         <v>1422</v>
       </c>
     </row>
-    <row r="291" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:17" ht="15" customHeight="1">
       <c r="A291" s="3">
         <v>13</v>
       </c>
@@ -25489,7 +25510,7 @@
         <v>1426</v>
       </c>
     </row>
-    <row r="292" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:17" ht="15" customHeight="1">
       <c r="A292" s="3">
         <v>13</v>
       </c>
@@ -25543,7 +25564,7 @@
         <v>1428</v>
       </c>
     </row>
-    <row r="293" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:17" ht="15" customHeight="1">
       <c r="A293" s="3">
         <v>13</v>
       </c>
@@ -25597,7 +25618,7 @@
         <v>1431</v>
       </c>
     </row>
-    <row r="294" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:17" ht="15" customHeight="1">
       <c r="A294" s="3">
         <v>13</v>
       </c>
@@ -25651,7 +25672,7 @@
         <v>1433</v>
       </c>
     </row>
-    <row r="295" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:17" ht="15" customHeight="1">
       <c r="A295" s="3">
         <v>14</v>
       </c>
@@ -25705,7 +25726,7 @@
         <v>1448</v>
       </c>
     </row>
-    <row r="296" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:17" ht="15" customHeight="1">
       <c r="A296" s="3">
         <v>14</v>
       </c>
@@ -25757,7 +25778,7 @@
         <v>1454</v>
       </c>
     </row>
-    <row r="297" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:17" ht="15" customHeight="1">
       <c r="A297" s="3">
         <v>14</v>
       </c>
@@ -25811,7 +25832,7 @@
         <v>1457</v>
       </c>
     </row>
-    <row r="298" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:17" ht="15" customHeight="1">
       <c r="A298" s="3">
         <v>14</v>
       </c>
@@ -25861,7 +25882,7 @@
         <v>1451</v>
       </c>
     </row>
-    <row r="299" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:17" ht="15" customHeight="1">
       <c r="A299" s="3">
         <v>14</v>
       </c>
@@ -25911,7 +25932,7 @@
         <v>1461</v>
       </c>
     </row>
-    <row r="300" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:17" ht="15" customHeight="1">
       <c r="A300" s="3">
         <v>14</v>
       </c>
@@ -25965,7 +25986,7 @@
         <v>1442</v>
       </c>
     </row>
-    <row r="301" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:17" ht="15" customHeight="1">
       <c r="A301" s="3">
         <v>14</v>
       </c>
@@ -26017,7 +26038,7 @@
         <v>1437</v>
       </c>
     </row>
-    <row r="302" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:17" ht="15" customHeight="1">
       <c r="A302" s="3">
         <v>14</v>
       </c>
@@ -26071,7 +26092,7 @@
         <v>1439</v>
       </c>
     </row>
-    <row r="303" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:17" ht="15" customHeight="1">
       <c r="A303" s="3">
         <v>14</v>
       </c>
@@ -26125,7 +26146,7 @@
         <v>1445</v>
       </c>
     </row>
-    <row r="304" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:17" ht="15" customHeight="1">
       <c r="A304" s="3">
         <v>14</v>
       </c>
@@ -26177,7 +26198,7 @@
         <v>1466</v>
       </c>
     </row>
-    <row r="305" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:17" ht="15" customHeight="1">
       <c r="A305" s="3">
         <v>14</v>
       </c>
@@ -26229,7 +26250,7 @@
         <v>1463</v>
       </c>
     </row>
-    <row r="306" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:17" ht="15" customHeight="1">
       <c r="A306" s="3">
         <v>14</v>
       </c>
@@ -26283,7 +26304,7 @@
         <v>1471</v>
       </c>
     </row>
-    <row r="307" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:17" ht="15" customHeight="1">
       <c r="A307" s="3">
         <v>14</v>
       </c>
@@ -26333,7 +26354,7 @@
         <v>1468</v>
       </c>
     </row>
-    <row r="308" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:17" ht="15" customHeight="1">
       <c r="A308" s="3">
         <v>14</v>
       </c>
@@ -26385,7 +26406,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="309" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:17" ht="15" customHeight="1">
       <c r="A309" s="3">
         <v>14</v>
       </c>
@@ -26437,7 +26458,7 @@
         <v>1474</v>
       </c>
     </row>
-    <row r="310" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:17" ht="15" customHeight="1">
       <c r="A310" s="3">
         <v>14</v>
       </c>
@@ -26489,7 +26510,7 @@
         <v>1483</v>
       </c>
     </row>
-    <row r="311" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:17" ht="15" customHeight="1">
       <c r="A311" s="3">
         <v>14</v>
       </c>
@@ -26541,7 +26562,7 @@
         <v>1477</v>
       </c>
     </row>
-    <row r="312" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:17" ht="15" customHeight="1">
       <c r="A312" s="3">
         <v>14</v>
       </c>
@@ -26593,7 +26614,7 @@
         <v>1486</v>
       </c>
     </row>
-    <row r="313" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:17" ht="15" customHeight="1">
       <c r="A313" s="3">
         <v>14</v>
       </c>
@@ -26643,7 +26664,7 @@
         <v>1490</v>
       </c>
     </row>
-    <row r="314" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:17" ht="15" customHeight="1">
       <c r="A314" s="3">
         <v>21</v>
       </c>
@@ -26699,7 +26720,7 @@
         <v>1494</v>
       </c>
     </row>
-    <row r="315" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:17" ht="15" customHeight="1">
       <c r="A315" s="3">
         <v>6</v>
       </c>
@@ -26751,7 +26772,7 @@
         <v>1496</v>
       </c>
     </row>
-    <row r="316" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:17" ht="15" customHeight="1">
       <c r="A316" s="3">
         <v>8</v>
       </c>
@@ -26803,7 +26824,7 @@
         <v>1498</v>
       </c>
     </row>
-    <row r="317" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:17" ht="15" customHeight="1">
       <c r="A317" s="3">
         <v>8</v>
       </c>
@@ -26855,7 +26876,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="318" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:17" ht="15" customHeight="1">
       <c r="A318" s="3">
         <v>11</v>
       </c>
@@ -26909,7 +26930,7 @@
         <v>1502</v>
       </c>
     </row>
-    <row r="319" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:17" ht="15" customHeight="1">
       <c r="A319" s="3">
         <v>11</v>
       </c>
@@ -26961,7 +26982,7 @@
         <v>1504</v>
       </c>
     </row>
-    <row r="320" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:17" ht="15" customHeight="1">
       <c r="A320" s="3">
         <v>11</v>
       </c>
@@ -27013,7 +27034,7 @@
         <v>1506</v>
       </c>
     </row>
-    <row r="321" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:17" ht="15" customHeight="1">
       <c r="A321" s="3">
         <v>12</v>
       </c>
@@ -27065,7 +27086,7 @@
         <v>1508</v>
       </c>
     </row>
-    <row r="322" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:17" ht="15" customHeight="1">
       <c r="A322" s="3">
         <v>12</v>
       </c>
@@ -27115,7 +27136,7 @@
         <v>1510</v>
       </c>
     </row>
-    <row r="323" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:17">
       <c r="A323" s="3">
         <v>17</v>
       </c>
@@ -27169,7 +27190,7 @@
         <v>3260</v>
       </c>
     </row>
-    <row r="324" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:17">
       <c r="A324" s="3">
         <v>17</v>
       </c>
@@ -27223,7 +27244,7 @@
         <v>1518</v>
       </c>
     </row>
-    <row r="325" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:17">
       <c r="A325" s="3">
         <v>17</v>
       </c>
@@ -27275,7 +27296,7 @@
         <v>1520</v>
       </c>
     </row>
-    <row r="326" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:17">
       <c r="A326" s="3">
         <v>17</v>
       </c>
@@ -27327,7 +27348,7 @@
         <v>1523</v>
       </c>
     </row>
-    <row r="327" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:17">
       <c r="A327" s="3">
         <v>8</v>
       </c>
@@ -27379,7 +27400,7 @@
         <v>1525</v>
       </c>
     </row>
-    <row r="328" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:17" ht="15" customHeight="1">
       <c r="A328" s="3">
         <v>8</v>
       </c>
@@ -27431,7 +27452,7 @@
         <v>1554</v>
       </c>
     </row>
-    <row r="329" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:17" ht="15" customHeight="1">
       <c r="A329" s="3">
         <v>8</v>
       </c>
@@ -27483,7 +27504,7 @@
         <v>1551</v>
       </c>
     </row>
-    <row r="330" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:17" ht="15" customHeight="1">
       <c r="A330" s="3">
         <v>8</v>
       </c>
@@ -27533,7 +27554,7 @@
         <v>3255</v>
       </c>
     </row>
-    <row r="331" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:17" ht="15" customHeight="1">
       <c r="A331" s="3">
         <v>8</v>
       </c>
@@ -27587,7 +27608,7 @@
         <v>1560</v>
       </c>
     </row>
-    <row r="332" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:17" ht="15" customHeight="1">
       <c r="A332" s="3">
         <v>11</v>
       </c>
@@ -27637,7 +27658,7 @@
         <v>1562</v>
       </c>
     </row>
-    <row r="333" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:17" ht="15" customHeight="1">
       <c r="A333" s="3">
         <v>6</v>
       </c>
@@ -27693,7 +27714,7 @@
         <v>1564</v>
       </c>
     </row>
-    <row r="334" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:17" ht="15" customHeight="1">
       <c r="A334" s="3">
         <v>6</v>
       </c>
@@ -27749,7 +27770,7 @@
         <v>1566</v>
       </c>
     </row>
-    <row r="335" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:17" ht="15" customHeight="1">
       <c r="A335" s="3">
         <v>15</v>
       </c>
@@ -27803,7 +27824,7 @@
         <v>1568</v>
       </c>
     </row>
-    <row r="336" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:17" ht="15" customHeight="1">
       <c r="A336" s="3">
         <v>12</v>
       </c>
@@ -27853,7 +27874,7 @@
         <v>1570</v>
       </c>
     </row>
-    <row r="337" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:17" ht="15" customHeight="1">
       <c r="A337" s="3">
         <v>12</v>
       </c>
@@ -27903,7 +27924,7 @@
         <v>1572</v>
       </c>
     </row>
-    <row r="338" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:17" ht="15" customHeight="1">
       <c r="A338" s="3">
         <v>12</v>
       </c>
@@ -27955,7 +27976,7 @@
         <v>1574</v>
       </c>
     </row>
-    <row r="339" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:17" ht="15" customHeight="1">
       <c r="A339" s="3">
         <v>12</v>
       </c>
@@ -28005,7 +28026,7 @@
         <v>1576</v>
       </c>
     </row>
-    <row r="340" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:17" ht="15" customHeight="1">
       <c r="A340" s="3">
         <v>12</v>
       </c>
@@ -28059,7 +28080,7 @@
         <v>1578</v>
       </c>
     </row>
-    <row r="341" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:17" ht="15" customHeight="1">
       <c r="A341" s="3">
         <v>12</v>
       </c>
@@ -28113,7 +28134,7 @@
         <v>1585</v>
       </c>
     </row>
-    <row r="342" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:17" ht="15" customHeight="1">
       <c r="A342" s="3">
         <v>12</v>
       </c>
@@ -28163,7 +28184,7 @@
         <v>1582</v>
       </c>
     </row>
-    <row r="343" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:17" ht="15" customHeight="1">
       <c r="A343" s="3">
         <v>12</v>
       </c>
@@ -28215,7 +28236,7 @@
         <v>1592</v>
       </c>
     </row>
-    <row r="344" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:17" ht="15" customHeight="1">
       <c r="A344" s="3">
         <v>12</v>
       </c>
@@ -28267,7 +28288,7 @@
         <v>1587</v>
       </c>
     </row>
-    <row r="345" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:17" ht="15" customHeight="1">
       <c r="A345" s="3">
         <v>12</v>
       </c>
@@ -28321,7 +28342,7 @@
         <v>1589</v>
       </c>
     </row>
-    <row r="346" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:17" ht="15" customHeight="1">
       <c r="A346" s="3">
         <v>12</v>
       </c>
@@ -28371,7 +28392,7 @@
         <v>1595</v>
       </c>
     </row>
-    <row r="347" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:17" ht="15" customHeight="1">
       <c r="A347" s="3">
         <v>8</v>
       </c>
@@ -28423,7 +28444,7 @@
         <v>1597</v>
       </c>
     </row>
-    <row r="348" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:17" ht="15" customHeight="1">
       <c r="A348" s="3">
         <v>8</v>
       </c>
@@ -28475,7 +28496,7 @@
         <v>1601</v>
       </c>
     </row>
-    <row r="349" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:17" ht="15" customHeight="1">
       <c r="A349" s="3">
         <v>8</v>
       </c>
@@ -28527,7 +28548,7 @@
         <v>3235</v>
       </c>
     </row>
-    <row r="350" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:17" ht="15" customHeight="1">
       <c r="A350" s="3">
         <v>6</v>
       </c>
@@ -28583,7 +28604,7 @@
         <v>1606</v>
       </c>
     </row>
-    <row r="351" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:17" ht="15" customHeight="1">
       <c r="A351" s="3">
         <v>6</v>
       </c>
@@ -28639,7 +28660,7 @@
         <v>1604</v>
       </c>
     </row>
-    <row r="352" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:17" ht="15" customHeight="1">
       <c r="A352" s="3">
         <v>12</v>
       </c>
@@ -28689,7 +28710,7 @@
         <v>1608</v>
       </c>
     </row>
-    <row r="353" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:17" ht="15" customHeight="1">
       <c r="A353" s="3">
         <v>8</v>
       </c>
@@ -28743,7 +28764,7 @@
         <v>1610</v>
       </c>
     </row>
-    <row r="354" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:17" ht="15" customHeight="1">
       <c r="A354" s="3">
         <v>8</v>
       </c>
@@ -28797,7 +28818,7 @@
         <v>1612</v>
       </c>
     </row>
-    <row r="355" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:17" ht="15" customHeight="1">
       <c r="A355" s="3">
         <v>8</v>
       </c>
@@ -28849,7 +28870,7 @@
         <v>1614</v>
       </c>
     </row>
-    <row r="356" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:17" ht="15" customHeight="1">
       <c r="A356" s="3">
         <v>8</v>
       </c>
@@ -28896,7 +28917,7 @@
         <v>1618</v>
       </c>
     </row>
-    <row r="357" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:17" ht="15" customHeight="1">
       <c r="A357" s="3">
         <v>8</v>
       </c>
@@ -28946,7 +28967,7 @@
         <v>1616</v>
       </c>
     </row>
-    <row r="358" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:17" ht="15" customHeight="1">
       <c r="A358" s="3">
         <v>8</v>
       </c>
@@ -28996,7 +29017,7 @@
         <v>3252</v>
       </c>
     </row>
-    <row r="359" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:17" ht="15" customHeight="1">
       <c r="A359" s="3">
         <v>8</v>
       </c>
@@ -29046,7 +29067,7 @@
         <v>1621</v>
       </c>
     </row>
-    <row r="360" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:17" ht="15" customHeight="1">
       <c r="A360" s="3">
         <v>8</v>
       </c>
@@ -29096,7 +29117,7 @@
         <v>1623</v>
       </c>
     </row>
-    <row r="361" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:17" ht="15" customHeight="1">
       <c r="A361" s="3">
         <v>8</v>
       </c>
@@ -29146,7 +29167,7 @@
         <v>1625</v>
       </c>
     </row>
-    <row r="362" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:17" ht="15" customHeight="1">
       <c r="A362" s="3">
         <v>8</v>
       </c>
@@ -29193,7 +29214,7 @@
         <v>1627</v>
       </c>
     </row>
-    <row r="363" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:17" ht="15" customHeight="1">
       <c r="A363" s="3">
         <v>8</v>
       </c>
@@ -29240,7 +29261,7 @@
         <v>1629</v>
       </c>
     </row>
-    <row r="364" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:17" ht="15" customHeight="1">
       <c r="A364" s="3">
         <v>8</v>
       </c>
@@ -29290,7 +29311,7 @@
         <v>1635</v>
       </c>
     </row>
-    <row r="365" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:17" ht="15" customHeight="1">
       <c r="A365" s="3">
         <v>8</v>
       </c>
@@ -29337,7 +29358,7 @@
         <v>1641</v>
       </c>
     </row>
-    <row r="366" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:17" ht="15" customHeight="1">
       <c r="A366" s="3">
         <v>4</v>
       </c>
@@ -29390,7 +29411,7 @@
         <v>1086</v>
       </c>
     </row>
-    <row r="367" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:17" ht="15" customHeight="1">
       <c r="A367" s="3">
         <v>4</v>
       </c>
@@ -29440,7 +29461,7 @@
         <v>1088</v>
       </c>
     </row>
-    <row r="368" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:17" ht="15" customHeight="1">
       <c r="A368" s="3">
         <v>4</v>
       </c>
@@ -29493,7 +29514,7 @@
         <v>1090</v>
       </c>
     </row>
-    <row r="369" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:17" ht="15" customHeight="1">
       <c r="A369" s="3">
         <v>8</v>
       </c>
@@ -29543,7 +29564,7 @@
         <v>1632</v>
       </c>
     </row>
-    <row r="370" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:17" ht="15" customHeight="1">
       <c r="A370" s="3">
         <v>8</v>
       </c>
@@ -29596,7 +29617,7 @@
         <v>3257</v>
       </c>
     </row>
-    <row r="371" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:17" ht="15" customHeight="1">
       <c r="A371" s="3">
         <v>4</v>
       </c>
@@ -29646,7 +29667,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="372" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:17" ht="15" customHeight="1">
       <c r="A372" s="3">
         <v>4</v>
       </c>
@@ -29696,7 +29717,7 @@
         <v>1096</v>
       </c>
     </row>
-    <row r="373" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:17" ht="15" customHeight="1">
       <c r="A373" s="3">
         <v>8</v>
       </c>
@@ -29743,7 +29764,7 @@
         <v>1643</v>
       </c>
     </row>
-    <row r="374" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:17" ht="15" customHeight="1">
       <c r="A374" s="3">
         <v>8</v>
       </c>
@@ -29793,7 +29814,7 @@
         <v>3251</v>
       </c>
     </row>
-    <row r="375" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:17" ht="15" customHeight="1">
       <c r="A375" s="3">
         <v>8</v>
       </c>
@@ -29843,7 +29864,7 @@
         <v>1646</v>
       </c>
     </row>
-    <row r="376" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:17" ht="15" customHeight="1">
       <c r="A376" s="3">
         <v>8</v>
       </c>
@@ -29893,7 +29914,7 @@
         <v>3253</v>
       </c>
     </row>
-    <row r="377" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:17" ht="15" customHeight="1">
       <c r="A377" s="3">
         <v>8</v>
       </c>
@@ -29940,7 +29961,7 @@
         <v>1653</v>
       </c>
     </row>
-    <row r="378" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:17" ht="15" customHeight="1">
       <c r="A378" s="3">
         <v>8</v>
       </c>
@@ -29990,7 +30011,7 @@
         <v>3254</v>
       </c>
     </row>
-    <row r="379" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:17" ht="15" customHeight="1">
       <c r="A379" s="3">
         <v>8</v>
       </c>
@@ -30043,7 +30064,7 @@
         <v>3256</v>
       </c>
     </row>
-    <row r="380" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:17" ht="15" customHeight="1">
       <c r="A380" s="3">
         <v>8</v>
       </c>
@@ -30093,7 +30114,7 @@
         <v>1655</v>
       </c>
     </row>
-    <row r="381" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:17" ht="15" customHeight="1">
       <c r="A381" s="3">
         <v>8</v>
       </c>
@@ -30143,7 +30164,7 @@
         <v>1657</v>
       </c>
     </row>
-    <row r="382" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:17" ht="15" customHeight="1">
       <c r="A382" s="3">
         <v>8</v>
       </c>
@@ -30196,7 +30217,7 @@
         <v>1659</v>
       </c>
     </row>
-    <row r="383" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:17" ht="15" customHeight="1">
       <c r="A383" s="3">
         <v>8</v>
       </c>
@@ -30246,7 +30267,7 @@
         <v>1661</v>
       </c>
     </row>
-    <row r="384" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:17" ht="15" customHeight="1">
       <c r="A384" s="3">
         <v>17</v>
       </c>
@@ -30293,7 +30314,7 @@
         <v>1663</v>
       </c>
     </row>
-    <row r="385" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:17" ht="15" customHeight="1">
       <c r="A385" s="3">
         <v>8</v>
       </c>
@@ -30346,7 +30367,7 @@
         <v>1665</v>
       </c>
     </row>
-    <row r="386" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:17" ht="15" customHeight="1">
       <c r="A386" s="3">
         <v>8</v>
       </c>
@@ -30396,7 +30417,7 @@
         <v>1667</v>
       </c>
     </row>
-    <row r="387" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:17" ht="15" customHeight="1">
       <c r="A387" s="3">
         <v>8</v>
       </c>
@@ -30446,7 +30467,7 @@
         <v>1669</v>
       </c>
     </row>
-    <row r="388" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:17" ht="15" customHeight="1">
       <c r="A388" s="3">
         <v>8</v>
       </c>
@@ -30496,7 +30517,7 @@
         <v>1671</v>
       </c>
     </row>
-    <row r="389" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:17" ht="15" customHeight="1">
       <c r="A389" s="3">
         <v>11</v>
       </c>
@@ -30546,7 +30567,7 @@
         <v>1673</v>
       </c>
     </row>
-    <row r="390" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:17" ht="15" customHeight="1">
       <c r="A390" s="3">
         <v>8</v>
       </c>
@@ -30599,7 +30620,7 @@
         <v>1675</v>
       </c>
     </row>
-    <row r="391" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:17" ht="15" customHeight="1">
       <c r="A391" s="3">
         <v>8</v>
       </c>
@@ -30646,7 +30667,7 @@
         <v>3263</v>
       </c>
     </row>
-    <row r="392" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:17" ht="15" customHeight="1">
       <c r="A392" s="3">
         <v>8</v>
       </c>
@@ -30699,7 +30720,7 @@
         <v>3264</v>
       </c>
     </row>
-    <row r="393" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:17" ht="15" customHeight="1">
       <c r="A393" s="3">
         <v>8</v>
       </c>
@@ -30749,7 +30770,7 @@
         <v>1682</v>
       </c>
     </row>
-    <row r="394" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:17" ht="15" customHeight="1">
       <c r="A394" s="3">
         <v>8</v>
       </c>
@@ -30796,7 +30817,7 @@
         <v>1679</v>
       </c>
     </row>
-    <row r="395" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:17" ht="15" customHeight="1">
       <c r="A395" s="3">
         <v>8</v>
       </c>
@@ -30846,7 +30867,7 @@
         <v>1689</v>
       </c>
     </row>
-    <row r="396" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:17" ht="15" customHeight="1">
       <c r="A396" s="3">
         <v>8</v>
       </c>
@@ -30893,7 +30914,7 @@
         <v>1686</v>
       </c>
     </row>
-    <row r="397" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:17" ht="15" customHeight="1">
       <c r="A397" s="3">
         <v>8</v>
       </c>
@@ -30943,7 +30964,7 @@
         <v>3236</v>
       </c>
     </row>
-    <row r="398" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:17" ht="15" customHeight="1">
       <c r="A398" s="3">
         <v>8</v>
       </c>
@@ -30993,7 +31014,7 @@
         <v>3237</v>
       </c>
     </row>
-    <row r="399" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:17" ht="15" customHeight="1">
       <c r="A399" s="3">
         <v>8</v>
       </c>
@@ -31043,7 +31064,7 @@
         <v>3238</v>
       </c>
     </row>
-    <row r="400" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:17" ht="15" customHeight="1">
       <c r="A400" s="3">
         <v>8</v>
       </c>
@@ -31093,7 +31114,7 @@
         <v>1692</v>
       </c>
     </row>
-    <row r="401" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:17" ht="15" customHeight="1">
       <c r="A401" s="3">
         <v>8</v>
       </c>
@@ -31143,7 +31164,7 @@
         <v>1695</v>
       </c>
     </row>
-    <row r="402" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:17" ht="15" customHeight="1">
       <c r="A402" s="3">
         <v>8</v>
       </c>
@@ -31193,7 +31214,7 @@
         <v>1705</v>
       </c>
     </row>
-    <row r="403" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:17" ht="15" customHeight="1">
       <c r="A403" s="3">
         <v>8</v>
       </c>
@@ -31246,7 +31267,7 @@
         <v>1698</v>
       </c>
     </row>
-    <row r="404" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:17" ht="15" customHeight="1">
       <c r="A404" s="3">
         <v>8</v>
       </c>
@@ -31296,7 +31317,7 @@
         <v>1709</v>
       </c>
     </row>
-    <row r="405" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:17" ht="15" customHeight="1">
       <c r="A405" s="3">
         <v>8</v>
       </c>
@@ -31346,7 +31367,7 @@
         <v>1711</v>
       </c>
     </row>
-    <row r="406" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:17" ht="15" customHeight="1">
       <c r="A406" s="3">
         <v>8</v>
       </c>
@@ -31396,7 +31417,7 @@
         <v>3239</v>
       </c>
     </row>
-    <row r="407" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:17" ht="15" customHeight="1">
       <c r="A407" s="3">
         <v>8</v>
       </c>
@@ -31446,7 +31467,7 @@
         <v>1714</v>
       </c>
     </row>
-    <row r="408" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:17" ht="15" customHeight="1">
       <c r="A408" s="3">
         <v>8</v>
       </c>
@@ -31496,7 +31517,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="409" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:17" ht="15" customHeight="1">
       <c r="A409" s="3">
         <v>8</v>
       </c>
@@ -31546,7 +31567,7 @@
         <v>3240</v>
       </c>
     </row>
-    <row r="410" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:17" ht="15" customHeight="1">
       <c r="A410" s="3">
         <v>8</v>
       </c>
@@ -31596,7 +31617,7 @@
         <v>1719</v>
       </c>
     </row>
-    <row r="411" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:17" ht="15" customHeight="1">
       <c r="A411" s="3">
         <v>8</v>
       </c>
@@ -31646,7 +31667,7 @@
         <v>3241</v>
       </c>
     </row>
-    <row r="412" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:17" ht="15" customHeight="1">
       <c r="A412" s="3">
         <v>8</v>
       </c>
@@ -31696,7 +31717,7 @@
         <v>1722</v>
       </c>
     </row>
-    <row r="413" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:17" ht="15" customHeight="1">
       <c r="A413" s="3">
         <v>8</v>
       </c>
@@ -31746,7 +31767,7 @@
         <v>1724</v>
       </c>
     </row>
-    <row r="414" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:17" ht="15" customHeight="1">
       <c r="A414" s="3">
         <v>8</v>
       </c>
@@ -31796,7 +31817,7 @@
         <v>1726</v>
       </c>
     </row>
-    <row r="415" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:17" ht="15" customHeight="1">
       <c r="A415" s="3">
         <v>8</v>
       </c>
@@ -31846,7 +31867,7 @@
         <v>1728</v>
       </c>
     </row>
-    <row r="416" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:17" ht="15" customHeight="1">
       <c r="A416" s="3">
         <v>8</v>
       </c>
@@ -31896,7 +31917,7 @@
         <v>1730</v>
       </c>
     </row>
-    <row r="417" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:17" ht="15" customHeight="1">
       <c r="A417" s="3">
         <v>8</v>
       </c>
@@ -31946,7 +31967,7 @@
         <v>1733</v>
       </c>
     </row>
-    <row r="418" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:17" ht="15" customHeight="1">
       <c r="A418" s="3">
         <v>8</v>
       </c>
@@ -31996,7 +32017,7 @@
         <v>1736</v>
       </c>
     </row>
-    <row r="419" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:17" ht="15" customHeight="1">
       <c r="A419" s="3">
         <v>8</v>
       </c>
@@ -32043,7 +32064,7 @@
         <v>1739</v>
       </c>
     </row>
-    <row r="420" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:17" ht="15" customHeight="1">
       <c r="A420" s="3">
         <v>8</v>
       </c>
@@ -32093,7 +32114,7 @@
         <v>1742</v>
       </c>
     </row>
-    <row r="421" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:17" ht="15" customHeight="1">
       <c r="A421" s="3">
         <v>8</v>
       </c>
@@ -32143,7 +32164,7 @@
         <v>1745</v>
       </c>
     </row>
-    <row r="422" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:17" ht="15" customHeight="1">
       <c r="A422" s="3">
         <v>8</v>
       </c>
@@ -32193,7 +32214,7 @@
         <v>1747</v>
       </c>
     </row>
-    <row r="423" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:17" ht="15" customHeight="1">
       <c r="A423" s="3">
         <v>8</v>
       </c>
@@ -32243,7 +32264,7 @@
         <v>1751</v>
       </c>
     </row>
-    <row r="424" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:17" ht="15" customHeight="1">
       <c r="A424" s="3">
         <v>8</v>
       </c>
@@ -32290,7 +32311,7 @@
         <v>1753</v>
       </c>
     </row>
-    <row r="425" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:17" ht="15" customHeight="1">
       <c r="A425" s="3">
         <v>8</v>
       </c>
@@ -32340,7 +32361,7 @@
         <v>1755</v>
       </c>
     </row>
-    <row r="426" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:17" ht="15" customHeight="1">
       <c r="A426" s="3">
         <v>8</v>
       </c>
@@ -32390,7 +32411,7 @@
         <v>1758</v>
       </c>
     </row>
-    <row r="427" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:17" ht="15" customHeight="1">
       <c r="A427" s="3">
         <v>8</v>
       </c>
@@ -32440,7 +32461,7 @@
         <v>1761</v>
       </c>
     </row>
-    <row r="428" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:17" ht="15" customHeight="1">
       <c r="A428" s="3">
         <v>4</v>
       </c>
@@ -32490,7 +32511,7 @@
         <v>1098</v>
       </c>
     </row>
-    <row r="429" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:17" ht="15" customHeight="1">
       <c r="A429" s="3">
         <v>8</v>
       </c>
@@ -32540,7 +32561,7 @@
         <v>1764</v>
       </c>
     </row>
-    <row r="430" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:17" ht="15" customHeight="1">
       <c r="A430" s="3">
         <v>8</v>
       </c>
@@ -32587,7 +32608,7 @@
         <v>1766</v>
       </c>
     </row>
-    <row r="431" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:17" ht="15" customHeight="1">
       <c r="A431" s="3">
         <v>8</v>
       </c>
@@ -32637,7 +32658,7 @@
         <v>1768</v>
       </c>
     </row>
-    <row r="432" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:17" ht="15" customHeight="1">
       <c r="A432" s="3">
         <v>8</v>
       </c>
@@ -32687,7 +32708,7 @@
         <v>1770</v>
       </c>
     </row>
-    <row r="433" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:17" ht="15" customHeight="1">
       <c r="A433" s="3">
         <v>8</v>
       </c>
@@ -32737,7 +32758,7 @@
         <v>3242</v>
       </c>
     </row>
-    <row r="434" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:17" ht="15" customHeight="1">
       <c r="A434" s="3">
         <v>8</v>
       </c>
@@ -32787,7 +32808,7 @@
         <v>1783</v>
       </c>
     </row>
-    <row r="435" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:17" ht="15" customHeight="1">
       <c r="A435" s="3">
         <v>8</v>
       </c>
@@ -32837,7 +32858,7 @@
         <v>3243</v>
       </c>
     </row>
-    <row r="436" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:17" ht="15" customHeight="1">
       <c r="A436" s="3">
         <v>8</v>
       </c>
@@ -32887,7 +32908,7 @@
         <v>1775</v>
       </c>
     </row>
-    <row r="437" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:17" ht="15" customHeight="1">
       <c r="A437" s="3">
         <v>8</v>
       </c>
@@ -32937,7 +32958,7 @@
         <v>1778</v>
       </c>
     </row>
-    <row r="438" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:17" ht="15" customHeight="1">
       <c r="A438" s="3">
         <v>8</v>
       </c>
@@ -32987,7 +33008,7 @@
         <v>1772</v>
       </c>
     </row>
-    <row r="439" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:17" ht="15" customHeight="1">
       <c r="A439" s="3">
         <v>8</v>
       </c>
@@ -33037,7 +33058,7 @@
         <v>1788</v>
       </c>
     </row>
-    <row r="440" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:17" ht="15" customHeight="1">
       <c r="A440" s="3">
         <v>8</v>
       </c>
@@ -33087,7 +33108,7 @@
         <v>1790</v>
       </c>
     </row>
-    <row r="441" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:17" ht="15" customHeight="1">
       <c r="A441" s="3">
         <v>8</v>
       </c>
@@ -33137,7 +33158,7 @@
         <v>1792</v>
       </c>
     </row>
-    <row r="442" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:17" ht="15" customHeight="1">
       <c r="A442" s="3">
         <v>8</v>
       </c>
@@ -33187,7 +33208,7 @@
         <v>3244</v>
       </c>
     </row>
-    <row r="443" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:17" ht="15" customHeight="1">
       <c r="A443" s="3">
         <v>8</v>
       </c>
@@ -33237,7 +33258,7 @@
         <v>3245</v>
       </c>
     </row>
-    <row r="444" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:17" ht="15" customHeight="1">
       <c r="A444" s="3">
         <v>8</v>
       </c>
@@ -33287,7 +33308,7 @@
         <v>3246</v>
       </c>
     </row>
-    <row r="445" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:17" ht="15" customHeight="1">
       <c r="A445" s="3">
         <v>8</v>
       </c>
@@ -33337,7 +33358,7 @@
         <v>3247</v>
       </c>
     </row>
-    <row r="446" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:17" ht="15" customHeight="1">
       <c r="A446" s="3">
         <v>8</v>
       </c>
@@ -33387,7 +33408,7 @@
         <v>1817</v>
       </c>
     </row>
-    <row r="447" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:17" ht="15" customHeight="1">
       <c r="A447" s="3">
         <v>8</v>
       </c>
@@ -33437,7 +33458,7 @@
         <v>1803</v>
       </c>
     </row>
-    <row r="448" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:17" ht="15" customHeight="1">
       <c r="A448" s="3">
         <v>8</v>
       </c>
@@ -33487,7 +33508,7 @@
         <v>1798</v>
       </c>
     </row>
-    <row r="449" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:17" ht="15" customHeight="1">
       <c r="A449" s="3">
         <v>8</v>
       </c>
@@ -33537,7 +33558,7 @@
         <v>1810</v>
       </c>
     </row>
-    <row r="450" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:17" ht="15" customHeight="1">
       <c r="A450" s="3">
         <v>8</v>
       </c>
@@ -33584,7 +33605,7 @@
         <v>1814</v>
       </c>
     </row>
-    <row r="451" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:17" ht="15" customHeight="1">
       <c r="A451" s="3">
         <v>8</v>
       </c>
@@ -33634,7 +33655,7 @@
         <v>1795</v>
       </c>
     </row>
-    <row r="452" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:17" ht="15" customHeight="1">
       <c r="A452" s="3">
         <v>8</v>
       </c>
@@ -33684,7 +33705,7 @@
         <v>1821</v>
       </c>
     </row>
-    <row r="453" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:17" ht="15" customHeight="1">
       <c r="A453" s="3">
         <v>8</v>
       </c>
@@ -33731,7 +33752,7 @@
         <v>1823</v>
       </c>
     </row>
-    <row r="454" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:17" ht="15" customHeight="1">
       <c r="A454" s="3">
         <v>8</v>
       </c>
@@ -33781,7 +33802,7 @@
         <v>1825</v>
       </c>
     </row>
-    <row r="455" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:17" ht="15" customHeight="1">
       <c r="A455" s="3">
         <v>8</v>
       </c>
@@ -33831,7 +33852,7 @@
         <v>3248</v>
       </c>
     </row>
-    <row r="456" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:17" ht="15" customHeight="1">
       <c r="A456" s="3">
         <v>8</v>
       </c>
@@ -33881,7 +33902,7 @@
         <v>1828</v>
       </c>
     </row>
-    <row r="457" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:17" ht="15" customHeight="1">
       <c r="A457" s="3">
         <v>8</v>
       </c>
@@ -33931,7 +33952,7 @@
         <v>1832</v>
       </c>
     </row>
-    <row r="458" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:17" ht="15" customHeight="1">
       <c r="A458" s="3">
         <v>17</v>
       </c>
@@ -33981,7 +34002,7 @@
         <v>1834</v>
       </c>
     </row>
-    <row r="459" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:17" ht="15" customHeight="1">
       <c r="A459" s="3">
         <v>11</v>
       </c>
@@ -34028,7 +34049,7 @@
         <v>1836</v>
       </c>
     </row>
-    <row r="460" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:17" ht="15" customHeight="1">
       <c r="A460" s="3">
         <v>8</v>
       </c>
@@ -34081,7 +34102,7 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="461" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:17" ht="15" customHeight="1">
       <c r="A461" s="3">
         <v>8</v>
       </c>
@@ -34134,7 +34155,7 @@
         <v>1840</v>
       </c>
     </row>
-    <row r="462" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:17" ht="15" customHeight="1">
       <c r="A462" s="3">
         <v>8</v>
       </c>
@@ -34187,7 +34208,7 @@
         <v>1842</v>
       </c>
     </row>
-    <row r="463" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:17" ht="15" customHeight="1">
       <c r="A463" s="3">
         <v>8</v>
       </c>
@@ -34240,7 +34261,7 @@
         <v>1844</v>
       </c>
     </row>
-    <row r="464" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:17" ht="15" customHeight="1">
       <c r="A464" s="3">
         <v>8</v>
       </c>
@@ -34293,7 +34314,7 @@
         <v>1846</v>
       </c>
     </row>
-    <row r="465" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:17" ht="15" customHeight="1">
       <c r="A465" s="3">
         <v>8</v>
       </c>
@@ -34346,7 +34367,7 @@
         <v>1848</v>
       </c>
     </row>
-    <row r="466" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:17" ht="15" customHeight="1">
       <c r="A466" s="3">
         <v>8</v>
       </c>
@@ -34399,7 +34420,7 @@
         <v>1850</v>
       </c>
     </row>
-    <row r="467" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:17" ht="15" customHeight="1">
       <c r="A467" s="3">
         <v>6</v>
       </c>
@@ -34455,7 +34476,7 @@
         <v>1855</v>
       </c>
     </row>
-    <row r="468" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:17" ht="15" customHeight="1">
       <c r="A468" s="3">
         <v>6</v>
       </c>
@@ -34511,7 +34532,7 @@
         <v>1857</v>
       </c>
     </row>
-    <row r="469" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:17" ht="15" customHeight="1">
       <c r="A469" s="3">
         <v>12</v>
       </c>
@@ -34564,7 +34585,7 @@
         <v>1859</v>
       </c>
     </row>
-    <row r="470" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:17" ht="15" customHeight="1">
       <c r="A470" s="3">
         <v>12</v>
       </c>
@@ -34614,7 +34635,7 @@
         <v>1861</v>
       </c>
     </row>
-    <row r="471" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:17" ht="15" customHeight="1">
       <c r="A471" s="3">
         <v>15</v>
       </c>
@@ -34667,7 +34688,7 @@
         <v>1863</v>
       </c>
     </row>
-    <row r="472" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:17" ht="15" customHeight="1">
       <c r="A472" s="3">
         <v>12</v>
       </c>
@@ -34717,7 +34738,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="473" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:17" ht="15" customHeight="1">
       <c r="A473" s="3">
         <v>12</v>
       </c>
@@ -34767,7 +34788,7 @@
         <v>1869</v>
       </c>
     </row>
-    <row r="474" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:17" ht="15" customHeight="1">
       <c r="A474" s="3">
         <v>12</v>
       </c>
@@ -34820,7 +34841,7 @@
         <v>1871</v>
       </c>
     </row>
-    <row r="475" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:17" ht="15" customHeight="1">
       <c r="A475" s="3">
         <v>12</v>
       </c>
@@ -34873,7 +34894,7 @@
         <v>1873</v>
       </c>
     </row>
-    <row r="476" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:17" ht="15" customHeight="1">
       <c r="A476" s="3">
         <v>12</v>
       </c>
@@ -34926,7 +34947,7 @@
         <v>1875</v>
       </c>
     </row>
-    <row r="477" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:17" ht="15" customHeight="1">
       <c r="A477" s="3">
         <v>12</v>
       </c>
@@ -34979,7 +35000,7 @@
         <v>1877</v>
       </c>
     </row>
-    <row r="478" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:17" ht="15" customHeight="1">
       <c r="A478" s="3">
         <v>12</v>
       </c>
@@ -35032,7 +35053,7 @@
         <v>1879</v>
       </c>
     </row>
-    <row r="479" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:17" ht="15" customHeight="1">
       <c r="A479" s="3">
         <v>12</v>
       </c>
@@ -35085,7 +35106,7 @@
         <v>1881</v>
       </c>
     </row>
-    <row r="480" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:17" ht="15" customHeight="1">
       <c r="A480" s="3">
         <v>12</v>
       </c>
@@ -35135,7 +35156,7 @@
         <v>1884</v>
       </c>
     </row>
-    <row r="481" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:17" ht="15" customHeight="1">
       <c r="A481" s="3">
         <v>12</v>
       </c>
@@ -35185,7 +35206,7 @@
         <v>1889</v>
       </c>
     </row>
-    <row r="482" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:17" ht="15" customHeight="1">
       <c r="A482" s="3">
         <v>12</v>
       </c>
@@ -35238,7 +35259,7 @@
         <v>1886</v>
       </c>
     </row>
-    <row r="483" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:17" ht="15" customHeight="1">
       <c r="A483" s="3">
         <v>12</v>
       </c>
@@ -35288,7 +35309,7 @@
         <v>1891</v>
       </c>
     </row>
-    <row r="484" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:17" ht="15" customHeight="1">
       <c r="A484" s="3">
         <v>12</v>
       </c>
@@ -35341,7 +35362,7 @@
         <v>1893</v>
       </c>
     </row>
-    <row r="485" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:17" ht="15" customHeight="1">
       <c r="A485" s="3">
         <v>12</v>
       </c>
@@ -35388,7 +35409,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="486" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:17" ht="15" customHeight="1">
       <c r="A486" s="3">
         <v>12</v>
       </c>
@@ -35438,7 +35459,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="487" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:17" ht="15" customHeight="1">
       <c r="A487" s="3">
         <v>12</v>
       </c>
@@ -35488,7 +35509,7 @@
         <v>1903</v>
       </c>
     </row>
-    <row r="488" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:17" ht="15" customHeight="1">
       <c r="A488" s="3">
         <v>12</v>
       </c>
@@ -35538,7 +35559,7 @@
         <v>1906</v>
       </c>
     </row>
-    <row r="489" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:17" ht="15" customHeight="1">
       <c r="A489" s="3">
         <v>12</v>
       </c>
@@ -35585,7 +35606,7 @@
         <v>1908</v>
       </c>
     </row>
-    <row r="490" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:17" ht="15" customHeight="1">
       <c r="A490" s="3">
         <v>12</v>
       </c>
@@ -35635,7 +35656,7 @@
         <v>1910</v>
       </c>
     </row>
-    <row r="491" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:17" ht="15" customHeight="1">
       <c r="A491" s="3">
         <v>14</v>
       </c>
@@ -35688,7 +35709,7 @@
         <v>1912</v>
       </c>
     </row>
-    <row r="492" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:17" ht="15" customHeight="1">
       <c r="A492" s="3">
         <v>12</v>
       </c>
@@ -35741,7 +35762,7 @@
         <v>1917</v>
       </c>
     </row>
-    <row r="493" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:17" ht="15" customHeight="1">
       <c r="A493" s="3">
         <v>12</v>
       </c>
@@ -35791,7 +35812,7 @@
         <v>1919</v>
       </c>
     </row>
-    <row r="494" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:17" ht="15" customHeight="1">
       <c r="A494" s="3">
         <v>12</v>
       </c>
@@ -35844,7 +35865,7 @@
         <v>1914</v>
       </c>
     </row>
-    <row r="495" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:17" ht="15" customHeight="1">
       <c r="A495" s="3">
         <v>12</v>
       </c>
@@ -35894,7 +35915,7 @@
         <v>1921</v>
       </c>
     </row>
-    <row r="496" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:17" ht="15" customHeight="1">
       <c r="A496" s="3">
         <v>12</v>
       </c>
@@ -35944,7 +35965,7 @@
         <v>1924</v>
       </c>
     </row>
-    <row r="497" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:17" ht="15" customHeight="1">
       <c r="A497" s="3">
         <v>12</v>
       </c>
@@ -35994,7 +36015,7 @@
         <v>1928</v>
       </c>
     </row>
-    <row r="498" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:17" ht="15" customHeight="1">
       <c r="A498" s="3">
         <v>14</v>
       </c>
@@ -36044,7 +36065,7 @@
         <v>1930</v>
       </c>
     </row>
-    <row r="499" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:17" ht="15" customHeight="1">
       <c r="A499" s="3">
         <v>12</v>
       </c>
@@ -36094,7 +36115,7 @@
         <v>1932</v>
       </c>
     </row>
-    <row r="500" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:17" ht="15" customHeight="1">
       <c r="A500" s="3">
         <v>4</v>
       </c>
@@ -36144,7 +36165,7 @@
         <v>1102</v>
       </c>
     </row>
-    <row r="501" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:17" ht="15" customHeight="1">
       <c r="A501" s="3">
         <v>12</v>
       </c>
@@ -36197,7 +36218,7 @@
         <v>1935</v>
       </c>
     </row>
-    <row r="502" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:17" ht="15" customHeight="1">
       <c r="A502" s="3">
         <v>12</v>
       </c>
@@ -36247,7 +36268,7 @@
         <v>1937</v>
       </c>
     </row>
-    <row r="503" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:17" ht="15" customHeight="1">
       <c r="A503" s="3">
         <v>12</v>
       </c>
@@ -36297,7 +36318,7 @@
         <v>1939</v>
       </c>
     </row>
-    <row r="504" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:17" ht="15" customHeight="1">
       <c r="A504" s="3">
         <v>12</v>
       </c>
@@ -36350,7 +36371,7 @@
         <v>1941</v>
       </c>
     </row>
-    <row r="505" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:17" ht="15" customHeight="1">
       <c r="A505" s="3">
         <v>12</v>
       </c>
@@ -36400,7 +36421,7 @@
         <v>1944</v>
       </c>
     </row>
-    <row r="506" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:17" ht="15" customHeight="1">
       <c r="A506" s="3">
         <v>12</v>
       </c>
@@ -36447,7 +36468,7 @@
         <v>1948</v>
       </c>
     </row>
-    <row r="507" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:17" ht="15" customHeight="1">
       <c r="A507" s="3">
         <v>12</v>
       </c>
@@ -36497,7 +36518,7 @@
         <v>1951</v>
       </c>
     </row>
-    <row r="508" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:17" ht="15" customHeight="1">
       <c r="A508" s="3">
         <v>12</v>
       </c>
@@ -36547,7 +36568,7 @@
         <v>1954</v>
       </c>
     </row>
-    <row r="509" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:17" ht="15" customHeight="1">
       <c r="A509" s="3">
         <v>4</v>
       </c>
@@ -36597,7 +36618,7 @@
         <v>1105</v>
       </c>
     </row>
-    <row r="510" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:17" ht="15" customHeight="1">
       <c r="A510" s="3">
         <v>4</v>
       </c>
@@ -36647,7 +36668,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="511" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:17" ht="15" customHeight="1">
       <c r="A511" s="3">
         <v>4</v>
       </c>
@@ -36700,7 +36721,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="512" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:17" ht="15" customHeight="1">
       <c r="A512" s="3">
         <v>4</v>
       </c>
@@ -36753,7 +36774,7 @@
         <v>1112</v>
       </c>
     </row>
-    <row r="513" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:17" ht="15" customHeight="1">
       <c r="A513" s="3">
         <v>12</v>
       </c>
@@ -36803,7 +36824,7 @@
         <v>1957</v>
       </c>
     </row>
-    <row r="514" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:17" ht="15" customHeight="1">
       <c r="A514" s="3">
         <v>12</v>
       </c>
@@ -36853,7 +36874,7 @@
         <v>1960</v>
       </c>
     </row>
-    <row r="515" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:17" ht="15" customHeight="1">
       <c r="A515" s="3">
         <v>3</v>
       </c>
@@ -36909,7 +36930,7 @@
         <v>1962</v>
       </c>
     </row>
-    <row r="516" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:17" ht="15" customHeight="1">
       <c r="A516" s="3">
         <v>3</v>
       </c>
@@ -36962,7 +36983,7 @@
         <v>1966</v>
       </c>
     </row>
-    <row r="517" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:17" ht="15" customHeight="1">
       <c r="A517" s="3">
         <v>12</v>
       </c>
@@ -37012,7 +37033,7 @@
         <v>1968</v>
       </c>
     </row>
-    <row r="518" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:17" ht="15" customHeight="1">
       <c r="A518" s="3">
         <v>12</v>
       </c>
@@ -37062,7 +37083,7 @@
         <v>1970</v>
       </c>
     </row>
-    <row r="519" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:17" ht="15" customHeight="1">
       <c r="A519" s="3">
         <v>12</v>
       </c>
@@ -37115,7 +37136,7 @@
         <v>1973</v>
       </c>
     </row>
-    <row r="520" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:17" ht="15" customHeight="1">
       <c r="A520" s="3">
         <v>12</v>
       </c>
@@ -37165,7 +37186,7 @@
         <v>1975</v>
       </c>
     </row>
-    <row r="521" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:17" ht="15" customHeight="1">
       <c r="A521" s="3">
         <v>11</v>
       </c>
@@ -37218,7 +37239,7 @@
         <v>1977</v>
       </c>
     </row>
-    <row r="522" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:17" ht="15" customHeight="1">
       <c r="A522" s="3">
         <v>13</v>
       </c>
@@ -37265,7 +37286,7 @@
         <v>1979</v>
       </c>
     </row>
-    <row r="523" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:17" ht="15" customHeight="1">
       <c r="A523" s="3">
         <v>13</v>
       </c>
@@ -37318,7 +37339,7 @@
         <v>1981</v>
       </c>
     </row>
-    <row r="524" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:17" ht="15" customHeight="1">
       <c r="A524" s="3">
         <v>8</v>
       </c>
@@ -37371,7 +37392,7 @@
         <v>1983</v>
       </c>
     </row>
-    <row r="525" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:17" ht="15" customHeight="1">
       <c r="A525" s="3">
         <v>17</v>
       </c>
@@ -37421,7 +37442,7 @@
         <v>1985</v>
       </c>
     </row>
-    <row r="526" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:17" ht="15" customHeight="1">
       <c r="A526" s="3">
         <v>17</v>
       </c>
@@ -37474,7 +37495,7 @@
         <v>1990</v>
       </c>
     </row>
-    <row r="527" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:17" ht="15" customHeight="1">
       <c r="A527" s="3">
         <v>4</v>
       </c>
@@ -37521,7 +37542,7 @@
         <v>1987</v>
       </c>
     </row>
-    <row r="528" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:17" ht="15" customHeight="1">
       <c r="A528" s="3">
         <v>8</v>
       </c>
@@ -37574,7 +37595,7 @@
         <v>1992</v>
       </c>
     </row>
-    <row r="529" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:17" ht="15" customHeight="1">
       <c r="A529" s="3">
         <v>8</v>
       </c>
@@ -37624,7 +37645,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="530" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:17" ht="15" customHeight="1">
       <c r="A530" s="3">
         <v>12</v>
       </c>
@@ -37674,7 +37695,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="531" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:17" ht="15" customHeight="1">
       <c r="A531" s="3">
         <v>8</v>
       </c>
@@ -37727,7 +37748,7 @@
         <v>1998</v>
       </c>
     </row>
-    <row r="532" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:17" ht="15" customHeight="1">
       <c r="A532" s="3">
         <v>8</v>
       </c>
@@ -37777,7 +37798,7 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="533" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:17" ht="15" customHeight="1">
       <c r="A533" s="3">
         <v>8</v>
       </c>
@@ -37830,7 +37851,7 @@
         <v>2003</v>
       </c>
     </row>
-    <row r="534" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:17" ht="15" customHeight="1">
       <c r="A534" s="3">
         <v>11</v>
       </c>
@@ -37883,7 +37904,7 @@
         <v>2005</v>
       </c>
     </row>
-    <row r="535" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:17" ht="15" customHeight="1">
       <c r="A535" s="3">
         <v>4</v>
       </c>
@@ -37933,7 +37954,7 @@
         <v>1114</v>
       </c>
     </row>
-    <row r="536" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:17" ht="15" customHeight="1">
       <c r="A536" s="3">
         <v>4</v>
       </c>
@@ -37983,7 +38004,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="537" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:17" ht="15" customHeight="1">
       <c r="A537" s="3">
         <v>4</v>
       </c>
@@ -38036,7 +38057,7 @@
         <v>1118</v>
       </c>
     </row>
-    <row r="538" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:17" ht="15" customHeight="1">
       <c r="A538" s="3">
         <v>4</v>
       </c>
@@ -38086,7 +38107,7 @@
         <v>1120</v>
       </c>
     </row>
-    <row r="539" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:17" ht="15" customHeight="1">
       <c r="A539" s="3">
         <v>4</v>
       </c>
@@ -38139,7 +38160,7 @@
         <v>1123</v>
       </c>
     </row>
-    <row r="540" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:17" ht="15" customHeight="1">
       <c r="A540" s="3">
         <v>4</v>
       </c>
@@ -38192,7 +38213,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="541" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:17" ht="15" customHeight="1">
       <c r="A541" s="3">
         <v>4</v>
       </c>
@@ -38242,7 +38263,7 @@
         <v>1128</v>
       </c>
     </row>
-    <row r="542" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:17" ht="15" customHeight="1">
       <c r="A542" s="3">
         <v>4</v>
       </c>
@@ -38292,7 +38313,7 @@
         <v>1131</v>
       </c>
     </row>
-    <row r="543" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:17" ht="15" customHeight="1">
       <c r="A543" s="3">
         <v>4</v>
       </c>
@@ -38342,7 +38363,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="544" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:17" ht="15" customHeight="1">
       <c r="A544" s="3">
         <v>4</v>
       </c>
@@ -38392,7 +38413,7 @@
         <v>1136</v>
       </c>
     </row>
-    <row r="545" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:17" ht="15" customHeight="1">
       <c r="A545" s="3">
         <v>4</v>
       </c>
@@ -38442,7 +38463,7 @@
         <v>1138</v>
       </c>
     </row>
-    <row r="546" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:17" ht="15" customHeight="1">
       <c r="A546" s="3">
         <v>4</v>
       </c>
@@ -38492,7 +38513,7 @@
         <v>1143</v>
       </c>
     </row>
-    <row r="547" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:17" ht="15" customHeight="1">
       <c r="A547" s="3">
         <v>4</v>
       </c>
@@ -38542,7 +38563,7 @@
         <v>1146</v>
       </c>
     </row>
-    <row r="548" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:17" ht="15" customHeight="1">
       <c r="A548" s="3">
         <v>4</v>
       </c>
@@ -38592,7 +38613,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="549" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:17" ht="15" customHeight="1">
       <c r="A549" s="3">
         <v>8</v>
       </c>
@@ -38642,7 +38663,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="550" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:17" ht="15" customHeight="1">
       <c r="A550" s="3">
         <v>4</v>
       </c>
@@ -38692,7 +38713,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="551" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:17" ht="15" customHeight="1">
       <c r="A551" s="3">
         <v>4</v>
       </c>
@@ -38745,7 +38766,7 @@
         <v>1150</v>
       </c>
     </row>
-    <row r="552" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:17" ht="15" customHeight="1">
       <c r="A552" s="3">
         <v>4</v>
       </c>
@@ -38798,7 +38819,7 @@
         <v>1152</v>
       </c>
     </row>
-    <row r="553" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:17" ht="15" customHeight="1">
       <c r="A553" s="3">
         <v>4</v>
       </c>
@@ -38851,7 +38872,7 @@
         <v>1154</v>
       </c>
     </row>
-    <row r="554" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:17" ht="15" customHeight="1">
       <c r="A554" s="3">
         <v>4</v>
       </c>
@@ -38904,7 +38925,7 @@
         <v>1158</v>
       </c>
     </row>
-    <row r="555" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:17" ht="15" customHeight="1">
       <c r="A555" s="3">
         <v>4</v>
       </c>
@@ -38957,7 +38978,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="556" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:17" ht="15" customHeight="1">
       <c r="A556" s="3">
         <v>4</v>
       </c>
@@ -39010,7 +39031,7 @@
         <v>1162</v>
       </c>
     </row>
-    <row r="557" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:17" ht="15" customHeight="1">
       <c r="A557" s="3">
         <v>4</v>
       </c>
@@ -39063,7 +39084,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="558" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:17" ht="15" customHeight="1">
       <c r="A558" s="3">
         <v>4</v>
       </c>
@@ -39116,7 +39137,7 @@
         <v>1166</v>
       </c>
     </row>
-    <row r="559" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:17" ht="15" customHeight="1">
       <c r="A559" s="3">
         <v>4</v>
       </c>
@@ -39172,7 +39193,7 @@
         <v>1435</v>
       </c>
     </row>
-    <row r="560" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:17" ht="15" customHeight="1">
       <c r="A560" s="3">
         <v>3</v>
       </c>
@@ -39222,7 +39243,7 @@
         <v>1492</v>
       </c>
     </row>
-    <row r="561" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:17" ht="15" customHeight="1">
       <c r="A561" s="3">
         <v>8</v>
       </c>
@@ -39272,7 +39293,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="562" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:17" ht="15" customHeight="1">
       <c r="A562" s="3">
         <v>4</v>
       </c>
@@ -39325,7 +39346,7 @@
         <v>1512</v>
       </c>
     </row>
-    <row r="563" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:17" ht="15" customHeight="1">
       <c r="A563" s="3">
         <v>4</v>
       </c>
@@ -39378,7 +39399,7 @@
         <v>1514</v>
       </c>
     </row>
-    <row r="564" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:17">
       <c r="A564" s="3">
         <v>45</v>
       </c>
@@ -39425,7 +39446,7 @@
         <v>1527</v>
       </c>
     </row>
-    <row r="565" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:17" ht="15" customHeight="1">
       <c r="A565" s="3">
         <v>8</v>
       </c>
@@ -39475,7 +39496,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="566" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:17">
       <c r="A566" s="3">
         <v>45</v>
       </c>
@@ -39528,7 +39549,7 @@
         <v>1534</v>
       </c>
     </row>
-    <row r="567" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:17">
       <c r="A567" s="3">
         <v>45</v>
       </c>
@@ -39581,7 +39602,7 @@
         <v>1537</v>
       </c>
     </row>
-    <row r="568" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:17">
       <c r="A568" s="3">
         <v>45</v>
       </c>
@@ -39628,7 +39649,7 @@
         <v>1529</v>
       </c>
     </row>
-    <row r="569" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:17">
       <c r="A569" s="3">
         <v>45</v>
       </c>
@@ -39675,7 +39696,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="570" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:17">
       <c r="A570" s="3">
         <v>45</v>
       </c>
@@ -39722,7 +39743,7 @@
         <v>1539</v>
       </c>
     </row>
-    <row r="571" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:17" ht="15" customHeight="1">
       <c r="A571" s="3">
         <v>13</v>
       </c>
@@ -39769,7 +39790,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="572" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:17">
       <c r="A572" s="3">
         <v>45</v>
       </c>
@@ -39816,7 +39837,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="573" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:17">
       <c r="A573" s="3">
         <v>45</v>
       </c>
@@ -39866,7 +39887,7 @@
         <v>3262</v>
       </c>
     </row>
-    <row r="574" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:17">
       <c r="A574" s="3">
         <v>45</v>
       </c>
@@ -39916,7 +39937,7 @@
         <v>1544</v>
       </c>
     </row>
-    <row r="575" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:17">
       <c r="A575" s="3">
         <v>45</v>
       </c>
@@ -39966,7 +39987,7 @@
         <v>1549</v>
       </c>
     </row>
-    <row r="576" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:17" ht="15" customHeight="1">
       <c r="A576" s="3">
         <v>3</v>
       </c>
@@ -40016,7 +40037,7 @@
         <v>3249</v>
       </c>
     </row>
-    <row r="577" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:17" ht="15" customHeight="1">
       <c r="A577" s="3">
         <v>13</v>
       </c>
@@ -40063,7 +40084,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="578" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:17" ht="15" customHeight="1">
       <c r="A578" s="3">
         <v>13</v>
       </c>
@@ -40113,7 +40134,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="579" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:17" ht="15" customHeight="1">
       <c r="A579" s="3">
         <v>3</v>
       </c>
@@ -40163,7 +40184,7 @@
         <v>3250</v>
       </c>
     </row>
-    <row r="580" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:17" ht="15" customHeight="1">
       <c r="A580" s="3">
         <v>13</v>
       </c>
@@ -40210,7 +40231,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="581" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:17" ht="15" customHeight="1">
       <c r="A581" s="3">
         <v>13</v>
       </c>
@@ -40260,7 +40281,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="582" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:17" ht="15" customHeight="1">
       <c r="A582" s="3">
         <v>13</v>
       </c>
@@ -40310,7 +40331,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="583" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:17" ht="15" customHeight="1">
       <c r="A583" s="3">
         <v>8</v>
       </c>
@@ -40363,7 +40384,7 @@
         <v>2027</v>
       </c>
     </row>
-    <row r="584" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:17" ht="15" customHeight="1">
       <c r="A584" s="3">
         <v>13</v>
       </c>
@@ -40416,7 +40437,7 @@
         <v>2029</v>
       </c>
     </row>
-    <row r="585" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:17" ht="15" customHeight="1">
       <c r="A585" s="3">
         <v>13</v>
       </c>
@@ -40469,7 +40490,7 @@
         <v>2032</v>
       </c>
     </row>
-    <row r="586" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:17" ht="15" customHeight="1">
       <c r="A586" s="3">
         <v>13</v>
       </c>
@@ -40516,7 +40537,7 @@
         <v>2036</v>
       </c>
     </row>
-    <row r="587" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:17" ht="15" customHeight="1">
       <c r="A587" s="3">
         <v>13</v>
       </c>
@@ -40566,7 +40587,7 @@
         <v>2038</v>
       </c>
     </row>
-    <row r="588" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:17" ht="15" customHeight="1">
       <c r="A588" s="3">
         <v>13</v>
       </c>
@@ -40616,7 +40637,7 @@
         <v>2041</v>
       </c>
     </row>
-    <row r="589" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:17" ht="15" customHeight="1">
       <c r="A589" s="3">
         <v>13</v>
       </c>
@@ -40663,7 +40684,7 @@
         <v>2045</v>
       </c>
     </row>
-    <row r="590" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:17" ht="15" customHeight="1">
       <c r="A590" s="3">
         <v>17</v>
       </c>
@@ -40719,7 +40740,7 @@
         <v>2049</v>
       </c>
     </row>
-    <row r="591" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:17" ht="15" customHeight="1">
       <c r="A591" s="3">
         <v>8</v>
       </c>
@@ -40768,9 +40789,6 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:Q1"/>
-  <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/update_db/items.xlsx
+++ b/update_db/items.xlsx
@@ -15,9 +15,9 @@
     <sheet name="аким, елиз, анаст" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'аким, елиз, анаст'!$A$1:$Q$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'аким, елиз, анаст'!$A$1:$Q$591</definedName>
   </definedNames>
-  <calcPr calcId="152511" calcMode="manual"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5991" uniqueCount="3060">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5993" uniqueCount="3062">
   <si>
     <t>Браслет - кожаный шнур Спаси и Сохрани</t>
   </si>
@@ -9207,6 +9207,12 @@
   </si>
   <si>
     <t>chetyrekhkonechnyy-krest-08597;chetyrekhkonechnyy-krest-08597_2</t>
+  </si>
+  <si>
+    <t>kozhanyy-shnurok-s-perekhodnikom-90014</t>
+  </si>
+  <si>
+    <t>kozhanyy-shnurok-s-perekhodnikom-90014;kozhanyy-shnurok-s-perekhodnikom-90014_2</t>
   </si>
 </sst>
 </file>
@@ -9557,7 +9563,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q4" sqref="Q4"/>
+      <selection pane="bottomLeft" activeCell="O3" sqref="O3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26026,8 +26032,8 @@
       <c r="B314" s="3" t="s">
         <v>619</v>
       </c>
-      <c r="C314" s="3" t="e">
-        <v>#N/A</v>
+      <c r="C314" s="3" t="s">
+        <v>3060</v>
       </c>
       <c r="D314" s="3" t="s">
         <v>7</v>
@@ -26071,8 +26077,8 @@
       <c r="P314" t="s">
         <v>1349</v>
       </c>
-      <c r="Q314" t="e">
-        <v>#N/A</v>
+      <c r="Q314" t="s">
+        <v>3061</v>
       </c>
     </row>
     <row r="315" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -40143,7 +40149,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:Q1"/>
+  <autoFilter ref="A1:Q591"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/update_db/items.xlsx
+++ b/update_db/items.xlsx
@@ -9143,12 +9143,6 @@
     <t xml:space="preserve">Цвет эмали может отличаться от представленны x </t>
   </si>
   <si>
-    <t>Подвеска Чудо святителя спиридона «Стоптанный тапочек»</t>
-  </si>
-  <si>
-    <t>podveska_pudo_svyatitelya_spiridona_205</t>
-  </si>
-  <si>
     <t>Иордань</t>
   </si>
   <si>
@@ -9174,9 +9168,6 @@
 Мощи архипастыря обуты в вышитые золотой нитью бархатные тапочки, которые, по греческой традиции, меняют два раза в год (перед Пасхой и накануне дня памяти святого Спиридона).</t>
   </si>
   <si>
-    <t>podveska_pudo_svyatitelya_spiridona_205p</t>
-  </si>
-  <si>
     <t>205п</t>
   </si>
   <si>
@@ -9247,6 +9238,15 @@
   </si>
   <si>
     <t>литье, золочение, ручная работа</t>
+  </si>
+  <si>
+    <t>podveska-pudo-svyatitelya-spiridona-205</t>
+  </si>
+  <si>
+    <t>podveska-pudo-svyatitelya-spiridona-205p</t>
+  </si>
+  <si>
+    <t>Подвеска Чудо Святителя Спиридона «Стоптанный тапочек»</t>
   </si>
 </sst>
 </file>
@@ -9598,7 +9598,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A567" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D593" sqref="D593"/>
+      <selection pane="bottomLeft" activeCell="B595" sqref="B595"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9761,7 +9761,7 @@
         <v>14</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>3049</v>
+        <v>3046</v>
       </c>
       <c r="Q3" t="s">
         <v>1846</v>
@@ -9810,7 +9810,7 @@
         <v>14</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>3049</v>
+        <v>3046</v>
       </c>
       <c r="Q4" t="s">
         <v>2435</v>
@@ -10018,7 +10018,7 @@
         <v>14</v>
       </c>
       <c r="O8" s="3" t="s">
-        <v>3050</v>
+        <v>3047</v>
       </c>
       <c r="P8" t="s">
         <v>649</v>
@@ -10070,7 +10070,7 @@
         <v>14</v>
       </c>
       <c r="O9" s="3" t="s">
-        <v>3050</v>
+        <v>3047</v>
       </c>
       <c r="P9" t="s">
         <v>651</v>
@@ -10122,7 +10122,7 @@
         <v>14</v>
       </c>
       <c r="O10" s="3" t="s">
-        <v>3050</v>
+        <v>3047</v>
       </c>
       <c r="P10" t="s">
         <v>653</v>
@@ -10176,7 +10176,7 @@
         <v>14</v>
       </c>
       <c r="O11" s="3" t="s">
-        <v>3050</v>
+        <v>3047</v>
       </c>
       <c r="P11" t="s">
         <v>918</v>
@@ -10284,7 +10284,7 @@
         <v>14</v>
       </c>
       <c r="O13" s="3" t="s">
-        <v>3051</v>
+        <v>3048</v>
       </c>
       <c r="P13" t="s">
         <v>922</v>
@@ -10388,7 +10388,7 @@
         <v>926</v>
       </c>
       <c r="O15" s="3" t="s">
-        <v>3052</v>
+        <v>3049</v>
       </c>
       <c r="P15" t="s">
         <v>26</v>
@@ -10440,7 +10440,7 @@
         <v>14</v>
       </c>
       <c r="O16" s="3" t="s">
-        <v>3053</v>
+        <v>3050</v>
       </c>
       <c r="P16" t="s">
         <v>928</v>
@@ -10654,7 +10654,7 @@
         <v>32</v>
       </c>
       <c r="O20" s="3" t="s">
-        <v>3054</v>
+        <v>3051</v>
       </c>
       <c r="P20" t="s">
         <v>933</v>
@@ -10870,7 +10870,7 @@
         <v>22</v>
       </c>
       <c r="O24" s="3" t="s">
-        <v>3055</v>
+        <v>3052</v>
       </c>
       <c r="P24" t="s">
         <v>939</v>
@@ -10974,7 +10974,7 @@
         <v>14</v>
       </c>
       <c r="O26" s="3" t="s">
-        <v>3052</v>
+        <v>3049</v>
       </c>
       <c r="P26" t="s">
         <v>200</v>
@@ -11028,7 +11028,7 @@
         <v>47</v>
       </c>
       <c r="O27" s="3" t="s">
-        <v>3056</v>
+        <v>3053</v>
       </c>
       <c r="P27" t="s">
         <v>942</v>
@@ -11082,7 +11082,7 @@
         <v>32</v>
       </c>
       <c r="O28" s="3" t="s">
-        <v>3054</v>
+        <v>3051</v>
       </c>
       <c r="P28" t="s">
         <v>944</v>
@@ -11136,7 +11136,7 @@
         <v>14</v>
       </c>
       <c r="O29" s="3" t="s">
-        <v>3053</v>
+        <v>3050</v>
       </c>
       <c r="P29" t="s">
         <v>945</v>
@@ -11400,7 +11400,7 @@
         <v>14</v>
       </c>
       <c r="O34" s="3" t="s">
-        <v>3052</v>
+        <v>3049</v>
       </c>
       <c r="P34" t="s">
         <v>222</v>
@@ -11452,7 +11452,7 @@
         <v>14</v>
       </c>
       <c r="O35" s="3" t="s">
-        <v>3050</v>
+        <v>3047</v>
       </c>
       <c r="P35" t="s">
         <v>29</v>
@@ -11506,7 +11506,7 @@
         <v>32</v>
       </c>
       <c r="O36" s="3" t="s">
-        <v>3054</v>
+        <v>3051</v>
       </c>
       <c r="P36" t="s">
         <v>954</v>
@@ -11560,7 +11560,7 @@
         <v>32</v>
       </c>
       <c r="O37" s="3" t="s">
-        <v>3053</v>
+        <v>3050</v>
       </c>
       <c r="P37" t="s">
         <v>955</v>
@@ -11666,7 +11666,7 @@
         <v>47</v>
       </c>
       <c r="O39" s="3" t="s">
-        <v>3054</v>
+        <v>3051</v>
       </c>
       <c r="P39" t="s">
         <v>955</v>
@@ -11718,7 +11718,7 @@
         <v>958</v>
       </c>
       <c r="O40" s="3" t="s">
-        <v>3054</v>
+        <v>3051</v>
       </c>
       <c r="P40" t="s">
         <v>955</v>
@@ -11772,7 +11772,7 @@
         <v>32</v>
       </c>
       <c r="O41" s="3" t="s">
-        <v>3055</v>
+        <v>3052</v>
       </c>
       <c r="P41" t="s">
         <v>959</v>
@@ -11826,7 +11826,7 @@
         <v>14</v>
       </c>
       <c r="O42" s="3" t="s">
-        <v>3055</v>
+        <v>3052</v>
       </c>
       <c r="P42" t="s">
         <v>960</v>
@@ -11880,7 +11880,7 @@
         <v>14</v>
       </c>
       <c r="O43" s="3" t="s">
-        <v>3053</v>
+        <v>3050</v>
       </c>
       <c r="P43" t="s">
         <v>961</v>
@@ -11932,7 +11932,7 @@
         <v>14</v>
       </c>
       <c r="O44" s="3" t="s">
-        <v>3052</v>
+        <v>3049</v>
       </c>
       <c r="P44" t="s">
         <v>45</v>
@@ -11984,7 +11984,7 @@
         <v>14</v>
       </c>
       <c r="O45" s="3" t="s">
-        <v>3052</v>
+        <v>3049</v>
       </c>
       <c r="P45" t="s">
         <v>224</v>
@@ -12036,7 +12036,7 @@
         <v>14</v>
       </c>
       <c r="O46" s="3" t="s">
-        <v>3052</v>
+        <v>3049</v>
       </c>
       <c r="P46" t="s">
         <v>224</v>
@@ -12090,7 +12090,7 @@
         <v>47</v>
       </c>
       <c r="O47" s="3" t="s">
-        <v>3053</v>
+        <v>3050</v>
       </c>
       <c r="P47" t="s">
         <v>963</v>
@@ -12144,7 +12144,7 @@
         <v>14</v>
       </c>
       <c r="O48" s="3" t="s">
-        <v>3053</v>
+        <v>3050</v>
       </c>
       <c r="P48" t="s">
         <v>963</v>
@@ -12198,7 +12198,7 @@
         <v>14</v>
       </c>
       <c r="O49" s="3" t="s">
-        <v>3051</v>
+        <v>3048</v>
       </c>
       <c r="P49" t="s">
         <v>965</v>
@@ -12252,7 +12252,7 @@
         <v>22</v>
       </c>
       <c r="O50" s="3" t="s">
-        <v>3055</v>
+        <v>3052</v>
       </c>
       <c r="P50" t="s">
         <v>939</v>
@@ -12306,7 +12306,7 @@
         <v>14</v>
       </c>
       <c r="O51" s="3" t="s">
-        <v>3053</v>
+        <v>3050</v>
       </c>
       <c r="P51" t="s">
         <v>966</v>
@@ -12360,7 +12360,7 @@
         <v>47</v>
       </c>
       <c r="O52" s="3" t="s">
-        <v>3057</v>
+        <v>3054</v>
       </c>
       <c r="P52" t="s">
         <v>966</v>
@@ -12412,7 +12412,7 @@
         <v>14</v>
       </c>
       <c r="O53" s="3" t="s">
-        <v>3053</v>
+        <v>3050</v>
       </c>
       <c r="P53" t="s">
         <v>968</v>
@@ -12516,7 +12516,7 @@
         <v>14</v>
       </c>
       <c r="O55" s="3" t="s">
-        <v>3052</v>
+        <v>3049</v>
       </c>
       <c r="P55" t="s">
         <v>71</v>
@@ -12570,7 +12570,7 @@
         <v>14</v>
       </c>
       <c r="O56" s="3" t="s">
-        <v>3053</v>
+        <v>3050</v>
       </c>
       <c r="P56" t="s">
         <v>970</v>
@@ -12674,7 +12674,7 @@
         <v>14</v>
       </c>
       <c r="O58" s="3" t="s">
-        <v>3052</v>
+        <v>3049</v>
       </c>
       <c r="P58" t="s">
         <v>226</v>
@@ -12726,7 +12726,7 @@
         <v>14</v>
       </c>
       <c r="O59" s="3" t="s">
-        <v>3052</v>
+        <v>3049</v>
       </c>
       <c r="P59" t="s">
         <v>226</v>
@@ -12886,7 +12886,7 @@
         <v>32</v>
       </c>
       <c r="O62" s="3" t="s">
-        <v>3053</v>
+        <v>3050</v>
       </c>
       <c r="P62" t="s">
         <v>972</v>
@@ -12940,7 +12940,7 @@
         <v>47</v>
       </c>
       <c r="O63" s="3" t="s">
-        <v>3053</v>
+        <v>3050</v>
       </c>
       <c r="P63" t="s">
         <v>972</v>
@@ -12994,7 +12994,7 @@
         <v>14</v>
       </c>
       <c r="O64" s="3" t="s">
-        <v>3053</v>
+        <v>3050</v>
       </c>
       <c r="P64" t="s">
         <v>973</v>
@@ -13048,7 +13048,7 @@
         <v>32</v>
       </c>
       <c r="O65" s="3" t="s">
-        <v>3058</v>
+        <v>3055</v>
       </c>
       <c r="P65" t="s">
         <v>974</v>
@@ -13102,7 +13102,7 @@
         <v>14</v>
       </c>
       <c r="O66" s="3" t="s">
-        <v>3055</v>
+        <v>3052</v>
       </c>
       <c r="P66" t="s">
         <v>975</v>
@@ -13264,7 +13264,7 @@
         <v>14</v>
       </c>
       <c r="O69" s="3" t="s">
-        <v>3055</v>
+        <v>3052</v>
       </c>
       <c r="P69" t="s">
         <v>977</v>
@@ -13424,7 +13424,7 @@
         <v>926</v>
       </c>
       <c r="O72" s="3" t="s">
-        <v>3052</v>
+        <v>3049</v>
       </c>
       <c r="P72" t="s">
         <v>75</v>
@@ -13698,7 +13698,7 @@
         <v>14</v>
       </c>
       <c r="O77" s="3" t="s">
-        <v>3059</v>
+        <v>3056</v>
       </c>
       <c r="P77" t="s">
         <v>984</v>
@@ -13804,7 +13804,7 @@
         <v>14</v>
       </c>
       <c r="O79" s="3" t="s">
-        <v>3052</v>
+        <v>3049</v>
       </c>
       <c r="P79" t="s">
         <v>85</v>
@@ -14016,7 +14016,7 @@
         <v>14</v>
       </c>
       <c r="O83" s="3" t="s">
-        <v>3052</v>
+        <v>3049</v>
       </c>
       <c r="P83" t="s">
         <v>87</v>
@@ -14068,7 +14068,7 @@
         <v>14</v>
       </c>
       <c r="O84" s="3" t="s">
-        <v>3052</v>
+        <v>3049</v>
       </c>
       <c r="P84" t="s">
         <v>87</v>
@@ -14226,7 +14226,7 @@
         <v>14</v>
       </c>
       <c r="O87" s="3" t="s">
-        <v>3052</v>
+        <v>3049</v>
       </c>
       <c r="P87" t="s">
         <v>91</v>
@@ -14280,7 +14280,7 @@
         <v>14</v>
       </c>
       <c r="O88" s="3" t="s">
-        <v>3055</v>
+        <v>3052</v>
       </c>
       <c r="P88" t="s">
         <v>989</v>
@@ -14334,7 +14334,7 @@
         <v>32</v>
       </c>
       <c r="O89" s="3" t="s">
-        <v>3060</v>
+        <v>3057</v>
       </c>
       <c r="P89" t="s">
         <v>990</v>
@@ -14708,7 +14708,7 @@
         <v>32</v>
       </c>
       <c r="O96" s="3" t="s">
-        <v>3053</v>
+        <v>3050</v>
       </c>
       <c r="P96" t="s">
         <v>998</v>
@@ -14762,7 +14762,7 @@
         <v>47</v>
       </c>
       <c r="O97" s="3" t="s">
-        <v>3053</v>
+        <v>3050</v>
       </c>
       <c r="P97" t="s">
         <v>999</v>
@@ -14870,7 +14870,7 @@
         <v>14</v>
       </c>
       <c r="O99" s="3" t="s">
-        <v>3055</v>
+        <v>3052</v>
       </c>
       <c r="P99" t="s">
         <v>1002</v>
@@ -14924,7 +14924,7 @@
         <v>14</v>
       </c>
       <c r="O100" s="3" t="s">
-        <v>3053</v>
+        <v>3050</v>
       </c>
       <c r="P100" t="s">
         <v>1003</v>
@@ -15198,7 +15198,7 @@
         <v>14</v>
       </c>
       <c r="O105" s="3" t="s">
-        <v>3049</v>
+        <v>3046</v>
       </c>
       <c r="P105" t="s">
         <v>1007</v>
@@ -15410,7 +15410,7 @@
         <v>14</v>
       </c>
       <c r="O109" s="3" t="s">
-        <v>3049</v>
+        <v>3046</v>
       </c>
       <c r="Q109" t="s">
         <v>2473</v>
@@ -15459,7 +15459,7 @@
         <v>14</v>
       </c>
       <c r="O110" s="3" t="s">
-        <v>3052</v>
+        <v>3049</v>
       </c>
       <c r="P110" t="s">
         <v>96</v>
@@ -15617,7 +15617,7 @@
         <v>14</v>
       </c>
       <c r="O113" s="3" t="s">
-        <v>3052</v>
+        <v>3049</v>
       </c>
       <c r="P113" t="s">
         <v>100</v>
@@ -15829,7 +15829,7 @@
         <v>1018</v>
       </c>
       <c r="O117" s="3" t="s">
-        <v>3052</v>
+        <v>3049</v>
       </c>
       <c r="P117" t="s">
         <v>103</v>
@@ -16041,7 +16041,7 @@
         <v>14</v>
       </c>
       <c r="O121" s="3" t="s">
-        <v>3052</v>
+        <v>3049</v>
       </c>
       <c r="P121" t="s">
         <v>107</v>
@@ -16093,7 +16093,7 @@
         <v>14</v>
       </c>
       <c r="O122" s="3" t="s">
-        <v>3052</v>
+        <v>3049</v>
       </c>
       <c r="P122" t="s">
         <v>107</v>
@@ -16629,7 +16629,7 @@
         <v>14</v>
       </c>
       <c r="O132" s="3" t="s">
-        <v>3052</v>
+        <v>3049</v>
       </c>
       <c r="P132" t="s">
         <v>122</v>
@@ -16737,7 +16737,7 @@
         <v>14</v>
       </c>
       <c r="O134" s="3" t="s">
-        <v>3052</v>
+        <v>3049</v>
       </c>
       <c r="P134" t="s">
         <v>1031</v>
@@ -16789,7 +16789,7 @@
         <v>14</v>
       </c>
       <c r="O135" s="3" t="s">
-        <v>3052</v>
+        <v>3049</v>
       </c>
       <c r="Q135" t="s">
         <v>2482</v>
@@ -16838,7 +16838,7 @@
         <v>14</v>
       </c>
       <c r="O136" s="3" t="s">
-        <v>3052</v>
+        <v>3049</v>
       </c>
       <c r="P136" t="s">
         <v>5</v>
@@ -17266,7 +17266,7 @@
         <v>12</v>
       </c>
       <c r="O144" s="3" t="s">
-        <v>3045</v>
+        <v>3043</v>
       </c>
       <c r="P144" t="s">
         <v>692</v>
@@ -17370,7 +17370,7 @@
         <v>14</v>
       </c>
       <c r="O146" s="3" t="s">
-        <v>3061</v>
+        <v>3058</v>
       </c>
       <c r="P146" t="s">
         <v>695</v>
@@ -17476,7 +17476,7 @@
         <v>14</v>
       </c>
       <c r="O148" s="3" t="s">
-        <v>3049</v>
+        <v>3046</v>
       </c>
       <c r="Q148" t="s">
         <v>2488</v>
@@ -17525,7 +17525,7 @@
         <v>14</v>
       </c>
       <c r="O149" s="3" t="s">
-        <v>3049</v>
+        <v>3046</v>
       </c>
       <c r="P149" t="s">
         <v>133</v>
@@ -17577,7 +17577,7 @@
         <v>14</v>
       </c>
       <c r="O150" s="3" t="s">
-        <v>3062</v>
+        <v>3059</v>
       </c>
       <c r="P150" t="s">
         <v>699</v>
@@ -17629,7 +17629,7 @@
         <v>14</v>
       </c>
       <c r="O151" s="3" t="s">
-        <v>3049</v>
+        <v>3046</v>
       </c>
       <c r="P151" t="s">
         <v>133</v>
@@ -18002,7 +18002,7 @@
         <v>14</v>
       </c>
       <c r="O158" s="3" t="s">
-        <v>3063</v>
+        <v>3060</v>
       </c>
       <c r="P158" t="s">
         <v>1056</v>
@@ -18054,7 +18054,7 @@
         <v>14</v>
       </c>
       <c r="O159" s="3" t="s">
-        <v>3050</v>
+        <v>3047</v>
       </c>
       <c r="P159" t="s">
         <v>130</v>
@@ -18426,7 +18426,7 @@
         <v>14</v>
       </c>
       <c r="O166" s="3" t="s">
-        <v>3052</v>
+        <v>3049</v>
       </c>
       <c r="P166" t="s">
         <v>702</v>
@@ -18478,7 +18478,7 @@
         <v>14</v>
       </c>
       <c r="O167" s="3" t="s">
-        <v>3050</v>
+        <v>3047</v>
       </c>
       <c r="P167" t="s">
         <v>136</v>
@@ -18744,7 +18744,7 @@
         <v>14</v>
       </c>
       <c r="O172" s="3" t="s">
-        <v>3052</v>
+        <v>3049</v>
       </c>
       <c r="P172" t="s">
         <v>705</v>
@@ -18796,7 +18796,7 @@
         <v>14</v>
       </c>
       <c r="O173" s="3" t="s">
-        <v>3052</v>
+        <v>3049</v>
       </c>
       <c r="P173" t="s">
         <v>705</v>
@@ -18848,7 +18848,7 @@
         <v>14</v>
       </c>
       <c r="O174" s="3" t="s">
-        <v>3052</v>
+        <v>3049</v>
       </c>
       <c r="P174" t="s">
         <v>161</v>
@@ -19386,7 +19386,7 @@
         <v>14</v>
       </c>
       <c r="O184" s="3" t="s">
-        <v>3052</v>
+        <v>3049</v>
       </c>
       <c r="P184" t="s">
         <v>161</v>
@@ -19438,7 +19438,7 @@
         <v>14</v>
       </c>
       <c r="O185" s="3" t="s">
-        <v>3050</v>
+        <v>3047</v>
       </c>
       <c r="P185" t="s">
         <v>143</v>
@@ -19656,7 +19656,7 @@
         <v>14</v>
       </c>
       <c r="O189" s="3" t="s">
-        <v>3050</v>
+        <v>3047</v>
       </c>
       <c r="P189" t="s">
         <v>164</v>
@@ -20783,7 +20783,7 @@
         <v>14</v>
       </c>
       <c r="O210" s="3" t="s">
-        <v>3052</v>
+        <v>3049</v>
       </c>
       <c r="P210" t="s">
         <v>174</v>
@@ -21103,7 +21103,7 @@
         <v>14</v>
       </c>
       <c r="O216" s="3" t="s">
-        <v>3052</v>
+        <v>3049</v>
       </c>
       <c r="P216" t="s">
         <v>1108</v>
@@ -21371,7 +21371,7 @@
         <v>14</v>
       </c>
       <c r="O221" s="3" t="s">
-        <v>3052</v>
+        <v>3049</v>
       </c>
       <c r="P221" t="s">
         <v>1115</v>
@@ -21425,7 +21425,7 @@
         <v>14</v>
       </c>
       <c r="O222" s="3" t="s">
-        <v>3052</v>
+        <v>3049</v>
       </c>
       <c r="P222" t="s">
         <v>1116</v>
@@ -21853,7 +21853,7 @@
         <v>926</v>
       </c>
       <c r="O230" s="3" t="s">
-        <v>3052</v>
+        <v>3049</v>
       </c>
       <c r="P230" t="s">
         <v>1128</v>
@@ -22123,7 +22123,7 @@
         <v>14</v>
       </c>
       <c r="O235" s="3" t="s">
-        <v>3052</v>
+        <v>3049</v>
       </c>
       <c r="P235" t="s">
         <v>1136</v>
@@ -22177,7 +22177,7 @@
         <v>14</v>
       </c>
       <c r="O236" s="3" t="s">
-        <v>3052</v>
+        <v>3049</v>
       </c>
       <c r="P236" t="s">
         <v>1138</v>
@@ -22501,7 +22501,7 @@
         <v>14</v>
       </c>
       <c r="O242" s="3" t="s">
-        <v>3052</v>
+        <v>3049</v>
       </c>
       <c r="P242" t="s">
         <v>1144</v>
@@ -22771,7 +22771,7 @@
         <v>14</v>
       </c>
       <c r="O247" s="3" t="s">
-        <v>3052</v>
+        <v>3049</v>
       </c>
       <c r="P247" t="s">
         <v>1150</v>
@@ -22823,7 +22823,7 @@
         <v>14</v>
       </c>
       <c r="O248" s="3" t="s">
-        <v>3052</v>
+        <v>3049</v>
       </c>
       <c r="P248" t="s">
         <v>1152</v>
@@ -23197,7 +23197,7 @@
         <v>14</v>
       </c>
       <c r="O255" s="3" t="s">
-        <v>3064</v>
+        <v>3061</v>
       </c>
       <c r="P255" t="s">
         <v>1161</v>
@@ -23573,7 +23573,7 @@
         <v>14</v>
       </c>
       <c r="O262" s="3" t="s">
-        <v>3061</v>
+        <v>3058</v>
       </c>
       <c r="P262" t="s">
         <v>1170</v>
@@ -23625,7 +23625,7 @@
         <v>14</v>
       </c>
       <c r="O263" s="3" t="s">
-        <v>3052</v>
+        <v>3049</v>
       </c>
       <c r="P263" t="s">
         <v>283</v>
@@ -25007,7 +25007,7 @@
         <v>14</v>
       </c>
       <c r="O289" s="3" t="s">
-        <v>3065</v>
+        <v>3062</v>
       </c>
       <c r="P289" t="s">
         <v>1190</v>
@@ -26563,7 +26563,7 @@
         <v>14</v>
       </c>
       <c r="O318" s="3" t="s">
-        <v>3053</v>
+        <v>3050</v>
       </c>
       <c r="P318" t="s">
         <v>1225</v>
@@ -27375,7 +27375,7 @@
         <v>14</v>
       </c>
       <c r="O333" s="3" t="s">
-        <v>3053</v>
+        <v>3050</v>
       </c>
       <c r="P333" t="s">
         <v>1246</v>
@@ -27485,7 +27485,7 @@
         <v>14</v>
       </c>
       <c r="O335" s="3" t="s">
-        <v>3052</v>
+        <v>3049</v>
       </c>
       <c r="P335" t="s">
         <v>1249</v>
@@ -28343,7 +28343,7 @@
         <v>14</v>
       </c>
       <c r="O351" s="3" t="s">
-        <v>3053</v>
+        <v>3050</v>
       </c>
       <c r="P351" t="s">
         <v>1263</v>
@@ -28449,7 +28449,7 @@
         <v>14</v>
       </c>
       <c r="O353" s="3" t="s">
-        <v>3052</v>
+        <v>3049</v>
       </c>
       <c r="P353" t="s">
         <v>1264</v>
@@ -28503,7 +28503,7 @@
         <v>14</v>
       </c>
       <c r="O354" s="3" t="s">
-        <v>3052</v>
+        <v>3049</v>
       </c>
       <c r="P354" t="s">
         <v>1266</v>
@@ -28555,7 +28555,7 @@
         <v>14</v>
       </c>
       <c r="O355" s="3" t="s">
-        <v>3052</v>
+        <v>3049</v>
       </c>
       <c r="P355" t="s">
         <v>302</v>
@@ -29176,7 +29176,7 @@
         <v>14</v>
       </c>
       <c r="O367" t="s">
-        <v>3066</v>
+        <v>3063</v>
       </c>
       <c r="P367" t="s">
         <v>170</v>
@@ -29438,7 +29438,7 @@
         <v>14</v>
       </c>
       <c r="O372" t="s">
-        <v>3052</v>
+        <v>3049</v>
       </c>
       <c r="P372" t="s">
         <v>186</v>
@@ -32394,7 +32394,7 @@
         <v>14</v>
       </c>
       <c r="O428" t="s">
-        <v>3052</v>
+        <v>3049</v>
       </c>
       <c r="P428" t="s">
         <v>186</v>
@@ -34078,7 +34078,7 @@
         <v>14</v>
       </c>
       <c r="O460" t="s">
-        <v>3052</v>
+        <v>3049</v>
       </c>
       <c r="P460" t="s">
         <v>1379</v>
@@ -34131,7 +34131,7 @@
         <v>14</v>
       </c>
       <c r="O461" t="s">
-        <v>3052</v>
+        <v>3049</v>
       </c>
       <c r="P461" t="s">
         <v>1381</v>
@@ -34184,7 +34184,7 @@
         <v>14</v>
       </c>
       <c r="O462" t="s">
-        <v>3052</v>
+        <v>3049</v>
       </c>
       <c r="P462" t="s">
         <v>1383</v>
@@ -34237,7 +34237,7 @@
         <v>14</v>
       </c>
       <c r="O463" t="s">
-        <v>3052</v>
+        <v>3049</v>
       </c>
       <c r="P463" t="s">
         <v>1384</v>
@@ -34290,7 +34290,7 @@
         <v>14</v>
       </c>
       <c r="O464" t="s">
-        <v>3052</v>
+        <v>3049</v>
       </c>
       <c r="P464" t="s">
         <v>1385</v>
@@ -34343,7 +34343,7 @@
         <v>14</v>
       </c>
       <c r="O465" t="s">
-        <v>3052</v>
+        <v>3049</v>
       </c>
       <c r="P465" t="s">
         <v>1387</v>
@@ -34396,7 +34396,7 @@
         <v>14</v>
       </c>
       <c r="O466" t="s">
-        <v>3052</v>
+        <v>3049</v>
       </c>
       <c r="P466" t="s">
         <v>1388</v>
@@ -34452,7 +34452,7 @@
         <v>14</v>
       </c>
       <c r="O467" t="s">
-        <v>3053</v>
+        <v>3050</v>
       </c>
       <c r="P467" t="s">
         <v>1390</v>
@@ -34561,7 +34561,7 @@
         <v>14</v>
       </c>
       <c r="O469" t="s">
-        <v>3052</v>
+        <v>3049</v>
       </c>
       <c r="P469" t="s">
         <v>1392</v>
@@ -34667,7 +34667,7 @@
         <v>14</v>
       </c>
       <c r="O471" t="s">
-        <v>3052</v>
+        <v>3049</v>
       </c>
       <c r="P471" t="s">
         <v>1394</v>
@@ -34820,7 +34820,7 @@
         <v>14</v>
       </c>
       <c r="O474" t="s">
-        <v>3053</v>
+        <v>3050</v>
       </c>
       <c r="P474" t="s">
         <v>1395</v>
@@ -34873,7 +34873,7 @@
         <v>14</v>
       </c>
       <c r="O475" t="s">
-        <v>3053</v>
+        <v>3050</v>
       </c>
       <c r="P475" t="s">
         <v>1396</v>
@@ -34926,7 +34926,7 @@
         <v>14</v>
       </c>
       <c r="O476" t="s">
-        <v>3053</v>
+        <v>3050</v>
       </c>
       <c r="P476" t="s">
         <v>1397</v>
@@ -34979,7 +34979,7 @@
         <v>14</v>
       </c>
       <c r="O477" t="s">
-        <v>3053</v>
+        <v>3050</v>
       </c>
       <c r="P477" t="s">
         <v>1398</v>
@@ -35032,7 +35032,7 @@
         <v>14</v>
       </c>
       <c r="O478" t="s">
-        <v>3053</v>
+        <v>3050</v>
       </c>
       <c r="P478" t="s">
         <v>1399</v>
@@ -35085,7 +35085,7 @@
         <v>14</v>
       </c>
       <c r="O479" t="s">
-        <v>3053</v>
+        <v>3050</v>
       </c>
       <c r="P479" t="s">
         <v>603</v>
@@ -36183,7 +36183,7 @@
         <v>14</v>
       </c>
       <c r="O500" t="s">
-        <v>3052</v>
+        <v>3049</v>
       </c>
       <c r="P500" t="s">
         <v>716</v>
@@ -36654,7 +36654,7 @@
         <v>14</v>
       </c>
       <c r="O509" t="s">
-        <v>3052</v>
+        <v>3049</v>
       </c>
       <c r="P509" t="s">
         <v>716</v>
@@ -36704,7 +36704,7 @@
         <v>14</v>
       </c>
       <c r="O510" t="s">
-        <v>3067</v>
+        <v>3064</v>
       </c>
       <c r="P510" t="s">
         <v>1425</v>
@@ -37290,7 +37290,7 @@
         <v>12</v>
       </c>
       <c r="O521" t="s">
-        <v>3052</v>
+        <v>3049</v>
       </c>
       <c r="P521" t="s">
         <v>1441</v>
@@ -37393,7 +37393,7 @@
         <v>14</v>
       </c>
       <c r="O523" t="s">
-        <v>3052</v>
+        <v>3049</v>
       </c>
       <c r="P523" t="s">
         <v>1442</v>
@@ -37446,7 +37446,7 @@
         <v>14</v>
       </c>
       <c r="O524" t="s">
-        <v>3052</v>
+        <v>3049</v>
       </c>
       <c r="P524" t="s">
         <v>1443</v>
@@ -37814,7 +37814,7 @@
         <v>926</v>
       </c>
       <c r="O531" t="s">
-        <v>3052</v>
+        <v>3049</v>
       </c>
       <c r="P531" t="s">
         <v>1451</v>
@@ -37917,7 +37917,7 @@
         <v>14</v>
       </c>
       <c r="O533" t="s">
-        <v>3052</v>
+        <v>3049</v>
       </c>
       <c r="P533" t="s">
         <v>1454</v>
@@ -37970,7 +37970,7 @@
         <v>14</v>
       </c>
       <c r="O534" t="s">
-        <v>3068</v>
+        <v>3065</v>
       </c>
       <c r="P534" t="s">
         <v>1455</v>
@@ -38070,7 +38070,7 @@
         <v>926</v>
       </c>
       <c r="O536" t="s">
-        <v>3050</v>
+        <v>3047</v>
       </c>
       <c r="P536" t="s">
         <v>180</v>
@@ -38379,7 +38379,7 @@
         <v>926</v>
       </c>
       <c r="O542" t="s">
-        <v>3052</v>
+        <v>3049</v>
       </c>
       <c r="P542" t="s">
         <v>56</v>
@@ -38429,7 +38429,7 @@
         <v>926</v>
       </c>
       <c r="O543" t="s">
-        <v>3052</v>
+        <v>3049</v>
       </c>
       <c r="P543" t="s">
         <v>56</v>
@@ -38794,7 +38794,7 @@
         <v>14</v>
       </c>
       <c r="O550" t="s">
-        <v>3050</v>
+        <v>3047</v>
       </c>
       <c r="P550" t="s">
         <v>193</v>
@@ -39274,7 +39274,7 @@
         <v>14</v>
       </c>
       <c r="O559" t="s">
-        <v>3069</v>
+        <v>3066</v>
       </c>
       <c r="P559" t="s">
         <v>1473</v>
@@ -39433,7 +39433,7 @@
         <v>14</v>
       </c>
       <c r="O562" t="s">
-        <v>3070</v>
+        <v>3067</v>
       </c>
       <c r="P562" t="s">
         <v>1479</v>
@@ -39486,7 +39486,7 @@
         <v>14</v>
       </c>
       <c r="O563" t="s">
-        <v>3070</v>
+        <v>3067</v>
       </c>
       <c r="P563" t="s">
         <v>1481</v>
@@ -40310,7 +40310,7 @@
         <v>1489</v>
       </c>
       <c r="O579" t="s">
-        <v>3059</v>
+        <v>3056</v>
       </c>
       <c r="P579" t="s">
         <v>1492</v>
@@ -40519,7 +40519,7 @@
         <v>14</v>
       </c>
       <c r="O583" t="s">
-        <v>3052</v>
+        <v>3049</v>
       </c>
       <c r="P583" t="s">
         <v>1497</v>
@@ -40887,7 +40887,7 @@
         <v>1502</v>
       </c>
       <c r="O590" t="s">
-        <v>3059</v>
+        <v>3056</v>
       </c>
       <c r="P590" t="s">
         <v>1503</v>
@@ -40951,13 +40951,13 @@
         <v>12</v>
       </c>
       <c r="B592" s="3" t="s">
+        <v>3071</v>
+      </c>
+      <c r="C592" t="s">
+        <v>3069</v>
+      </c>
+      <c r="D592" t="s">
         <v>3038</v>
-      </c>
-      <c r="C592" t="s">
-        <v>3039</v>
-      </c>
-      <c r="D592" t="s">
-        <v>3040</v>
       </c>
       <c r="E592" s="5">
         <v>205</v>
@@ -40968,38 +40968,38 @@
       </c>
       <c r="G592" s="5" t="str">
         <f t="shared" si="28"/>
-        <v>В нашем интернет магазине Вы можете приобрести недорогое изделие ручной работы - «Подвеска Чудо святителя спиридона «Стоптанный тапочек»», выполненное по всем православным канонам.</v>
+        <v>В нашем интернет магазине Вы можете приобрести недорогое изделие ручной работы - «Подвеска Чудо Святителя Спиридона «Стоптанный тапочек»», выполненное по всем православным канонам.</v>
       </c>
       <c r="H592" s="5" t="str">
         <f t="shared" si="29"/>
-        <v>Подвеска Чудо святителя спиридона «Стоптанный тапочек». Изделие освящено</v>
+        <v>Подвеска Чудо Святителя Спиридона «Стоптанный тапочек». Изделие освящено</v>
       </c>
       <c r="I592" t="s">
         <v>906</v>
       </c>
       <c r="J592" t="s">
-        <v>3041</v>
+        <v>3039</v>
       </c>
       <c r="K592" s="6">
         <v>2000</v>
       </c>
       <c r="L592" t="s">
+        <v>3040</v>
+      </c>
+      <c r="M592" t="s">
+        <v>3041</v>
+      </c>
+      <c r="N592" t="s">
+        <v>12</v>
+      </c>
+      <c r="O592" t="s">
         <v>3042</v>
       </c>
-      <c r="M592" t="s">
-        <v>3043</v>
-      </c>
-      <c r="N592" t="s">
-        <v>12</v>
-      </c>
-      <c r="O592" t="s">
+      <c r="P592" s="8" t="s">
         <v>3044</v>
       </c>
-      <c r="P592" s="8" t="s">
-        <v>3046</v>
-      </c>
       <c r="Q592" t="s">
-        <v>3039</v>
+        <v>3069</v>
       </c>
     </row>
     <row r="593" spans="1:17" x14ac:dyDescent="0.25">
@@ -41007,16 +41007,16 @@
         <v>12</v>
       </c>
       <c r="B593" s="3" t="s">
+        <v>3071</v>
+      </c>
+      <c r="C593" t="s">
+        <v>3070</v>
+      </c>
+      <c r="D593" t="s">
         <v>3038</v>
       </c>
-      <c r="C593" t="s">
-        <v>3047</v>
-      </c>
-      <c r="D593" t="s">
-        <v>3040</v>
-      </c>
       <c r="E593" s="5" t="s">
-        <v>3048</v>
+        <v>3045</v>
       </c>
       <c r="F593" s="5" t="str">
         <f t="shared" ref="F593" si="30">LOWER(B593)&amp;", интернет-магазин, купить, недорого, доставка, Москва"</f>
@@ -41024,38 +41024,38 @@
       </c>
       <c r="G593" s="5" t="str">
         <f t="shared" ref="G593" si="31">"В нашем интернет магазине Вы можете приобрести недорогое изделие ручной работы - «"&amp;B593&amp;"», выполненное по всем православным канонам."</f>
-        <v>В нашем интернет магазине Вы можете приобрести недорогое изделие ручной работы - «Подвеска Чудо святителя спиридона «Стоптанный тапочек»», выполненное по всем православным канонам.</v>
+        <v>В нашем интернет магазине Вы можете приобрести недорогое изделие ручной работы - «Подвеска Чудо Святителя Спиридона «Стоптанный тапочек»», выполненное по всем православным канонам.</v>
       </c>
       <c r="H593" s="5" t="str">
         <f t="shared" ref="H593" si="32">B593&amp;". Изделие освящено"</f>
-        <v>Подвеска Чудо святителя спиридона «Стоптанный тапочек». Изделие освящено</v>
+        <v>Подвеска Чудо Святителя Спиридона «Стоптанный тапочек». Изделие освящено</v>
       </c>
       <c r="I593" t="s">
         <v>906</v>
       </c>
       <c r="J593" t="s">
-        <v>3041</v>
+        <v>3039</v>
       </c>
       <c r="K593" s="6">
         <v>2600</v>
       </c>
       <c r="L593" t="s">
-        <v>3042</v>
+        <v>3040</v>
       </c>
       <c r="M593" t="s">
-        <v>3043</v>
+        <v>3041</v>
       </c>
       <c r="N593" t="s">
         <v>14</v>
       </c>
       <c r="O593" t="s">
-        <v>3071</v>
+        <v>3068</v>
       </c>
       <c r="P593" s="8" t="s">
-        <v>3046</v>
+        <v>3044</v>
       </c>
       <c r="Q593" t="s">
-        <v>3047</v>
+        <v>3070</v>
       </c>
     </row>
   </sheetData>

--- a/update_db/items.xlsx
+++ b/update_db/items.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6322" uniqueCount="3072">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6357" uniqueCount="3088">
   <si>
     <t>Браслет - кожаный шнур Спаси и Сохрани</t>
   </si>
@@ -9247,6 +9247,57 @@
   </si>
   <si>
     <t>Подвеска Чудо Святителя Спиридона «Стоптанный тапочек»</t>
+  </si>
+  <si>
+    <t>Кирпич Спиридона Тримифунтского</t>
+  </si>
+  <si>
+    <t>13.00 г</t>
+  </si>
+  <si>
+    <t>22 * 11 * 8 мм</t>
+  </si>
+  <si>
+    <t>Шнур или цепь в комплект не входит</t>
+  </si>
+  <si>
+    <t>Святитель Спиридон Тримифунтский – защитник Православия. Святость его была неопровержима ещё и при жизни, а чудеса его совершаются и поныне. В 325 году на 1 Вселенском Соборе святой Спиридон наглядно доказал еретикам Единство во Святой Троице. Этот сюжет из жизни святого в историю вошёл как «случай с кирпичом». Он взял в руки кирпич и стиснул его: мгновенно вышел из него вверх огонь, вниз потекла вода, а глина осталась в руках Чудотворца. «Се три стихии, а кирпич один, а Божество Едино». Поэтому изделие имеет форму кирпича.
+По периметру подвески написана молитва – хвалебная песнь о чудесах Святителя.
+Чудотворцем Спиридон Тримифунтский стал при жизни: Он оправдывал невинно осуждённых, подобно Моисею раздвигал реки, ему даже Ангелы пели в пустом храме, он исцелял больных и даже воскрешал мёртвых. Отдельно стоит рассказать «чудо о злате». Однажды к нему обратился трудолюбивый земледелец и посетовал на безденежье. Спиридон превратил змею в слиток золота и отдал его нуждающемуся. До сих пор к Святителю обращаются за помощью в поисках работы и в покупке своего жилья. Не даром ещё Иоанн Кронштатский говорил : "Молились бы святителю Спиридону Тримифунтскому, все были бы с жильём".
+Его молят о благополучии в доме, о исцелении, о детях, о защите.</t>
+  </si>
+  <si>
+    <t>185п</t>
+  </si>
+  <si>
+    <t>kirpich-spiridona-trimifuntskogo-185</t>
+  </si>
+  <si>
+    <t>kirpich-spiridona-trimifuntskogo-185p</t>
+  </si>
+  <si>
+    <t>Кирпич Спиридона Тримифунтского со шнуром</t>
+  </si>
+  <si>
+    <t>185/1</t>
+  </si>
+  <si>
+    <t>kirpich-spiridona-trimifuntskogo-so-shnurom-185-1</t>
+  </si>
+  <si>
+    <t>16.00 г</t>
+  </si>
+  <si>
+    <t>Длина шнура 60, 65 см. В комплекте к мощевику идет шнур с переходником.</t>
+  </si>
+  <si>
+    <t>kirpich-spiridona-trimifuntskogo-so-shnurom-185-1;kirpich-spiridona-trimifuntskogo-so-shnurom-185-1_2</t>
+  </si>
+  <si>
+    <t>kirpich-spiridona-trimifuntskogo-185;kirpich-spiridona-trimifuntskogo-185_2</t>
+  </si>
+  <si>
+    <t>kirpich-spiridona-trimifuntskogo-185p;kirpich-spiridona-trimifuntskogo-185p_2;kirpich-spiridona-trimifuntskogo-185p_3</t>
   </si>
 </sst>
 </file>
@@ -9292,7 +9343,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -9314,6 +9365,9 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -9594,11 +9648,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q593"/>
+  <dimension ref="A1:Q612"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A567" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B595" sqref="B595"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A570" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K581" sqref="K581"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -41019,15 +41073,15 @@
         <v>3045</v>
       </c>
       <c r="F593" s="5" t="str">
-        <f t="shared" ref="F593" si="30">LOWER(B593)&amp;", интернет-магазин, купить, недорого, доставка, Москва"</f>
+        <f t="shared" ref="F593:F594" si="30">LOWER(B593)&amp;", интернет-магазин, купить, недорого, доставка, Москва"</f>
         <v>подвеска чудо святителя спиридона «стоптанный тапочек», интернет-магазин, купить, недорого, доставка, Москва</v>
       </c>
       <c r="G593" s="5" t="str">
-        <f t="shared" ref="G593" si="31">"В нашем интернет магазине Вы можете приобрести недорогое изделие ручной работы - «"&amp;B593&amp;"», выполненное по всем православным канонам."</f>
+        <f t="shared" ref="G593:G594" si="31">"В нашем интернет магазине Вы можете приобрести недорогое изделие ручной работы - «"&amp;B593&amp;"», выполненное по всем православным канонам."</f>
         <v>В нашем интернет магазине Вы можете приобрести недорогое изделие ручной работы - «Подвеска Чудо Святителя Спиридона «Стоптанный тапочек»», выполненное по всем православным канонам.</v>
       </c>
       <c r="H593" s="5" t="str">
-        <f t="shared" ref="H593" si="32">B593&amp;". Изделие освящено"</f>
+        <f t="shared" ref="H593:H594" si="32">B593&amp;". Изделие освящено"</f>
         <v>Подвеска Чудо Святителя Спиридона «Стоптанный тапочек». Изделие освящено</v>
       </c>
       <c r="I593" t="s">
@@ -41058,6 +41112,190 @@
         <v>3070</v>
       </c>
     </row>
+    <row r="594" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A594" s="3">
+        <v>11</v>
+      </c>
+      <c r="B594" s="3" t="s">
+        <v>3072</v>
+      </c>
+      <c r="C594" t="s">
+        <v>3078</v>
+      </c>
+      <c r="D594" t="s">
+        <v>3038</v>
+      </c>
+      <c r="E594" s="5">
+        <v>185</v>
+      </c>
+      <c r="F594" s="5" t="str">
+        <f t="shared" si="30"/>
+        <v>кирпич спиридона тримифунтского, интернет-магазин, купить, недорого, доставка, Москва</v>
+      </c>
+      <c r="G594" s="5" t="str">
+        <f t="shared" si="31"/>
+        <v>В нашем интернет магазине Вы можете приобрести недорогое изделие ручной работы - «Кирпич Спиридона Тримифунтского», выполненное по всем православным канонам.</v>
+      </c>
+      <c r="H594" s="5" t="str">
+        <f t="shared" si="32"/>
+        <v>Кирпич Спиридона Тримифунтского. Изделие освящено</v>
+      </c>
+      <c r="I594" t="s">
+        <v>906</v>
+      </c>
+      <c r="J594" t="s">
+        <v>3073</v>
+      </c>
+      <c r="K594" s="6">
+        <v>5500</v>
+      </c>
+      <c r="L594" t="s">
+        <v>3074</v>
+      </c>
+      <c r="M594" t="s">
+        <v>3075</v>
+      </c>
+      <c r="N594" t="s">
+        <v>12</v>
+      </c>
+      <c r="O594" t="s">
+        <v>908</v>
+      </c>
+      <c r="P594" s="8" t="s">
+        <v>3076</v>
+      </c>
+      <c r="Q594" t="s">
+        <v>3086</v>
+      </c>
+    </row>
+    <row r="595" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A595" s="3">
+        <v>11</v>
+      </c>
+      <c r="B595" s="3" t="s">
+        <v>3072</v>
+      </c>
+      <c r="C595" t="s">
+        <v>3079</v>
+      </c>
+      <c r="D595" t="s">
+        <v>3038</v>
+      </c>
+      <c r="E595" s="5" t="s">
+        <v>3077</v>
+      </c>
+      <c r="F595" s="5" t="str">
+        <f t="shared" ref="F595:F596" si="33">LOWER(B595)&amp;", интернет-магазин, купить, недорого, доставка, Москва"</f>
+        <v>кирпич спиридона тримифунтского, интернет-магазин, купить, недорого, доставка, Москва</v>
+      </c>
+      <c r="G595" s="5" t="str">
+        <f t="shared" ref="G595:G596" si="34">"В нашем интернет магазине Вы можете приобрести недорогое изделие ручной работы - «"&amp;B595&amp;"», выполненное по всем православным канонам."</f>
+        <v>В нашем интернет магазине Вы можете приобрести недорогое изделие ручной работы - «Кирпич Спиридона Тримифунтского», выполненное по всем православным канонам.</v>
+      </c>
+      <c r="H595" s="5" t="str">
+        <f t="shared" ref="H595:H596" si="35">B595&amp;". Изделие освящено"</f>
+        <v>Кирпич Спиридона Тримифунтского. Изделие освящено</v>
+      </c>
+      <c r="I595" t="s">
+        <v>906</v>
+      </c>
+      <c r="J595" t="s">
+        <v>3073</v>
+      </c>
+      <c r="K595" s="6">
+        <v>9000</v>
+      </c>
+      <c r="L595" t="s">
+        <v>3074</v>
+      </c>
+      <c r="M595" t="s">
+        <v>3075</v>
+      </c>
+      <c r="N595" t="s">
+        <v>14</v>
+      </c>
+      <c r="O595" t="s">
+        <v>908</v>
+      </c>
+      <c r="P595" s="8" t="s">
+        <v>3076</v>
+      </c>
+      <c r="Q595" t="s">
+        <v>3087</v>
+      </c>
+    </row>
+    <row r="596" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A596" s="3">
+        <v>11</v>
+      </c>
+      <c r="B596" s="3" t="s">
+        <v>3080</v>
+      </c>
+      <c r="C596" t="s">
+        <v>3082</v>
+      </c>
+      <c r="D596" t="s">
+        <v>3038</v>
+      </c>
+      <c r="E596" s="5" t="s">
+        <v>3081</v>
+      </c>
+      <c r="F596" s="5" t="str">
+        <f t="shared" si="33"/>
+        <v>кирпич спиридона тримифунтского со шнуром, интернет-магазин, купить, недорого, доставка, Москва</v>
+      </c>
+      <c r="G596" s="5" t="str">
+        <f t="shared" si="34"/>
+        <v>В нашем интернет магазине Вы можете приобрести недорогое изделие ручной работы - «Кирпич Спиридона Тримифунтского со шнуром», выполненное по всем православным канонам.</v>
+      </c>
+      <c r="H596" s="5" t="str">
+        <f t="shared" si="35"/>
+        <v>Кирпич Спиридона Тримифунтского со шнуром. Изделие освящено</v>
+      </c>
+      <c r="I596" t="s">
+        <v>906</v>
+      </c>
+      <c r="J596" t="s">
+        <v>3083</v>
+      </c>
+      <c r="K596" s="6">
+        <v>7000</v>
+      </c>
+      <c r="L596" t="s">
+        <v>3074</v>
+      </c>
+      <c r="M596" t="s">
+        <v>3084</v>
+      </c>
+      <c r="N596" t="s">
+        <v>12</v>
+      </c>
+      <c r="O596" t="s">
+        <v>908</v>
+      </c>
+      <c r="P596" s="9" t="s">
+        <v>3076</v>
+      </c>
+      <c r="Q596" t="s">
+        <v>3085</v>
+      </c>
+    </row>
+    <row r="597" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="598" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="599" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="600" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="601" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="602" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="603" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="604" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="605" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="606" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="607" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="608" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="609" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="610" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="611" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="612" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <autoFilter ref="A1:Q593"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/update_db/items.xlsx
+++ b/update_db/items.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\OSPanel\domains\parser-troica.loc\update_db\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11985"/>
   </bookViews>
@@ -15,11 +10,11 @@
     <sheet name="аким, елиз, анаст" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'аким, елиз, анаст'!$A$1:$Q$593</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'аким, елиз, анаст'!$A$1:$Q$596</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="125725" refMode="R1C1"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -9303,8 +9298,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -9640,22 +9635,22 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q612"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A570" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K581" sqref="K581"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="3" width="31.5703125" customWidth="1"/>
     <col min="4" max="4" width="15.42578125" bestFit="1" customWidth="1"/>
@@ -9668,7 +9663,7 @@
     <col min="15" max="15" width="19.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17">
       <c r="A1" s="1" t="s">
         <v>904</v>
       </c>
@@ -9721,7 +9716,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" ht="15" customHeight="1">
       <c r="A2" s="3">
         <v>4</v>
       </c>
@@ -9772,7 +9767,7 @@
         <v>2434</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" ht="15" customHeight="1">
       <c r="A3" s="3">
         <v>4</v>
       </c>
@@ -9821,7 +9816,7 @@
         <v>1846</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" ht="15" customHeight="1">
       <c r="A4" s="3">
         <v>4</v>
       </c>
@@ -9870,7 +9865,7 @@
         <v>2435</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" ht="15" customHeight="1">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -9926,7 +9921,7 @@
         <v>1848</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" ht="15" customHeight="1">
       <c r="A6" s="3">
         <v>4</v>
       </c>
@@ -9975,7 +9970,7 @@
         <v>2436</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" ht="15" customHeight="1">
       <c r="A7" s="3">
         <v>8</v>
       </c>
@@ -10029,7 +10024,7 @@
         <v>2437</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17">
       <c r="A8" s="3">
         <v>4</v>
       </c>
@@ -10081,7 +10076,7 @@
         <v>2438</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17">
       <c r="A9" s="3">
         <v>4</v>
       </c>
@@ -10133,7 +10128,7 @@
         <v>2439</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17">
       <c r="A10" s="3">
         <v>4</v>
       </c>
@@ -10185,7 +10180,7 @@
         <v>2440</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17">
       <c r="A11" s="3">
         <v>4</v>
       </c>
@@ -10239,7 +10234,7 @@
         <v>2441</v>
       </c>
     </row>
-    <row r="12" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" ht="15" customHeight="1">
       <c r="A12" s="3">
         <v>8</v>
       </c>
@@ -10293,7 +10288,7 @@
         <v>2442</v>
       </c>
     </row>
-    <row r="13" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" ht="15" customHeight="1">
       <c r="A13" s="3">
         <v>22</v>
       </c>
@@ -10347,7 +10342,7 @@
         <v>1856</v>
       </c>
     </row>
-    <row r="14" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" ht="15" customHeight="1">
       <c r="A14" s="3">
         <v>4</v>
       </c>
@@ -10399,7 +10394,7 @@
         <v>1857</v>
       </c>
     </row>
-    <row r="15" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" ht="15" customHeight="1">
       <c r="A15" s="3">
         <v>4</v>
       </c>
@@ -10451,7 +10446,7 @@
         <v>1858</v>
       </c>
     </row>
-    <row r="16" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" ht="15" customHeight="1">
       <c r="A16" s="3">
         <v>22</v>
       </c>
@@ -10503,7 +10498,7 @@
         <v>1859</v>
       </c>
     </row>
-    <row r="17" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" ht="15" customHeight="1">
       <c r="A17" s="3">
         <v>22</v>
       </c>
@@ -10557,7 +10552,7 @@
         <v>1860</v>
       </c>
     </row>
-    <row r="18" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" ht="15" customHeight="1">
       <c r="A18" s="3">
         <v>4</v>
       </c>
@@ -10609,7 +10604,7 @@
         <v>1861</v>
       </c>
     </row>
-    <row r="19" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" ht="15" customHeight="1">
       <c r="A19" s="3">
         <v>22</v>
       </c>
@@ -10663,7 +10658,7 @@
         <v>1862</v>
       </c>
     </row>
-    <row r="20" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" ht="15" customHeight="1">
       <c r="A20" s="3">
         <v>22</v>
       </c>
@@ -10717,7 +10712,7 @@
         <v>1863</v>
       </c>
     </row>
-    <row r="21" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" ht="15" customHeight="1">
       <c r="A21" s="3">
         <v>22</v>
       </c>
@@ -10771,7 +10766,7 @@
         <v>1864</v>
       </c>
     </row>
-    <row r="22" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" ht="15" customHeight="1">
       <c r="A22" s="3">
         <v>8</v>
       </c>
@@ -10825,7 +10820,7 @@
         <v>2443</v>
       </c>
     </row>
-    <row r="23" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" ht="15" customHeight="1">
       <c r="A23" s="3">
         <v>22</v>
       </c>
@@ -10879,7 +10874,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="24" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" ht="15" customHeight="1">
       <c r="A24" s="3">
         <v>22</v>
       </c>
@@ -10933,7 +10928,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="25" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" ht="15" customHeight="1">
       <c r="A25" s="3">
         <v>4</v>
       </c>
@@ -10985,7 +10980,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="26" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" ht="15" customHeight="1">
       <c r="A26" s="3">
         <v>4</v>
       </c>
@@ -11037,7 +11032,7 @@
         <v>1869</v>
       </c>
     </row>
-    <row r="27" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17" ht="15" customHeight="1">
       <c r="A27" s="3">
         <v>22</v>
       </c>
@@ -11091,7 +11086,7 @@
         <v>1870</v>
       </c>
     </row>
-    <row r="28" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17" ht="15" customHeight="1">
       <c r="A28" s="3">
         <v>22</v>
       </c>
@@ -11145,7 +11140,7 @@
         <v>1871</v>
       </c>
     </row>
-    <row r="29" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:17" ht="15" customHeight="1">
       <c r="A29" s="3">
         <v>22</v>
       </c>
@@ -11199,7 +11194,7 @@
         <v>2444</v>
       </c>
     </row>
-    <row r="30" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:17" ht="15" customHeight="1">
       <c r="A30" s="3">
         <v>4</v>
       </c>
@@ -11251,7 +11246,7 @@
         <v>1873</v>
       </c>
     </row>
-    <row r="31" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:17" ht="15" customHeight="1">
       <c r="A31" s="3">
         <v>8</v>
       </c>
@@ -11305,7 +11300,7 @@
         <v>2445</v>
       </c>
     </row>
-    <row r="32" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:17" ht="15" customHeight="1">
       <c r="A32" s="3">
         <v>17</v>
       </c>
@@ -11359,7 +11354,7 @@
         <v>2446</v>
       </c>
     </row>
-    <row r="33" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:17" ht="15" customHeight="1">
       <c r="A33" s="3">
         <v>11</v>
       </c>
@@ -11411,7 +11406,7 @@
         <v>2447</v>
       </c>
     </row>
-    <row r="34" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:17" ht="15" customHeight="1">
       <c r="A34" s="3">
         <v>4</v>
       </c>
@@ -11463,7 +11458,7 @@
         <v>1877</v>
       </c>
     </row>
-    <row r="35" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:17" ht="15" customHeight="1">
       <c r="A35" s="3">
         <v>4</v>
       </c>
@@ -11515,7 +11510,7 @@
         <v>1878</v>
       </c>
     </row>
-    <row r="36" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:17" ht="15" customHeight="1">
       <c r="A36" s="3">
         <v>22</v>
       </c>
@@ -11569,7 +11564,7 @@
         <v>1879</v>
       </c>
     </row>
-    <row r="37" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:17" ht="15" customHeight="1">
       <c r="A37" s="3">
         <v>22</v>
       </c>
@@ -11623,7 +11618,7 @@
         <v>1880</v>
       </c>
     </row>
-    <row r="38" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:17" ht="15" customHeight="1">
       <c r="A38" s="3">
         <v>4</v>
       </c>
@@ -11675,7 +11670,7 @@
         <v>1881</v>
       </c>
     </row>
-    <row r="39" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:17" ht="15" customHeight="1">
       <c r="A39" s="3">
         <v>22</v>
       </c>
@@ -11729,7 +11724,7 @@
         <v>1882</v>
       </c>
     </row>
-    <row r="40" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:17" ht="15" customHeight="1">
       <c r="A40" s="3">
         <v>22</v>
       </c>
@@ -11781,7 +11776,7 @@
         <v>1883</v>
       </c>
     </row>
-    <row r="41" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:17" ht="15" customHeight="1">
       <c r="A41" s="3">
         <v>22</v>
       </c>
@@ -11835,7 +11830,7 @@
         <v>1884</v>
       </c>
     </row>
-    <row r="42" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:17" ht="15" customHeight="1">
       <c r="A42" s="3">
         <v>22</v>
       </c>
@@ -11889,7 +11884,7 @@
         <v>1885</v>
       </c>
     </row>
-    <row r="43" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:17" ht="15" customHeight="1">
       <c r="A43" s="3">
         <v>22</v>
       </c>
@@ -11943,7 +11938,7 @@
         <v>2448</v>
       </c>
     </row>
-    <row r="44" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:17" ht="15" customHeight="1">
       <c r="A44" s="3">
         <v>4</v>
       </c>
@@ -11995,7 +11990,7 @@
         <v>1887</v>
       </c>
     </row>
-    <row r="45" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:17" ht="15" customHeight="1">
       <c r="A45" s="3">
         <v>4</v>
       </c>
@@ -12047,7 +12042,7 @@
         <v>1888</v>
       </c>
     </row>
-    <row r="46" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:17" ht="15" customHeight="1">
       <c r="A46" s="3">
         <v>4</v>
       </c>
@@ -12099,7 +12094,7 @@
         <v>1889</v>
       </c>
     </row>
-    <row r="47" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:17" ht="15" customHeight="1">
       <c r="A47" s="3">
         <v>22</v>
       </c>
@@ -12153,7 +12148,7 @@
         <v>2449</v>
       </c>
     </row>
-    <row r="48" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:17" ht="15" customHeight="1">
       <c r="A48" s="3">
         <v>22</v>
       </c>
@@ -12207,7 +12202,7 @@
         <v>2450</v>
       </c>
     </row>
-    <row r="49" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:17" ht="15" customHeight="1">
       <c r="A49" s="3">
         <v>22</v>
       </c>
@@ -12261,7 +12256,7 @@
         <v>1892</v>
       </c>
     </row>
-    <row r="50" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:17" ht="15" customHeight="1">
       <c r="A50" s="3">
         <v>22</v>
       </c>
@@ -12315,7 +12310,7 @@
         <v>1893</v>
       </c>
     </row>
-    <row r="51" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:17" ht="15" customHeight="1">
       <c r="A51" s="3">
         <v>22</v>
       </c>
@@ -12369,7 +12364,7 @@
         <v>2451</v>
       </c>
     </row>
-    <row r="52" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:17" ht="15" customHeight="1">
       <c r="A52" s="3">
         <v>22</v>
       </c>
@@ -12423,7 +12418,7 @@
         <v>2452</v>
       </c>
     </row>
-    <row r="53" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:17" ht="15" customHeight="1">
       <c r="A53" s="3">
         <v>22</v>
       </c>
@@ -12475,7 +12470,7 @@
         <v>2453</v>
       </c>
     </row>
-    <row r="54" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:17" ht="15" customHeight="1">
       <c r="A54" s="3">
         <v>4</v>
       </c>
@@ -12527,7 +12522,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="55" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:17" ht="15" customHeight="1">
       <c r="A55" s="3">
         <v>4</v>
       </c>
@@ -12579,7 +12574,7 @@
         <v>1898</v>
       </c>
     </row>
-    <row r="56" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:17" ht="15" customHeight="1">
       <c r="A56" s="3">
         <v>22</v>
       </c>
@@ -12633,7 +12628,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="57" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:17" ht="15" customHeight="1">
       <c r="A57" s="3">
         <v>4</v>
       </c>
@@ -12685,7 +12680,7 @@
         <v>1900</v>
       </c>
     </row>
-    <row r="58" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:17" ht="15" customHeight="1">
       <c r="A58" s="3">
         <v>4</v>
       </c>
@@ -12737,7 +12732,7 @@
         <v>1901</v>
       </c>
     </row>
-    <row r="59" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:17" ht="15" customHeight="1">
       <c r="A59" s="3">
         <v>4</v>
       </c>
@@ -12789,7 +12784,7 @@
         <v>1902</v>
       </c>
     </row>
-    <row r="60" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:17" ht="15" customHeight="1">
       <c r="A60" s="3">
         <v>17</v>
       </c>
@@ -12841,7 +12836,7 @@
         <v>2454</v>
       </c>
     </row>
-    <row r="61" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:17" ht="15" customHeight="1">
       <c r="A61" s="3">
         <v>17</v>
       </c>
@@ -12895,7 +12890,7 @@
         <v>2455</v>
       </c>
     </row>
-    <row r="62" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:17" ht="15" customHeight="1">
       <c r="A62" s="3">
         <v>22</v>
       </c>
@@ -12949,7 +12944,7 @@
         <v>1905</v>
       </c>
     </row>
-    <row r="63" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:17" ht="15" customHeight="1">
       <c r="A63" s="3">
         <v>22</v>
       </c>
@@ -13003,7 +12998,7 @@
         <v>1906</v>
       </c>
     </row>
-    <row r="64" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:17" ht="15" customHeight="1">
       <c r="A64" s="3">
         <v>22</v>
       </c>
@@ -13057,7 +13052,7 @@
         <v>1907</v>
       </c>
     </row>
-    <row r="65" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:17" ht="15" customHeight="1">
       <c r="A65" s="3">
         <v>22</v>
       </c>
@@ -13111,7 +13106,7 @@
         <v>1908</v>
       </c>
     </row>
-    <row r="66" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:17" ht="15" customHeight="1">
       <c r="A66" s="3">
         <v>22</v>
       </c>
@@ -13165,7 +13160,7 @@
         <v>1909</v>
       </c>
     </row>
-    <row r="67" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:17" ht="15" customHeight="1">
       <c r="A67" s="3">
         <v>17</v>
       </c>
@@ -13219,7 +13214,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="68" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:17" ht="15" customHeight="1">
       <c r="A68" s="3">
         <v>17</v>
       </c>
@@ -13273,7 +13268,7 @@
         <v>2457</v>
       </c>
     </row>
-    <row r="69" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:17" ht="15" customHeight="1">
       <c r="A69" s="3">
         <v>22</v>
       </c>
@@ -13327,7 +13322,7 @@
         <v>1912</v>
       </c>
     </row>
-    <row r="70" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:17" ht="15" customHeight="1">
       <c r="A70" s="3">
         <v>4</v>
       </c>
@@ -13379,7 +13374,7 @@
         <v>1913</v>
       </c>
     </row>
-    <row r="71" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:17" ht="15" customHeight="1">
       <c r="A71" s="3">
         <v>17</v>
       </c>
@@ -13435,7 +13430,7 @@
         <v>2458</v>
       </c>
     </row>
-    <row r="72" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:17" ht="15" customHeight="1">
       <c r="A72" s="3">
         <v>4</v>
       </c>
@@ -13487,7 +13482,7 @@
         <v>1915</v>
       </c>
     </row>
-    <row r="73" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:17" ht="15" customHeight="1">
       <c r="A73" s="3">
         <v>17</v>
       </c>
@@ -13541,7 +13536,7 @@
         <v>2459</v>
       </c>
     </row>
-    <row r="74" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:17" ht="15" customHeight="1">
       <c r="A74" s="3">
         <v>4</v>
       </c>
@@ -13597,7 +13592,7 @@
         <v>1917</v>
       </c>
     </row>
-    <row r="75" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:17" ht="15" customHeight="1">
       <c r="A75" s="3">
         <v>4</v>
       </c>
@@ -13653,7 +13648,7 @@
         <v>1918</v>
       </c>
     </row>
-    <row r="76" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:17" ht="15" customHeight="1">
       <c r="A76" s="3">
         <v>4</v>
       </c>
@@ -13705,7 +13700,7 @@
         <v>1919</v>
       </c>
     </row>
-    <row r="77" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:17" ht="15" customHeight="1">
       <c r="A77" s="3">
         <v>17</v>
       </c>
@@ -13761,7 +13756,7 @@
         <v>2460</v>
       </c>
     </row>
-    <row r="78" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:17" ht="15" customHeight="1">
       <c r="A78" s="3">
         <v>17</v>
       </c>
@@ -13815,7 +13810,7 @@
         <v>2461</v>
       </c>
     </row>
-    <row r="79" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:17" ht="15" customHeight="1">
       <c r="A79" s="3">
         <v>4</v>
       </c>
@@ -13867,7 +13862,7 @@
         <v>1922</v>
       </c>
     </row>
-    <row r="80" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:17" ht="15" customHeight="1">
       <c r="A80" s="3">
         <v>4</v>
       </c>
@@ -13919,7 +13914,7 @@
         <v>1923</v>
       </c>
     </row>
-    <row r="81" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:17" ht="15" customHeight="1">
       <c r="A81" s="3">
         <v>17</v>
       </c>
@@ -13973,7 +13968,7 @@
         <v>2462</v>
       </c>
     </row>
-    <row r="82" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:17" ht="15" customHeight="1">
       <c r="A82" s="3">
         <v>17</v>
       </c>
@@ -14027,7 +14022,7 @@
         <v>2463</v>
       </c>
     </row>
-    <row r="83" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:17" ht="15" customHeight="1">
       <c r="A83" s="3">
         <v>4</v>
       </c>
@@ -14079,7 +14074,7 @@
         <v>1926</v>
       </c>
     </row>
-    <row r="84" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:17" ht="15" customHeight="1">
       <c r="A84" s="3">
         <v>4</v>
       </c>
@@ -14131,7 +14126,7 @@
         <v>1927</v>
       </c>
     </row>
-    <row r="85" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:17" ht="15" customHeight="1">
       <c r="A85" s="3">
         <v>4</v>
       </c>
@@ -14183,7 +14178,7 @@
         <v>1928</v>
       </c>
     </row>
-    <row r="86" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:17" ht="15" customHeight="1">
       <c r="A86" s="3">
         <v>17</v>
       </c>
@@ -14237,7 +14232,7 @@
         <v>2464</v>
       </c>
     </row>
-    <row r="87" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:17" ht="15" customHeight="1">
       <c r="A87" s="3">
         <v>4</v>
       </c>
@@ -14289,7 +14284,7 @@
         <v>1930</v>
       </c>
     </row>
-    <row r="88" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:17" ht="15" customHeight="1">
       <c r="A88" s="3">
         <v>22</v>
       </c>
@@ -14343,7 +14338,7 @@
         <v>1931</v>
       </c>
     </row>
-    <row r="89" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:17" ht="15" customHeight="1">
       <c r="A89" s="3">
         <v>22</v>
       </c>
@@ -14397,7 +14392,7 @@
         <v>1932</v>
       </c>
     </row>
-    <row r="90" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:17" ht="15" customHeight="1">
       <c r="A90" s="3">
         <v>4</v>
       </c>
@@ -14449,7 +14444,7 @@
         <v>1933</v>
       </c>
     </row>
-    <row r="91" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:17" ht="15" customHeight="1">
       <c r="A91" s="3">
         <v>12</v>
       </c>
@@ -14503,7 +14498,7 @@
         <v>2465</v>
       </c>
     </row>
-    <row r="92" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:17" ht="15" customHeight="1">
       <c r="A92" s="3">
         <v>16</v>
       </c>
@@ -14557,7 +14552,7 @@
         <v>2466</v>
       </c>
     </row>
-    <row r="93" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:17" ht="15" customHeight="1">
       <c r="A93" s="3">
         <v>16</v>
       </c>
@@ -14611,7 +14606,7 @@
         <v>2467</v>
       </c>
     </row>
-    <row r="94" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:17" ht="15" customHeight="1">
       <c r="A94" s="3">
         <v>13</v>
       </c>
@@ -14663,7 +14658,7 @@
         <v>2468</v>
       </c>
     </row>
-    <row r="95" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:17" ht="15" customHeight="1">
       <c r="A95" s="3">
         <v>15</v>
       </c>
@@ -14717,7 +14712,7 @@
         <v>2469</v>
       </c>
     </row>
-    <row r="96" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:17" ht="15" customHeight="1">
       <c r="A96" s="3">
         <v>22</v>
       </c>
@@ -14771,7 +14766,7 @@
         <v>1939</v>
       </c>
     </row>
-    <row r="97" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:17" ht="15" customHeight="1">
       <c r="A97" s="3">
         <v>22</v>
       </c>
@@ -14825,7 +14820,7 @@
         <v>1940</v>
       </c>
     </row>
-    <row r="98" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:17" ht="15" customHeight="1">
       <c r="A98" s="3">
         <v>15</v>
       </c>
@@ -14879,7 +14874,7 @@
         <v>2470</v>
       </c>
     </row>
-    <row r="99" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:17" ht="15" customHeight="1">
       <c r="A99" s="3">
         <v>22</v>
       </c>
@@ -14933,7 +14928,7 @@
         <v>1942</v>
       </c>
     </row>
-    <row r="100" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:17" ht="15" customHeight="1">
       <c r="A100" s="3">
         <v>22</v>
       </c>
@@ -14987,7 +14982,7 @@
         <v>1943</v>
       </c>
     </row>
-    <row r="101" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:17" ht="15" customHeight="1">
       <c r="A101" s="3">
         <v>22</v>
       </c>
@@ -15041,7 +15036,7 @@
         <v>1944</v>
       </c>
     </row>
-    <row r="102" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:17" ht="15" customHeight="1">
       <c r="A102" s="3">
         <v>22</v>
       </c>
@@ -15095,7 +15090,7 @@
         <v>1945</v>
       </c>
     </row>
-    <row r="103" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:17" ht="15" customHeight="1">
       <c r="A103" s="3">
         <v>22</v>
       </c>
@@ -15149,7 +15144,7 @@
         <v>1946</v>
       </c>
     </row>
-    <row r="104" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:17" ht="15" customHeight="1">
       <c r="A104" s="3">
         <v>4</v>
       </c>
@@ -15205,7 +15200,7 @@
         <v>1947</v>
       </c>
     </row>
-    <row r="105" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:17" ht="15" customHeight="1">
       <c r="A105" s="3">
         <v>4</v>
       </c>
@@ -15261,7 +15256,7 @@
         <v>2471</v>
       </c>
     </row>
-    <row r="106" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:17" ht="15" customHeight="1">
       <c r="A106" s="3">
         <v>22</v>
       </c>
@@ -15315,7 +15310,7 @@
         <v>1949</v>
       </c>
     </row>
-    <row r="107" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:17" ht="15" customHeight="1">
       <c r="A107" s="3">
         <v>15</v>
       </c>
@@ -15369,7 +15364,7 @@
         <v>2472</v>
       </c>
     </row>
-    <row r="108" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:17" ht="15" customHeight="1">
       <c r="A108" s="3">
         <v>22</v>
       </c>
@@ -15421,7 +15416,7 @@
         <v>1951</v>
       </c>
     </row>
-    <row r="109" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:17" ht="15" customHeight="1">
       <c r="A109" s="3">
         <v>4</v>
       </c>
@@ -15470,7 +15465,7 @@
         <v>2473</v>
       </c>
     </row>
-    <row r="110" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:17" ht="15" customHeight="1">
       <c r="A110" s="3">
         <v>4</v>
       </c>
@@ -15522,7 +15517,7 @@
         <v>1953</v>
       </c>
     </row>
-    <row r="111" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:17" ht="15" customHeight="1">
       <c r="A111" s="3">
         <v>15</v>
       </c>
@@ -15576,7 +15571,7 @@
         <v>2474</v>
       </c>
     </row>
-    <row r="112" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:17" ht="15" customHeight="1">
       <c r="A112" s="3">
         <v>4</v>
       </c>
@@ -15628,7 +15623,7 @@
         <v>1955</v>
       </c>
     </row>
-    <row r="113" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:17" ht="15" customHeight="1">
       <c r="A113" s="3">
         <v>4</v>
       </c>
@@ -15680,7 +15675,7 @@
         <v>1956</v>
       </c>
     </row>
-    <row r="114" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:17" ht="15" customHeight="1">
       <c r="A114" s="3">
         <v>22</v>
       </c>
@@ -15734,7 +15729,7 @@
         <v>1957</v>
       </c>
     </row>
-    <row r="115" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:17" ht="15" customHeight="1">
       <c r="A115" s="3">
         <v>22</v>
       </c>
@@ -15788,7 +15783,7 @@
         <v>1958</v>
       </c>
     </row>
-    <row r="116" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:17" ht="15" customHeight="1">
       <c r="A116" s="3">
         <v>4</v>
       </c>
@@ -15840,7 +15835,7 @@
         <v>1959</v>
       </c>
     </row>
-    <row r="117" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:17" ht="15" customHeight="1">
       <c r="A117" s="3">
         <v>4</v>
       </c>
@@ -15892,7 +15887,7 @@
         <v>1960</v>
       </c>
     </row>
-    <row r="118" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:17" ht="15" customHeight="1">
       <c r="A118" s="3">
         <v>15</v>
       </c>
@@ -15946,7 +15941,7 @@
         <v>2475</v>
       </c>
     </row>
-    <row r="119" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:17" ht="15" customHeight="1">
       <c r="A119" s="3">
         <v>4</v>
       </c>
@@ -15998,7 +15993,7 @@
         <v>1962</v>
       </c>
     </row>
-    <row r="120" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:17" ht="15" customHeight="1">
       <c r="A120" s="3">
         <v>15</v>
       </c>
@@ -16052,7 +16047,7 @@
         <v>2476</v>
       </c>
     </row>
-    <row r="121" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:17" ht="15" customHeight="1">
       <c r="A121" s="3">
         <v>4</v>
       </c>
@@ -16104,7 +16099,7 @@
         <v>1964</v>
       </c>
     </row>
-    <row r="122" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:17" ht="15" customHeight="1">
       <c r="A122" s="3">
         <v>4</v>
       </c>
@@ -16156,7 +16151,7 @@
         <v>1965</v>
       </c>
     </row>
-    <row r="123" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:17" ht="15" customHeight="1">
       <c r="A123" s="3">
         <v>22</v>
       </c>
@@ -16210,7 +16205,7 @@
         <v>1966</v>
       </c>
     </row>
-    <row r="124" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:17" ht="15" customHeight="1">
       <c r="A124" s="3">
         <v>22</v>
       </c>
@@ -16264,7 +16259,7 @@
         <v>2477</v>
       </c>
     </row>
-    <row r="125" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:17" ht="15" customHeight="1">
       <c r="A125" s="3">
         <v>15</v>
       </c>
@@ -16318,7 +16313,7 @@
         <v>2478</v>
       </c>
     </row>
-    <row r="126" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:17" ht="15" customHeight="1">
       <c r="A126" s="3">
         <v>22</v>
       </c>
@@ -16372,7 +16367,7 @@
         <v>2479</v>
       </c>
     </row>
-    <row r="127" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:17" ht="15" customHeight="1">
       <c r="A127" s="3">
         <v>22</v>
       </c>
@@ -16426,7 +16421,7 @@
         <v>1970</v>
       </c>
     </row>
-    <row r="128" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:17" ht="15" customHeight="1">
       <c r="A128" s="3">
         <v>22</v>
       </c>
@@ -16480,7 +16475,7 @@
         <v>1971</v>
       </c>
     </row>
-    <row r="129" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:17" ht="15" customHeight="1">
       <c r="A129" s="3">
         <v>22</v>
       </c>
@@ -16534,7 +16529,7 @@
         <v>1972</v>
       </c>
     </row>
-    <row r="130" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:17" ht="15" customHeight="1">
       <c r="A130" s="3">
         <v>22</v>
       </c>
@@ -16588,7 +16583,7 @@
         <v>1973</v>
       </c>
     </row>
-    <row r="131" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:17" ht="15" customHeight="1">
       <c r="A131" s="3">
         <v>4</v>
       </c>
@@ -16640,7 +16635,7 @@
         <v>1974</v>
       </c>
     </row>
-    <row r="132" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:17" ht="15" customHeight="1">
       <c r="A132" s="3">
         <v>4</v>
       </c>
@@ -16692,7 +16687,7 @@
         <v>1975</v>
       </c>
     </row>
-    <row r="133" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:17" ht="15" customHeight="1">
       <c r="A133" s="3">
         <v>15</v>
       </c>
@@ -16746,7 +16741,7 @@
         <v>2480</v>
       </c>
     </row>
-    <row r="134" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:17" ht="15" customHeight="1">
       <c r="A134" s="3">
         <v>3</v>
       </c>
@@ -16800,7 +16795,7 @@
         <v>2481</v>
       </c>
     </row>
-    <row r="135" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:17" ht="15" customHeight="1">
       <c r="A135" s="3">
         <v>3</v>
       </c>
@@ -16849,7 +16844,7 @@
         <v>2482</v>
       </c>
     </row>
-    <row r="136" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:17" ht="15" customHeight="1">
       <c r="A136" s="3">
         <v>3</v>
       </c>
@@ -16901,7 +16896,7 @@
         <v>2483</v>
       </c>
     </row>
-    <row r="137" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:17" ht="15" customHeight="1">
       <c r="A137" s="3">
         <v>3</v>
       </c>
@@ -16955,7 +16950,7 @@
         <v>2484</v>
       </c>
     </row>
-    <row r="138" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:17" ht="15" customHeight="1">
       <c r="A138" s="3">
         <v>22</v>
       </c>
@@ -17009,7 +17004,7 @@
         <v>1981</v>
       </c>
     </row>
-    <row r="139" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:17" ht="15" customHeight="1">
       <c r="A139" s="3">
         <v>22</v>
       </c>
@@ -17063,7 +17058,7 @@
         <v>2485</v>
       </c>
     </row>
-    <row r="140" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:17" ht="15" customHeight="1">
       <c r="A140" s="3">
         <v>22</v>
       </c>
@@ -17117,7 +17112,7 @@
         <v>2486</v>
       </c>
     </row>
-    <row r="141" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:17" ht="15" customHeight="1">
       <c r="A141" s="3">
         <v>4</v>
       </c>
@@ -17169,7 +17164,7 @@
         <v>1984</v>
       </c>
     </row>
-    <row r="142" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:17" ht="15" customHeight="1">
       <c r="A142" s="3">
         <v>22</v>
       </c>
@@ -17223,7 +17218,7 @@
         <v>1985</v>
       </c>
     </row>
-    <row r="143" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:17" ht="15" customHeight="1">
       <c r="A143" s="3">
         <v>22</v>
       </c>
@@ -17277,7 +17272,7 @@
         <v>1986</v>
       </c>
     </row>
-    <row r="144" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:17" ht="15" customHeight="1">
       <c r="A144" s="3">
         <v>4</v>
       </c>
@@ -17329,7 +17324,7 @@
         <v>2487</v>
       </c>
     </row>
-    <row r="145" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:17" ht="15" customHeight="1">
       <c r="A145" s="3">
         <v>4</v>
       </c>
@@ -17381,7 +17376,7 @@
         <v>1988</v>
       </c>
     </row>
-    <row r="146" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:17" ht="15" customHeight="1">
       <c r="A146" s="3">
         <v>4</v>
       </c>
@@ -17433,7 +17428,7 @@
         <v>1989</v>
       </c>
     </row>
-    <row r="147" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:17" ht="15" customHeight="1">
       <c r="A147" s="3">
         <v>3</v>
       </c>
@@ -17487,7 +17482,7 @@
         <v>1990</v>
       </c>
     </row>
-    <row r="148" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:17" ht="15" customHeight="1">
       <c r="A148" s="3">
         <v>4</v>
       </c>
@@ -17536,7 +17531,7 @@
         <v>2488</v>
       </c>
     </row>
-    <row r="149" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:17" ht="15" customHeight="1">
       <c r="A149" s="3">
         <v>4</v>
       </c>
@@ -17588,7 +17583,7 @@
         <v>1992</v>
       </c>
     </row>
-    <row r="150" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:17" ht="15" customHeight="1">
       <c r="A150" s="3">
         <v>4</v>
       </c>
@@ -17640,7 +17635,7 @@
         <v>2489</v>
       </c>
     </row>
-    <row r="151" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:17" ht="15" customHeight="1">
       <c r="A151" s="3">
         <v>4</v>
       </c>
@@ -17692,7 +17687,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="152" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:17" ht="15" customHeight="1">
       <c r="A152" s="3">
         <v>22</v>
       </c>
@@ -17746,7 +17741,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="153" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:17" ht="15" customHeight="1">
       <c r="A153" s="3">
         <v>22</v>
       </c>
@@ -17800,7 +17795,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="154" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:17" ht="15" customHeight="1">
       <c r="A154" s="3">
         <v>22</v>
       </c>
@@ -17854,7 +17849,7 @@
         <v>1997</v>
       </c>
     </row>
-    <row r="155" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:17" ht="15" customHeight="1">
       <c r="A155" s="3">
         <v>4</v>
       </c>
@@ -17903,7 +17898,7 @@
         <v>1998</v>
       </c>
     </row>
-    <row r="156" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:17" ht="15" customHeight="1">
       <c r="A156" s="3">
         <v>3</v>
       </c>
@@ -17957,7 +17952,7 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="157" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:17" ht="15" customHeight="1">
       <c r="A157" s="3">
         <v>22</v>
       </c>
@@ -18011,7 +18006,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="158" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:17" ht="15" customHeight="1">
       <c r="A158" s="3">
         <v>3</v>
       </c>
@@ -18065,7 +18060,7 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="159" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:17" ht="15" customHeight="1">
       <c r="A159" s="3">
         <v>4</v>
       </c>
@@ -18117,7 +18112,7 @@
         <v>2490</v>
       </c>
     </row>
-    <row r="160" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:17" ht="15" customHeight="1">
       <c r="A160" s="3">
         <v>44</v>
       </c>
@@ -18171,7 +18166,7 @@
         <v>2491</v>
       </c>
     </row>
-    <row r="161" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:17" ht="15" customHeight="1">
       <c r="A161" s="3">
         <v>4</v>
       </c>
@@ -18225,7 +18220,7 @@
         <v>2004</v>
       </c>
     </row>
-    <row r="162" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:17" ht="15" customHeight="1">
       <c r="A162" s="3">
         <v>22</v>
       </c>
@@ -18279,7 +18274,7 @@
         <v>2005</v>
       </c>
     </row>
-    <row r="163" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:17" ht="15" customHeight="1">
       <c r="A163" s="3">
         <v>44</v>
       </c>
@@ -18333,7 +18328,7 @@
         <v>2492</v>
       </c>
     </row>
-    <row r="164" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:17" ht="15" customHeight="1">
       <c r="A164" s="3">
         <v>4</v>
       </c>
@@ -18385,7 +18380,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="165" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:17" ht="15" customHeight="1">
       <c r="A165" s="3">
         <v>44</v>
       </c>
@@ -18437,7 +18432,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="166" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:17" ht="15" customHeight="1">
       <c r="A166" s="3">
         <v>4</v>
       </c>
@@ -18489,7 +18484,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="167" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:17" ht="15" customHeight="1">
       <c r="A167" s="3">
         <v>4</v>
       </c>
@@ -18541,7 +18536,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="168" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:17" ht="15" customHeight="1">
       <c r="A168" s="3">
         <v>22</v>
       </c>
@@ -18595,7 +18590,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="169" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:17" ht="15" customHeight="1">
       <c r="A169" s="3">
         <v>44</v>
       </c>
@@ -18649,7 +18644,7 @@
         <v>2493</v>
       </c>
     </row>
-    <row r="170" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:17" ht="15" customHeight="1">
       <c r="A170" s="3">
         <v>22</v>
       </c>
@@ -18703,7 +18698,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="171" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:17" ht="15" customHeight="1">
       <c r="A171" s="3">
         <v>4</v>
       </c>
@@ -18755,7 +18750,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="172" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:17" ht="15" customHeight="1">
       <c r="A172" s="3">
         <v>4</v>
       </c>
@@ -18807,7 +18802,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="173" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:17" ht="15" customHeight="1">
       <c r="A173" s="3">
         <v>4</v>
       </c>
@@ -18859,7 +18854,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="174" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:17" ht="15" customHeight="1">
       <c r="A174" s="3">
         <v>4</v>
       </c>
@@ -18911,7 +18906,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="175" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:17" ht="15" customHeight="1">
       <c r="A175" s="3">
         <v>44</v>
       </c>
@@ -18965,7 +18960,7 @@
         <v>2494</v>
       </c>
     </row>
-    <row r="176" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:17" ht="15" customHeight="1">
       <c r="A176" s="3">
         <v>44</v>
       </c>
@@ -19019,7 +19014,7 @@
         <v>2495</v>
       </c>
     </row>
-    <row r="177" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:17" ht="15" customHeight="1">
       <c r="A177" s="3">
         <v>44</v>
       </c>
@@ -19073,7 +19068,7 @@
         <v>2496</v>
       </c>
     </row>
-    <row r="178" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:17" ht="15" customHeight="1">
       <c r="A178" s="3">
         <v>44</v>
       </c>
@@ -19127,7 +19122,7 @@
         <v>2497</v>
       </c>
     </row>
-    <row r="179" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:17" ht="15" customHeight="1">
       <c r="A179" s="3">
         <v>44</v>
       </c>
@@ -19181,7 +19176,7 @@
         <v>2498</v>
       </c>
     </row>
-    <row r="180" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:17" ht="15" customHeight="1">
       <c r="A180" s="3">
         <v>44</v>
       </c>
@@ -19235,7 +19230,7 @@
         <v>2499</v>
       </c>
     </row>
-    <row r="181" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:17" ht="15" customHeight="1">
       <c r="A181" s="3">
         <v>12</v>
       </c>
@@ -19289,7 +19284,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="182" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:17" ht="15" customHeight="1">
       <c r="A182" s="3">
         <v>12</v>
       </c>
@@ -19343,7 +19338,7 @@
         <v>2501</v>
       </c>
     </row>
-    <row r="183" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:17" ht="15" customHeight="1">
       <c r="A183" s="3">
         <v>12</v>
       </c>
@@ -19397,7 +19392,7 @@
         <v>2502</v>
       </c>
     </row>
-    <row r="184" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:17" ht="15" customHeight="1">
       <c r="A184" s="3">
         <v>4</v>
       </c>
@@ -19449,7 +19444,7 @@
         <v>2027</v>
       </c>
     </row>
-    <row r="185" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:17" ht="15" customHeight="1">
       <c r="A185" s="3">
         <v>4</v>
       </c>
@@ -19501,7 +19496,7 @@
         <v>2028</v>
       </c>
     </row>
-    <row r="186" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:17" ht="15" customHeight="1">
       <c r="A186" s="3">
         <v>12</v>
       </c>
@@ -19555,7 +19550,7 @@
         <v>2503</v>
       </c>
     </row>
-    <row r="187" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:17" ht="15" customHeight="1">
       <c r="A187" s="3">
         <v>12</v>
       </c>
@@ -19611,7 +19606,7 @@
         <v>2504</v>
       </c>
     </row>
-    <row r="188" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:17" ht="15" customHeight="1">
       <c r="A188" s="3">
         <v>12</v>
       </c>
@@ -19667,7 +19662,7 @@
         <v>2505</v>
       </c>
     </row>
-    <row r="189" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:17" ht="15" customHeight="1">
       <c r="A189" s="3">
         <v>4</v>
       </c>
@@ -19719,7 +19714,7 @@
         <v>2032</v>
       </c>
     </row>
-    <row r="190" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:17" ht="15" customHeight="1">
       <c r="A190" s="3">
         <v>6</v>
       </c>
@@ -19775,7 +19770,7 @@
         <v>2033</v>
       </c>
     </row>
-    <row r="191" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:17" ht="15" customHeight="1">
       <c r="A191" s="3">
         <v>4</v>
       </c>
@@ -19824,7 +19819,7 @@
         <v>2034</v>
       </c>
     </row>
-    <row r="192" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:17" ht="15" customHeight="1">
       <c r="A192" s="3">
         <v>22</v>
       </c>
@@ -19878,7 +19873,7 @@
         <v>2035</v>
       </c>
     </row>
-    <row r="193" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:17" ht="15" customHeight="1">
       <c r="A193" s="3">
         <v>22</v>
       </c>
@@ -19932,7 +19927,7 @@
         <v>2036</v>
       </c>
     </row>
-    <row r="194" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:17" ht="15" customHeight="1">
       <c r="A194" s="3">
         <v>22</v>
       </c>
@@ -19986,7 +19981,7 @@
         <v>2037</v>
       </c>
     </row>
-    <row r="195" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:17" ht="15" customHeight="1">
       <c r="A195" s="3">
         <v>22</v>
       </c>
@@ -20040,7 +20035,7 @@
         <v>2506</v>
       </c>
     </row>
-    <row r="196" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:17" ht="15" customHeight="1">
       <c r="A196" s="3">
         <v>22</v>
       </c>
@@ -20094,7 +20089,7 @@
         <v>2039</v>
       </c>
     </row>
-    <row r="197" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:17" ht="15" customHeight="1">
       <c r="A197" s="3">
         <v>6</v>
       </c>
@@ -20150,7 +20145,7 @@
         <v>2040</v>
       </c>
     </row>
-    <row r="198" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:17" ht="15" customHeight="1">
       <c r="A198" s="3">
         <v>43</v>
       </c>
@@ -20204,7 +20199,7 @@
         <v>2507</v>
       </c>
     </row>
-    <row r="199" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:17" ht="15" customHeight="1">
       <c r="A199" s="3">
         <v>22</v>
       </c>
@@ -20258,7 +20253,7 @@
         <v>2042</v>
       </c>
     </row>
-    <row r="200" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:17" ht="15" customHeight="1">
       <c r="A200" s="3">
         <v>22</v>
       </c>
@@ -20312,7 +20307,7 @@
         <v>2043</v>
       </c>
     </row>
-    <row r="201" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:17" ht="15" customHeight="1">
       <c r="A201" s="3">
         <v>43</v>
       </c>
@@ -20364,7 +20359,7 @@
         <v>2508</v>
       </c>
     </row>
-    <row r="202" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:17" ht="15" customHeight="1">
       <c r="A202" s="3">
         <v>43</v>
       </c>
@@ -20416,7 +20411,7 @@
         <v>2509</v>
       </c>
     </row>
-    <row r="203" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:17" ht="15" customHeight="1">
       <c r="A203" s="3">
         <v>43</v>
       </c>
@@ -20470,7 +20465,7 @@
         <v>2510</v>
       </c>
     </row>
-    <row r="204" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:17" ht="15" customHeight="1">
       <c r="A204" s="3">
         <v>43</v>
       </c>
@@ -20524,7 +20519,7 @@
         <v>2511</v>
       </c>
     </row>
-    <row r="205" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:17" ht="15" customHeight="1">
       <c r="A205" s="3">
         <v>22</v>
       </c>
@@ -20578,7 +20573,7 @@
         <v>2048</v>
       </c>
     </row>
-    <row r="206" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:17" ht="15" customHeight="1">
       <c r="A206" s="3">
         <v>4</v>
       </c>
@@ -20634,7 +20629,7 @@
         <v>2049</v>
       </c>
     </row>
-    <row r="207" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:17" ht="15" customHeight="1">
       <c r="A207" s="3">
         <v>4</v>
       </c>
@@ -20686,7 +20681,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="208" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:17" ht="15" customHeight="1">
       <c r="A208" s="3">
         <v>43</v>
       </c>
@@ -20740,7 +20735,7 @@
         <v>2512</v>
       </c>
     </row>
-    <row r="209" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:17" ht="15" customHeight="1">
       <c r="A209" s="3">
         <v>43</v>
       </c>
@@ -20794,7 +20789,7 @@
         <v>2513</v>
       </c>
     </row>
-    <row r="210" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:17" ht="15" customHeight="1">
       <c r="A210" s="3">
         <v>4</v>
       </c>
@@ -20846,7 +20841,7 @@
         <v>2053</v>
       </c>
     </row>
-    <row r="211" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:17" ht="15" customHeight="1">
       <c r="A211" s="3">
         <v>22</v>
       </c>
@@ -20900,7 +20895,7 @@
         <v>2054</v>
       </c>
     </row>
-    <row r="212" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:17" ht="15" customHeight="1">
       <c r="A212" s="3">
         <v>43</v>
       </c>
@@ -20954,7 +20949,7 @@
         <v>2514</v>
       </c>
     </row>
-    <row r="213" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:17" ht="15" customHeight="1">
       <c r="A213" s="3">
         <v>22</v>
       </c>
@@ -21008,7 +21003,7 @@
         <v>2056</v>
       </c>
     </row>
-    <row r="214" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:17" ht="15" customHeight="1">
       <c r="A214" s="3">
         <v>43</v>
       </c>
@@ -21060,7 +21055,7 @@
         <v>2515</v>
       </c>
     </row>
-    <row r="215" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:17" ht="15" customHeight="1">
       <c r="A215" s="3">
         <v>43</v>
       </c>
@@ -21112,7 +21107,7 @@
         <v>2516</v>
       </c>
     </row>
-    <row r="216" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:17" ht="15" customHeight="1">
       <c r="A216" s="3">
         <v>8</v>
       </c>
@@ -21166,7 +21161,7 @@
         <v>2517</v>
       </c>
     </row>
-    <row r="217" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:17" ht="15" customHeight="1">
       <c r="A217" s="3">
         <v>11</v>
       </c>
@@ -21218,7 +21213,7 @@
         <v>2060</v>
       </c>
     </row>
-    <row r="218" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:17" ht="15" customHeight="1">
       <c r="A218" s="3">
         <v>8</v>
       </c>
@@ -21272,7 +21267,7 @@
         <v>2518</v>
       </c>
     </row>
-    <row r="219" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:17" ht="15" customHeight="1">
       <c r="A219" s="3">
         <v>8</v>
       </c>
@@ -21326,7 +21321,7 @@
         <v>2519</v>
       </c>
     </row>
-    <row r="220" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:17" ht="15" customHeight="1">
       <c r="A220" s="3">
         <v>8</v>
       </c>
@@ -21380,7 +21375,7 @@
         <v>2520</v>
       </c>
     </row>
-    <row r="221" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:17" ht="15" customHeight="1">
       <c r="A221" s="3">
         <v>8</v>
       </c>
@@ -21434,7 +21429,7 @@
         <v>2521</v>
       </c>
     </row>
-    <row r="222" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:17" ht="15" customHeight="1">
       <c r="A222" s="3">
         <v>7</v>
       </c>
@@ -21488,7 +21483,7 @@
         <v>2522</v>
       </c>
     </row>
-    <row r="223" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:17" ht="15" customHeight="1">
       <c r="A223" s="3">
         <v>7</v>
       </c>
@@ -21540,7 +21535,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="224" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:17" ht="15" customHeight="1">
       <c r="A224" s="3">
         <v>7</v>
       </c>
@@ -21594,7 +21589,7 @@
         <v>2524</v>
       </c>
     </row>
-    <row r="225" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:17" ht="15" customHeight="1">
       <c r="A225" s="3">
         <v>7</v>
       </c>
@@ -21648,7 +21643,7 @@
         <v>2525</v>
       </c>
     </row>
-    <row r="226" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:17" ht="15" customHeight="1">
       <c r="A226" s="3">
         <v>7</v>
       </c>
@@ -21702,7 +21697,7 @@
         <v>2069</v>
       </c>
     </row>
-    <row r="227" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:17" ht="15" customHeight="1">
       <c r="A227" s="3">
         <v>7</v>
       </c>
@@ -21756,7 +21751,7 @@
         <v>2526</v>
       </c>
     </row>
-    <row r="228" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:17" ht="15" customHeight="1">
       <c r="A228" s="3">
         <v>7</v>
       </c>
@@ -21808,7 +21803,7 @@
         <v>2071</v>
       </c>
     </row>
-    <row r="229" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:17" ht="15" customHeight="1">
       <c r="A229" s="3">
         <v>7</v>
       </c>
@@ -21862,7 +21857,7 @@
         <v>2527</v>
       </c>
     </row>
-    <row r="230" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:17" ht="15" customHeight="1">
       <c r="A230" s="3">
         <v>7</v>
       </c>
@@ -21916,7 +21911,7 @@
         <v>2528</v>
       </c>
     </row>
-    <row r="231" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:17" ht="15" customHeight="1">
       <c r="A231" s="3">
         <v>7</v>
       </c>
@@ -21970,7 +21965,7 @@
         <v>2529</v>
       </c>
     </row>
-    <row r="232" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:17" ht="15" customHeight="1">
       <c r="A232" s="3">
         <v>7</v>
       </c>
@@ -22024,7 +22019,7 @@
         <v>2530</v>
       </c>
     </row>
-    <row r="233" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:17" ht="15" customHeight="1">
       <c r="A233" s="3">
         <v>8</v>
       </c>
@@ -22078,7 +22073,7 @@
         <v>2076</v>
       </c>
     </row>
-    <row r="234" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:17" ht="15" customHeight="1">
       <c r="A234" s="3">
         <v>8</v>
       </c>
@@ -22132,7 +22127,7 @@
         <v>2531</v>
       </c>
     </row>
-    <row r="235" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:17" ht="15" customHeight="1">
       <c r="A235" s="3">
         <v>8</v>
       </c>
@@ -22186,7 +22181,7 @@
         <v>2532</v>
       </c>
     </row>
-    <row r="236" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:17" ht="15" customHeight="1">
       <c r="A236" s="3">
         <v>8</v>
       </c>
@@ -22240,7 +22235,7 @@
         <v>2533</v>
       </c>
     </row>
-    <row r="237" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:17" ht="15" customHeight="1">
       <c r="A237" s="3">
         <v>8</v>
       </c>
@@ -22294,7 +22289,7 @@
         <v>2080</v>
       </c>
     </row>
-    <row r="238" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:17" ht="15" customHeight="1">
       <c r="A238" s="3">
         <v>14</v>
       </c>
@@ -22348,7 +22343,7 @@
         <v>2534</v>
       </c>
     </row>
-    <row r="239" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:17" ht="15" customHeight="1">
       <c r="A239" s="3">
         <v>12</v>
       </c>
@@ -22402,7 +22397,7 @@
         <v>2535</v>
       </c>
     </row>
-    <row r="240" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:17" ht="15" customHeight="1">
       <c r="A240" s="3">
         <v>12</v>
       </c>
@@ -22456,7 +22451,7 @@
         <v>2536</v>
       </c>
     </row>
-    <row r="241" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:17" ht="15" customHeight="1">
       <c r="A241" s="3">
         <v>8</v>
       </c>
@@ -22510,7 +22505,7 @@
         <v>2537</v>
       </c>
     </row>
-    <row r="242" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:17" ht="15" customHeight="1">
       <c r="A242" s="3">
         <v>8</v>
       </c>
@@ -22564,7 +22559,7 @@
         <v>2538</v>
       </c>
     </row>
-    <row r="243" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:17" ht="15" customHeight="1">
       <c r="A243" s="3">
         <v>8</v>
       </c>
@@ -22618,7 +22613,7 @@
         <v>2539</v>
       </c>
     </row>
-    <row r="244" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:17" ht="15" customHeight="1">
       <c r="A244" s="3">
         <v>8</v>
       </c>
@@ -22672,7 +22667,7 @@
         <v>2087</v>
       </c>
     </row>
-    <row r="245" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:17" ht="15" customHeight="1">
       <c r="A245" s="3">
         <v>8</v>
       </c>
@@ -22726,7 +22721,7 @@
         <v>2540</v>
       </c>
     </row>
-    <row r="246" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:17" ht="15" customHeight="1">
       <c r="A246" s="3">
         <v>8</v>
       </c>
@@ -22780,7 +22775,7 @@
         <v>2541</v>
       </c>
     </row>
-    <row r="247" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:17" ht="15" customHeight="1">
       <c r="A247" s="3">
         <v>8</v>
       </c>
@@ -22834,7 +22829,7 @@
         <v>2542</v>
       </c>
     </row>
-    <row r="248" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:17" ht="15" customHeight="1">
       <c r="A248" s="3">
         <v>11</v>
       </c>
@@ -22886,7 +22881,7 @@
         <v>2543</v>
       </c>
     </row>
-    <row r="249" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:17" ht="15" customHeight="1">
       <c r="A249" s="3">
         <v>8</v>
       </c>
@@ -22940,7 +22935,7 @@
         <v>2544</v>
       </c>
     </row>
-    <row r="250" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:17" ht="15" customHeight="1">
       <c r="A250" s="3">
         <v>8</v>
       </c>
@@ -22994,7 +22989,7 @@
         <v>2545</v>
       </c>
     </row>
-    <row r="251" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:17" ht="15" customHeight="1">
       <c r="A251" s="3">
         <v>11</v>
       </c>
@@ -23046,7 +23041,7 @@
         <v>2546</v>
       </c>
     </row>
-    <row r="252" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:17" ht="15" customHeight="1">
       <c r="A252" s="3">
         <v>8</v>
       </c>
@@ -23098,7 +23093,7 @@
         <v>2547</v>
       </c>
     </row>
-    <row r="253" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:17" ht="15" customHeight="1">
       <c r="A253" s="3">
         <v>8</v>
       </c>
@@ -23152,7 +23147,7 @@
         <v>2548</v>
       </c>
     </row>
-    <row r="254" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:17" ht="15" customHeight="1">
       <c r="A254" s="3">
         <v>14</v>
       </c>
@@ -23206,7 +23201,7 @@
         <v>2549</v>
       </c>
     </row>
-    <row r="255" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:17" ht="15" customHeight="1">
       <c r="A255" s="3">
         <v>11</v>
       </c>
@@ -23260,7 +23255,7 @@
         <v>2550</v>
       </c>
     </row>
-    <row r="256" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:17" ht="15" customHeight="1">
       <c r="A256" s="3">
         <v>8</v>
       </c>
@@ -23314,7 +23309,7 @@
         <v>2551</v>
       </c>
     </row>
-    <row r="257" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:17" ht="15" customHeight="1">
       <c r="A257" s="3">
         <v>8</v>
       </c>
@@ -23366,7 +23361,7 @@
         <v>2552</v>
       </c>
     </row>
-    <row r="258" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:17" ht="15" customHeight="1">
       <c r="A258" s="3">
         <v>8</v>
       </c>
@@ -23418,7 +23413,7 @@
         <v>2553</v>
       </c>
     </row>
-    <row r="259" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:17" ht="15" customHeight="1">
       <c r="A259" s="3">
         <v>8</v>
       </c>
@@ -23474,7 +23469,7 @@
         <v>2554</v>
       </c>
     </row>
-    <row r="260" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:17" ht="15" customHeight="1">
       <c r="A260" s="3">
         <v>13</v>
       </c>
@@ -23528,7 +23523,7 @@
         <v>2555</v>
       </c>
     </row>
-    <row r="261" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:17" ht="15" customHeight="1">
       <c r="A261" s="3">
         <v>13</v>
       </c>
@@ -23582,7 +23577,7 @@
         <v>2556</v>
       </c>
     </row>
-    <row r="262" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:17" ht="15" customHeight="1">
       <c r="A262" s="3">
         <v>13</v>
       </c>
@@ -23636,7 +23631,7 @@
         <v>2557</v>
       </c>
     </row>
-    <row r="263" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:17" ht="15" customHeight="1">
       <c r="A263" s="3">
         <v>8</v>
       </c>
@@ -23688,7 +23683,7 @@
         <v>2558</v>
       </c>
     </row>
-    <row r="264" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:17" ht="15" customHeight="1">
       <c r="A264" s="3">
         <v>13</v>
       </c>
@@ -23742,7 +23737,7 @@
         <v>2559</v>
       </c>
     </row>
-    <row r="265" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:17" ht="15" customHeight="1">
       <c r="A265" s="3">
         <v>13</v>
       </c>
@@ -23796,7 +23791,7 @@
         <v>2560</v>
       </c>
     </row>
-    <row r="266" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:17" ht="15" customHeight="1">
       <c r="A266" s="3">
         <v>13</v>
       </c>
@@ -23848,7 +23843,7 @@
         <v>2561</v>
       </c>
     </row>
-    <row r="267" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:17" ht="15" customHeight="1">
       <c r="A267" s="3">
         <v>13</v>
       </c>
@@ -23902,7 +23897,7 @@
         <v>2562</v>
       </c>
     </row>
-    <row r="268" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:17" ht="15" customHeight="1">
       <c r="A268" s="3">
         <v>13</v>
       </c>
@@ -23956,7 +23951,7 @@
         <v>2563</v>
       </c>
     </row>
-    <row r="269" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:17" ht="15" customHeight="1">
       <c r="A269" s="3">
         <v>13</v>
       </c>
@@ -24010,7 +24005,7 @@
         <v>2564</v>
       </c>
     </row>
-    <row r="270" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:17" ht="15" customHeight="1">
       <c r="A270" s="3">
         <v>13</v>
       </c>
@@ -24064,7 +24059,7 @@
         <v>2565</v>
       </c>
     </row>
-    <row r="271" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:17" ht="15" customHeight="1">
       <c r="A271" s="3">
         <v>13</v>
       </c>
@@ -24118,7 +24113,7 @@
         <v>2566</v>
       </c>
     </row>
-    <row r="272" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:17" ht="15" customHeight="1">
       <c r="A272" s="3">
         <v>13</v>
       </c>
@@ -24172,7 +24167,7 @@
         <v>2567</v>
       </c>
     </row>
-    <row r="273" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:17" ht="15" customHeight="1">
       <c r="A273" s="3">
         <v>13</v>
       </c>
@@ -24224,7 +24219,7 @@
         <v>2568</v>
       </c>
     </row>
-    <row r="274" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:17" ht="15" customHeight="1">
       <c r="A274" s="3">
         <v>13</v>
       </c>
@@ -24278,7 +24273,7 @@
         <v>2569</v>
       </c>
     </row>
-    <row r="275" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:17" ht="15" customHeight="1">
       <c r="A275" s="3">
         <v>13</v>
       </c>
@@ -24330,7 +24325,7 @@
         <v>2570</v>
       </c>
     </row>
-    <row r="276" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:17" ht="15" customHeight="1">
       <c r="A276" s="3">
         <v>13</v>
       </c>
@@ -24382,7 +24377,7 @@
         <v>2571</v>
       </c>
     </row>
-    <row r="277" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:17" ht="15" customHeight="1">
       <c r="A277" s="3">
         <v>13</v>
       </c>
@@ -24436,7 +24431,7 @@
         <v>2572</v>
       </c>
     </row>
-    <row r="278" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:17" ht="15" customHeight="1">
       <c r="A278" s="3">
         <v>13</v>
       </c>
@@ -24488,7 +24483,7 @@
         <v>2573</v>
       </c>
     </row>
-    <row r="279" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:17" ht="15" customHeight="1">
       <c r="A279" s="3">
         <v>13</v>
       </c>
@@ -24542,7 +24537,7 @@
         <v>2574</v>
       </c>
     </row>
-    <row r="280" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:17" ht="15" customHeight="1">
       <c r="A280" s="3">
         <v>13</v>
       </c>
@@ -24594,7 +24589,7 @@
         <v>2575</v>
       </c>
     </row>
-    <row r="281" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:17" ht="15" customHeight="1">
       <c r="A281" s="3">
         <v>13</v>
       </c>
@@ -24646,7 +24641,7 @@
         <v>2576</v>
       </c>
     </row>
-    <row r="282" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:17" ht="15" customHeight="1">
       <c r="A282" s="3">
         <v>13</v>
       </c>
@@ -24698,7 +24693,7 @@
         <v>2577</v>
       </c>
     </row>
-    <row r="283" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:17" ht="15" customHeight="1">
       <c r="A283" s="3">
         <v>13</v>
       </c>
@@ -24752,7 +24747,7 @@
         <v>2578</v>
       </c>
     </row>
-    <row r="284" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:17" ht="15" customHeight="1">
       <c r="A284" s="3">
         <v>13</v>
       </c>
@@ -24804,7 +24799,7 @@
         <v>2579</v>
       </c>
     </row>
-    <row r="285" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:17" ht="15" customHeight="1">
       <c r="A285" s="3">
         <v>13</v>
       </c>
@@ -24858,7 +24853,7 @@
         <v>2580</v>
       </c>
     </row>
-    <row r="286" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:17" ht="15" customHeight="1">
       <c r="A286" s="3">
         <v>13</v>
       </c>
@@ -24912,7 +24907,7 @@
         <v>2581</v>
       </c>
     </row>
-    <row r="287" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:17" ht="15" customHeight="1">
       <c r="A287" s="3">
         <v>13</v>
       </c>
@@ -24964,7 +24959,7 @@
         <v>2582</v>
       </c>
     </row>
-    <row r="288" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:17" ht="15" customHeight="1">
       <c r="A288" s="3">
         <v>13</v>
       </c>
@@ -25016,7 +25011,7 @@
         <v>2583</v>
       </c>
     </row>
-    <row r="289" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:17" ht="15" customHeight="1">
       <c r="A289" s="3">
         <v>13</v>
       </c>
@@ -25070,7 +25065,7 @@
         <v>2584</v>
       </c>
     </row>
-    <row r="290" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:17" ht="15" customHeight="1">
       <c r="A290" s="3">
         <v>13</v>
       </c>
@@ -25122,7 +25117,7 @@
         <v>2585</v>
       </c>
     </row>
-    <row r="291" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:17" ht="15" customHeight="1">
       <c r="A291" s="3">
         <v>13</v>
       </c>
@@ -25174,7 +25169,7 @@
         <v>2586</v>
       </c>
     </row>
-    <row r="292" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:17" ht="15" customHeight="1">
       <c r="A292" s="3">
         <v>13</v>
       </c>
@@ -25228,7 +25223,7 @@
         <v>2587</v>
       </c>
     </row>
-    <row r="293" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:17" ht="15" customHeight="1">
       <c r="A293" s="3">
         <v>13</v>
       </c>
@@ -25282,7 +25277,7 @@
         <v>2588</v>
       </c>
     </row>
-    <row r="294" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:17" ht="15" customHeight="1">
       <c r="A294" s="3">
         <v>13</v>
       </c>
@@ -25336,7 +25331,7 @@
         <v>2589</v>
       </c>
     </row>
-    <row r="295" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:17" ht="15" customHeight="1">
       <c r="A295" s="3">
         <v>14</v>
       </c>
@@ -25390,7 +25385,7 @@
         <v>2590</v>
       </c>
     </row>
-    <row r="296" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:17" ht="15" customHeight="1">
       <c r="A296" s="3">
         <v>14</v>
       </c>
@@ -25444,7 +25439,7 @@
         <v>2591</v>
       </c>
     </row>
-    <row r="297" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:17" ht="15" customHeight="1">
       <c r="A297" s="3">
         <v>14</v>
       </c>
@@ -25498,7 +25493,7 @@
         <v>2592</v>
       </c>
     </row>
-    <row r="298" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:17" ht="15" customHeight="1">
       <c r="A298" s="3">
         <v>14</v>
       </c>
@@ -25550,7 +25545,7 @@
         <v>2593</v>
       </c>
     </row>
-    <row r="299" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:17" ht="15" customHeight="1">
       <c r="A299" s="3">
         <v>14</v>
       </c>
@@ -25602,7 +25597,7 @@
         <v>2594</v>
       </c>
     </row>
-    <row r="300" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:17" ht="15" customHeight="1">
       <c r="A300" s="3">
         <v>14</v>
       </c>
@@ -25656,7 +25651,7 @@
         <v>2595</v>
       </c>
     </row>
-    <row r="301" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:17" ht="15" customHeight="1">
       <c r="A301" s="3">
         <v>14</v>
       </c>
@@ -25710,7 +25705,7 @@
         <v>2596</v>
       </c>
     </row>
-    <row r="302" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:17" ht="15" customHeight="1">
       <c r="A302" s="3">
         <v>14</v>
       </c>
@@ -25764,7 +25759,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="303" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:17" ht="15" customHeight="1">
       <c r="A303" s="3">
         <v>14</v>
       </c>
@@ -25818,7 +25813,7 @@
         <v>2598</v>
       </c>
     </row>
-    <row r="304" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:17" ht="15" customHeight="1">
       <c r="A304" s="3">
         <v>14</v>
       </c>
@@ -25872,7 +25867,7 @@
         <v>2599</v>
       </c>
     </row>
-    <row r="305" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:17" ht="15" customHeight="1">
       <c r="A305" s="3">
         <v>14</v>
       </c>
@@ -25926,7 +25921,7 @@
         <v>2600</v>
       </c>
     </row>
-    <row r="306" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:17" ht="15" customHeight="1">
       <c r="A306" s="3">
         <v>14</v>
       </c>
@@ -25980,7 +25975,7 @@
         <v>2601</v>
       </c>
     </row>
-    <row r="307" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:17" ht="15" customHeight="1">
       <c r="A307" s="3">
         <v>14</v>
       </c>
@@ -26032,7 +26027,7 @@
         <v>2602</v>
       </c>
     </row>
-    <row r="308" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:17" ht="15" customHeight="1">
       <c r="A308" s="3">
         <v>14</v>
       </c>
@@ -26086,7 +26081,7 @@
         <v>2603</v>
       </c>
     </row>
-    <row r="309" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:17" ht="15" customHeight="1">
       <c r="A309" s="3">
         <v>14</v>
       </c>
@@ -26140,7 +26135,7 @@
         <v>2604</v>
       </c>
     </row>
-    <row r="310" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:17" ht="15" customHeight="1">
       <c r="A310" s="3">
         <v>14</v>
       </c>
@@ -26194,7 +26189,7 @@
         <v>2605</v>
       </c>
     </row>
-    <row r="311" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:17" ht="15" customHeight="1">
       <c r="A311" s="3">
         <v>14</v>
       </c>
@@ -26248,7 +26243,7 @@
         <v>2606</v>
       </c>
     </row>
-    <row r="312" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:17" ht="15" customHeight="1">
       <c r="A312" s="3">
         <v>14</v>
       </c>
@@ -26302,7 +26297,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="313" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:17" ht="15" customHeight="1">
       <c r="A313" s="3">
         <v>14</v>
       </c>
@@ -26354,7 +26349,7 @@
         <v>2608</v>
       </c>
     </row>
-    <row r="314" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:17" ht="15" customHeight="1">
       <c r="A314" s="3">
         <v>21</v>
       </c>
@@ -26398,10 +26393,10 @@
         <v>1217</v>
       </c>
       <c r="N314" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="O314" s="3" t="s">
-        <v>908</v>
+        <v>3056</v>
       </c>
       <c r="P314" t="s">
         <v>1218</v>
@@ -26410,7 +26405,7 @@
         <v>2820</v>
       </c>
     </row>
-    <row r="315" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:17" ht="15" customHeight="1">
       <c r="A315" s="3">
         <v>6</v>
       </c>
@@ -26464,7 +26459,7 @@
         <v>2157</v>
       </c>
     </row>
-    <row r="316" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:17" ht="15" customHeight="1">
       <c r="A316" s="3">
         <v>8</v>
       </c>
@@ -26518,7 +26513,7 @@
         <v>2609</v>
       </c>
     </row>
-    <row r="317" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:17" ht="15" customHeight="1">
       <c r="A317" s="3">
         <v>8</v>
       </c>
@@ -26572,7 +26567,7 @@
         <v>2610</v>
       </c>
     </row>
-    <row r="318" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:17" ht="15" customHeight="1">
       <c r="A318" s="3">
         <v>11</v>
       </c>
@@ -26626,7 +26621,7 @@
         <v>2611</v>
       </c>
     </row>
-    <row r="319" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:17" ht="15" customHeight="1">
       <c r="A319" s="3">
         <v>11</v>
       </c>
@@ -26680,7 +26675,7 @@
         <v>2612</v>
       </c>
     </row>
-    <row r="320" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:17" ht="15" customHeight="1">
       <c r="A320" s="3">
         <v>11</v>
       </c>
@@ -26734,7 +26729,7 @@
         <v>2613</v>
       </c>
     </row>
-    <row r="321" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:17" ht="15" customHeight="1">
       <c r="A321" s="3">
         <v>12</v>
       </c>
@@ -26788,7 +26783,7 @@
         <v>2614</v>
       </c>
     </row>
-    <row r="322" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:17" ht="15" customHeight="1">
       <c r="A322" s="3">
         <v>12</v>
       </c>
@@ -26840,7 +26835,7 @@
         <v>2615</v>
       </c>
     </row>
-    <row r="323" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:17">
       <c r="A323" s="3">
         <v>17</v>
       </c>
@@ -26896,7 +26891,7 @@
         <v>2616</v>
       </c>
     </row>
-    <row r="324" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:17">
       <c r="A324" s="3">
         <v>17</v>
       </c>
@@ -26952,7 +26947,7 @@
         <v>2617</v>
       </c>
     </row>
-    <row r="325" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:17">
       <c r="A325" s="3">
         <v>17</v>
       </c>
@@ -27006,7 +27001,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="326" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:17">
       <c r="A326" s="3">
         <v>17</v>
       </c>
@@ -27060,7 +27055,7 @@
         <v>2619</v>
       </c>
     </row>
-    <row r="327" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:17">
       <c r="A327" s="3">
         <v>8</v>
       </c>
@@ -27114,7 +27109,7 @@
         <v>2620</v>
       </c>
     </row>
-    <row r="328" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:17" ht="15" customHeight="1">
       <c r="A328" s="3">
         <v>8</v>
       </c>
@@ -27168,7 +27163,7 @@
         <v>2621</v>
       </c>
     </row>
-    <row r="329" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:17" ht="15" customHeight="1">
       <c r="A329" s="3">
         <v>8</v>
       </c>
@@ -27222,7 +27217,7 @@
         <v>2171</v>
       </c>
     </row>
-    <row r="330" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:17" ht="15" customHeight="1">
       <c r="A330" s="3">
         <v>8</v>
       </c>
@@ -27274,7 +27269,7 @@
         <v>2172</v>
       </c>
     </row>
-    <row r="331" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:17" ht="15" customHeight="1">
       <c r="A331" s="3">
         <v>8</v>
       </c>
@@ -27330,7 +27325,7 @@
         <v>2173</v>
       </c>
     </row>
-    <row r="332" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:17" ht="15" customHeight="1">
       <c r="A332" s="3">
         <v>11</v>
       </c>
@@ -27382,7 +27377,7 @@
         <v>2622</v>
       </c>
     </row>
-    <row r="333" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:17" ht="15" customHeight="1">
       <c r="A333" s="3">
         <v>6</v>
       </c>
@@ -27438,7 +27433,7 @@
         <v>2175</v>
       </c>
     </row>
-    <row r="334" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:17" ht="15" customHeight="1">
       <c r="A334" s="3">
         <v>6</v>
       </c>
@@ -27494,7 +27489,7 @@
         <v>2176</v>
       </c>
     </row>
-    <row r="335" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:17" ht="15" customHeight="1">
       <c r="A335" s="3">
         <v>15</v>
       </c>
@@ -27548,7 +27543,7 @@
         <v>2623</v>
       </c>
     </row>
-    <row r="336" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:17" ht="15" customHeight="1">
       <c r="A336" s="3">
         <v>12</v>
       </c>
@@ -27600,7 +27595,7 @@
         <v>2624</v>
       </c>
     </row>
-    <row r="337" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:17" ht="15" customHeight="1">
       <c r="A337" s="3">
         <v>12</v>
       </c>
@@ -27652,7 +27647,7 @@
         <v>2625</v>
       </c>
     </row>
-    <row r="338" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:17" ht="15" customHeight="1">
       <c r="A338" s="3">
         <v>12</v>
       </c>
@@ -27706,7 +27701,7 @@
         <v>2626</v>
       </c>
     </row>
-    <row r="339" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:17" ht="15" customHeight="1">
       <c r="A339" s="3">
         <v>12</v>
       </c>
@@ -27758,7 +27753,7 @@
         <v>2627</v>
       </c>
     </row>
-    <row r="340" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:17" ht="15" customHeight="1">
       <c r="A340" s="3">
         <v>12</v>
       </c>
@@ -27812,7 +27807,7 @@
         <v>2628</v>
       </c>
     </row>
-    <row r="341" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:17" ht="15" customHeight="1">
       <c r="A341" s="3">
         <v>12</v>
       </c>
@@ -27866,7 +27861,7 @@
         <v>2629</v>
       </c>
     </row>
-    <row r="342" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:17" ht="15" customHeight="1">
       <c r="A342" s="3">
         <v>12</v>
       </c>
@@ -27918,7 +27913,7 @@
         <v>2630</v>
       </c>
     </row>
-    <row r="343" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:17" ht="15" customHeight="1">
       <c r="A343" s="3">
         <v>12</v>
       </c>
@@ -27972,7 +27967,7 @@
         <v>2631</v>
       </c>
     </row>
-    <row r="344" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:17" ht="15" customHeight="1">
       <c r="A344" s="3">
         <v>12</v>
       </c>
@@ -28026,7 +28021,7 @@
         <v>2632</v>
       </c>
     </row>
-    <row r="345" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:17" ht="15" customHeight="1">
       <c r="A345" s="3">
         <v>12</v>
       </c>
@@ -28080,7 +28075,7 @@
         <v>2633</v>
       </c>
     </row>
-    <row r="346" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:17" ht="15" customHeight="1">
       <c r="A346" s="3">
         <v>12</v>
       </c>
@@ -28132,7 +28127,7 @@
         <v>2634</v>
       </c>
     </row>
-    <row r="347" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:17" ht="15" customHeight="1">
       <c r="A347" s="3">
         <v>8</v>
       </c>
@@ -28186,7 +28181,7 @@
         <v>2635</v>
       </c>
     </row>
-    <row r="348" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:17" ht="15" customHeight="1">
       <c r="A348" s="3">
         <v>8</v>
       </c>
@@ -28240,7 +28235,7 @@
         <v>2636</v>
       </c>
     </row>
-    <row r="349" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:17" ht="15" customHeight="1">
       <c r="A349" s="3">
         <v>8</v>
       </c>
@@ -28294,7 +28289,7 @@
         <v>2637</v>
       </c>
     </row>
-    <row r="350" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:17" ht="15" customHeight="1">
       <c r="A350" s="3">
         <v>6</v>
       </c>
@@ -28350,7 +28345,7 @@
         <v>2192</v>
       </c>
     </row>
-    <row r="351" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:17" ht="15" customHeight="1">
       <c r="A351" s="3">
         <v>6</v>
       </c>
@@ -28406,7 +28401,7 @@
         <v>2193</v>
       </c>
     </row>
-    <row r="352" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:17" ht="15" customHeight="1">
       <c r="A352" s="3">
         <v>12</v>
       </c>
@@ -28458,7 +28453,7 @@
         <v>2638</v>
       </c>
     </row>
-    <row r="353" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:17" ht="15" customHeight="1">
       <c r="A353" s="3">
         <v>8</v>
       </c>
@@ -28512,7 +28507,7 @@
         <v>2639</v>
       </c>
     </row>
-    <row r="354" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:17" ht="15" customHeight="1">
       <c r="A354" s="3">
         <v>8</v>
       </c>
@@ -28566,7 +28561,7 @@
         <v>2640</v>
       </c>
     </row>
-    <row r="355" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:17" ht="15" customHeight="1">
       <c r="A355" s="3">
         <v>8</v>
       </c>
@@ -28618,7 +28613,7 @@
         <v>2641</v>
       </c>
     </row>
-    <row r="356" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:17" ht="15" customHeight="1">
       <c r="A356" s="3">
         <v>8</v>
       </c>
@@ -28668,7 +28663,7 @@
         <v>2642</v>
       </c>
     </row>
-    <row r="357" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:17" ht="15" customHeight="1">
       <c r="A357" s="3">
         <v>8</v>
       </c>
@@ -28721,7 +28716,7 @@
         <v>2643</v>
       </c>
     </row>
-    <row r="358" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:17" ht="15" customHeight="1">
       <c r="A358" s="3">
         <v>8</v>
       </c>
@@ -28774,7 +28769,7 @@
         <v>2200</v>
       </c>
     </row>
-    <row r="359" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:17" ht="15" customHeight="1">
       <c r="A359" s="3">
         <v>8</v>
       </c>
@@ -28827,7 +28822,7 @@
         <v>2644</v>
       </c>
     </row>
-    <row r="360" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:17" ht="15" customHeight="1">
       <c r="A360" s="3">
         <v>8</v>
       </c>
@@ -28880,7 +28875,7 @@
         <v>2645</v>
       </c>
     </row>
-    <row r="361" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:17" ht="15" customHeight="1">
       <c r="A361" s="3">
         <v>8</v>
       </c>
@@ -28933,7 +28928,7 @@
         <v>2646</v>
       </c>
     </row>
-    <row r="362" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:17" ht="15" customHeight="1">
       <c r="A362" s="3">
         <v>8</v>
       </c>
@@ -28983,7 +28978,7 @@
         <v>2204</v>
       </c>
     </row>
-    <row r="363" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:17" ht="15" customHeight="1">
       <c r="A363" s="3">
         <v>8</v>
       </c>
@@ -29033,7 +29028,7 @@
         <v>2205</v>
       </c>
     </row>
-    <row r="364" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:17" ht="15" customHeight="1">
       <c r="A364" s="3">
         <v>8</v>
       </c>
@@ -29086,7 +29081,7 @@
         <v>2647</v>
       </c>
     </row>
-    <row r="365" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:17" ht="15" customHeight="1">
       <c r="A365" s="3">
         <v>8</v>
       </c>
@@ -29136,7 +29131,7 @@
         <v>2648</v>
       </c>
     </row>
-    <row r="366" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:17" ht="15" customHeight="1">
       <c r="A366" s="3">
         <v>22</v>
       </c>
@@ -29189,7 +29184,7 @@
         <v>2208</v>
       </c>
     </row>
-    <row r="367" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:17" ht="15" customHeight="1">
       <c r="A367" s="3">
         <v>4</v>
       </c>
@@ -29239,7 +29234,7 @@
         <v>2649</v>
       </c>
     </row>
-    <row r="368" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:17" ht="15" customHeight="1">
       <c r="A368" s="3">
         <v>22</v>
       </c>
@@ -29292,7 +29287,7 @@
         <v>2210</v>
       </c>
     </row>
-    <row r="369" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:17" ht="15" customHeight="1">
       <c r="A369" s="3">
         <v>8</v>
       </c>
@@ -29345,7 +29340,7 @@
         <v>2650</v>
       </c>
     </row>
-    <row r="370" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:17" ht="15" customHeight="1">
       <c r="A370" s="3">
         <v>8</v>
       </c>
@@ -29401,7 +29396,7 @@
         <v>2212</v>
       </c>
     </row>
-    <row r="371" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:17" ht="15" customHeight="1">
       <c r="A371" s="3">
         <v>4</v>
       </c>
@@ -29451,7 +29446,7 @@
         <v>2213</v>
       </c>
     </row>
-    <row r="372" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:17" ht="15" customHeight="1">
       <c r="A372" s="3">
         <v>4</v>
       </c>
@@ -29501,7 +29496,7 @@
         <v>2214</v>
       </c>
     </row>
-    <row r="373" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:17" ht="15" customHeight="1">
       <c r="A373" s="3">
         <v>8</v>
       </c>
@@ -29551,7 +29546,7 @@
         <v>2215</v>
       </c>
     </row>
-    <row r="374" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:17" ht="15" customHeight="1">
       <c r="A374" s="3">
         <v>8</v>
       </c>
@@ -29604,7 +29599,7 @@
         <v>2216</v>
       </c>
     </row>
-    <row r="375" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:17" ht="15" customHeight="1">
       <c r="A375" s="3">
         <v>8</v>
       </c>
@@ -29657,7 +29652,7 @@
         <v>2217</v>
       </c>
     </row>
-    <row r="376" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:17" ht="15" customHeight="1">
       <c r="A376" s="3">
         <v>8</v>
       </c>
@@ -29710,7 +29705,7 @@
         <v>2218</v>
       </c>
     </row>
-    <row r="377" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:17" ht="15" customHeight="1">
       <c r="A377" s="3">
         <v>8</v>
       </c>
@@ -29760,7 +29755,7 @@
         <v>2219</v>
       </c>
     </row>
-    <row r="378" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:17" ht="15" customHeight="1">
       <c r="A378" s="3">
         <v>8</v>
       </c>
@@ -29813,7 +29808,7 @@
         <v>2220</v>
       </c>
     </row>
-    <row r="379" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:17" ht="15" customHeight="1">
       <c r="A379" s="3">
         <v>8</v>
       </c>
@@ -29869,7 +29864,7 @@
         <v>2221</v>
       </c>
     </row>
-    <row r="380" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:17" ht="15" customHeight="1">
       <c r="A380" s="3">
         <v>8</v>
       </c>
@@ -29922,7 +29917,7 @@
         <v>2651</v>
       </c>
     </row>
-    <row r="381" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:17" ht="15" customHeight="1">
       <c r="A381" s="3">
         <v>8</v>
       </c>
@@ -29975,7 +29970,7 @@
         <v>2223</v>
       </c>
     </row>
-    <row r="382" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:17" ht="15" customHeight="1">
       <c r="A382" s="3">
         <v>8</v>
       </c>
@@ -30031,7 +30026,7 @@
         <v>2224</v>
       </c>
     </row>
-    <row r="383" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:17" ht="15" customHeight="1">
       <c r="A383" s="3">
         <v>8</v>
       </c>
@@ -30084,7 +30079,7 @@
         <v>2652</v>
       </c>
     </row>
-    <row r="384" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:17" ht="15" customHeight="1">
       <c r="A384" s="3">
         <v>17</v>
       </c>
@@ -30134,7 +30129,7 @@
         <v>2653</v>
       </c>
     </row>
-    <row r="385" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:17" ht="15" customHeight="1">
       <c r="A385" s="3">
         <v>8</v>
       </c>
@@ -30190,7 +30185,7 @@
         <v>2227</v>
       </c>
     </row>
-    <row r="386" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:17" ht="15" customHeight="1">
       <c r="A386" s="3">
         <v>8</v>
       </c>
@@ -30243,7 +30238,7 @@
         <v>2654</v>
       </c>
     </row>
-    <row r="387" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:17" ht="15" customHeight="1">
       <c r="A387" s="3">
         <v>8</v>
       </c>
@@ -30296,7 +30291,7 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="388" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:17" ht="15" customHeight="1">
       <c r="A388" s="3">
         <v>8</v>
       </c>
@@ -30349,7 +30344,7 @@
         <v>2656</v>
       </c>
     </row>
-    <row r="389" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:17" ht="15" customHeight="1">
       <c r="A389" s="3">
         <v>11</v>
       </c>
@@ -30402,7 +30397,7 @@
         <v>2657</v>
       </c>
     </row>
-    <row r="390" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:17" ht="15" customHeight="1">
       <c r="A390" s="3">
         <v>8</v>
       </c>
@@ -30458,7 +30453,7 @@
         <v>2658</v>
       </c>
     </row>
-    <row r="391" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:17" ht="15" customHeight="1">
       <c r="A391" s="3">
         <v>8</v>
       </c>
@@ -30508,7 +30503,7 @@
         <v>2659</v>
       </c>
     </row>
-    <row r="392" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:17" ht="15" customHeight="1">
       <c r="A392" s="3">
         <v>8</v>
       </c>
@@ -30564,7 +30559,7 @@
         <v>2660</v>
       </c>
     </row>
-    <row r="393" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:17" ht="15" customHeight="1">
       <c r="A393" s="3">
         <v>8</v>
       </c>
@@ -30617,7 +30612,7 @@
         <v>2235</v>
       </c>
     </row>
-    <row r="394" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:17" ht="15" customHeight="1">
       <c r="A394" s="3">
         <v>8</v>
       </c>
@@ -30667,7 +30662,7 @@
         <v>2236</v>
       </c>
     </row>
-    <row r="395" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:17" ht="15" customHeight="1">
       <c r="A395" s="3">
         <v>8</v>
       </c>
@@ -30720,7 +30715,7 @@
         <v>2661</v>
       </c>
     </row>
-    <row r="396" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:17" ht="15" customHeight="1">
       <c r="A396" s="3">
         <v>8</v>
       </c>
@@ -30770,7 +30765,7 @@
         <v>2238</v>
       </c>
     </row>
-    <row r="397" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:17" ht="15" customHeight="1">
       <c r="A397" s="3">
         <v>8</v>
       </c>
@@ -30823,7 +30818,7 @@
         <v>2662</v>
       </c>
     </row>
-    <row r="398" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:17" ht="15" customHeight="1">
       <c r="A398" s="3">
         <v>8</v>
       </c>
@@ -30876,7 +30871,7 @@
         <v>2663</v>
       </c>
     </row>
-    <row r="399" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:17" ht="15" customHeight="1">
       <c r="A399" s="3">
         <v>8</v>
       </c>
@@ -30929,7 +30924,7 @@
         <v>2664</v>
       </c>
     </row>
-    <row r="400" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:17" ht="15" customHeight="1">
       <c r="A400" s="3">
         <v>8</v>
       </c>
@@ -30982,7 +30977,7 @@
         <v>2665</v>
       </c>
     </row>
-    <row r="401" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:17" ht="15" customHeight="1">
       <c r="A401" s="3">
         <v>8</v>
       </c>
@@ -31035,7 +31030,7 @@
         <v>2666</v>
       </c>
     </row>
-    <row r="402" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:17" ht="15" customHeight="1">
       <c r="A402" s="3">
         <v>8</v>
       </c>
@@ -31088,7 +31083,7 @@
         <v>2667</v>
       </c>
     </row>
-    <row r="403" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:17" ht="15" customHeight="1">
       <c r="A403" s="3">
         <v>8</v>
       </c>
@@ -31141,7 +31136,7 @@
         <v>2668</v>
       </c>
     </row>
-    <row r="404" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:17" ht="15" customHeight="1">
       <c r="A404" s="3">
         <v>8</v>
       </c>
@@ -31194,7 +31189,7 @@
         <v>2669</v>
       </c>
     </row>
-    <row r="405" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:17" ht="15" customHeight="1">
       <c r="A405" s="3">
         <v>8</v>
       </c>
@@ -31247,7 +31242,7 @@
         <v>2670</v>
       </c>
     </row>
-    <row r="406" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:17" ht="15" customHeight="1">
       <c r="A406" s="3">
         <v>8</v>
       </c>
@@ -31300,7 +31295,7 @@
         <v>2671</v>
       </c>
     </row>
-    <row r="407" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:17" ht="15" customHeight="1">
       <c r="A407" s="3">
         <v>8</v>
       </c>
@@ -31353,7 +31348,7 @@
         <v>2249</v>
       </c>
     </row>
-    <row r="408" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:17" ht="15" customHeight="1">
       <c r="A408" s="3">
         <v>8</v>
       </c>
@@ -31406,7 +31401,7 @@
         <v>2672</v>
       </c>
     </row>
-    <row r="409" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:17" ht="15" customHeight="1">
       <c r="A409" s="3">
         <v>8</v>
       </c>
@@ -31459,7 +31454,7 @@
         <v>2673</v>
       </c>
     </row>
-    <row r="410" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:17" ht="15" customHeight="1">
       <c r="A410" s="3">
         <v>8</v>
       </c>
@@ -31512,7 +31507,7 @@
         <v>2674</v>
       </c>
     </row>
-    <row r="411" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:17" ht="15" customHeight="1">
       <c r="A411" s="3">
         <v>8</v>
       </c>
@@ -31565,7 +31560,7 @@
         <v>2675</v>
       </c>
     </row>
-    <row r="412" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:17" ht="15" customHeight="1">
       <c r="A412" s="3">
         <v>8</v>
       </c>
@@ -31618,7 +31613,7 @@
         <v>2676</v>
       </c>
     </row>
-    <row r="413" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:17" ht="15" customHeight="1">
       <c r="A413" s="3">
         <v>8</v>
       </c>
@@ -31671,7 +31666,7 @@
         <v>2677</v>
       </c>
     </row>
-    <row r="414" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:17" ht="15" customHeight="1">
       <c r="A414" s="3">
         <v>8</v>
       </c>
@@ -31724,7 +31719,7 @@
         <v>2678</v>
       </c>
     </row>
-    <row r="415" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:17" ht="15" customHeight="1">
       <c r="A415" s="3">
         <v>8</v>
       </c>
@@ -31777,7 +31772,7 @@
         <v>2679</v>
       </c>
     </row>
-    <row r="416" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:17" ht="15" customHeight="1">
       <c r="A416" s="3">
         <v>8</v>
       </c>
@@ -31830,7 +31825,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="417" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:17" ht="15" customHeight="1">
       <c r="A417" s="3">
         <v>8</v>
       </c>
@@ -31883,7 +31878,7 @@
         <v>2681</v>
       </c>
     </row>
-    <row r="418" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:17" ht="15" customHeight="1">
       <c r="A418" s="3">
         <v>8</v>
       </c>
@@ -31936,7 +31931,7 @@
         <v>2682</v>
       </c>
     </row>
-    <row r="419" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:17" ht="15" customHeight="1">
       <c r="A419" s="3">
         <v>8</v>
       </c>
@@ -31986,7 +31981,7 @@
         <v>2683</v>
       </c>
     </row>
-    <row r="420" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:17" ht="15" customHeight="1">
       <c r="A420" s="3">
         <v>8</v>
       </c>
@@ -32039,7 +32034,7 @@
         <v>2684</v>
       </c>
     </row>
-    <row r="421" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:17" ht="15" customHeight="1">
       <c r="A421" s="3">
         <v>8</v>
       </c>
@@ -32092,7 +32087,7 @@
         <v>2685</v>
       </c>
     </row>
-    <row r="422" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:17" ht="15" customHeight="1">
       <c r="A422" s="3">
         <v>8</v>
       </c>
@@ -32145,7 +32140,7 @@
         <v>2686</v>
       </c>
     </row>
-    <row r="423" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:17" ht="15" customHeight="1">
       <c r="A423" s="3">
         <v>8</v>
       </c>
@@ -32198,7 +32193,7 @@
         <v>2687</v>
       </c>
     </row>
-    <row r="424" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:17" ht="15" customHeight="1">
       <c r="A424" s="3">
         <v>8</v>
       </c>
@@ -32248,7 +32243,7 @@
         <v>2688</v>
       </c>
     </row>
-    <row r="425" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:17" ht="15" customHeight="1">
       <c r="A425" s="3">
         <v>8</v>
       </c>
@@ -32301,7 +32296,7 @@
         <v>2689</v>
       </c>
     </row>
-    <row r="426" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:17" ht="15" customHeight="1">
       <c r="A426" s="3">
         <v>8</v>
       </c>
@@ -32354,7 +32349,7 @@
         <v>2690</v>
       </c>
     </row>
-    <row r="427" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:17" ht="15" customHeight="1">
       <c r="A427" s="3">
         <v>8</v>
       </c>
@@ -32407,7 +32402,7 @@
         <v>2691</v>
       </c>
     </row>
-    <row r="428" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:17" ht="15" customHeight="1">
       <c r="A428" s="3">
         <v>4</v>
       </c>
@@ -32457,7 +32452,7 @@
         <v>2270</v>
       </c>
     </row>
-    <row r="429" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:17" ht="15" customHeight="1">
       <c r="A429" s="3">
         <v>8</v>
       </c>
@@ -32510,7 +32505,7 @@
         <v>2692</v>
       </c>
     </row>
-    <row r="430" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:17" ht="15" customHeight="1">
       <c r="A430" s="3">
         <v>8</v>
       </c>
@@ -32560,7 +32555,7 @@
         <v>2693</v>
       </c>
     </row>
-    <row r="431" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:17" ht="15" customHeight="1">
       <c r="A431" s="3">
         <v>8</v>
       </c>
@@ -32613,7 +32608,7 @@
         <v>2694</v>
       </c>
     </row>
-    <row r="432" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:17" ht="15" customHeight="1">
       <c r="A432" s="3">
         <v>8</v>
       </c>
@@ -32666,7 +32661,7 @@
         <v>2695</v>
       </c>
     </row>
-    <row r="433" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:17" ht="15" customHeight="1">
       <c r="A433" s="3">
         <v>8</v>
       </c>
@@ -32719,7 +32714,7 @@
         <v>2696</v>
       </c>
     </row>
-    <row r="434" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:17" ht="15" customHeight="1">
       <c r="A434" s="3">
         <v>8</v>
       </c>
@@ -32772,7 +32767,7 @@
         <v>2697</v>
       </c>
     </row>
-    <row r="435" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:17" ht="15" customHeight="1">
       <c r="A435" s="3">
         <v>8</v>
       </c>
@@ -32825,7 +32820,7 @@
         <v>2698</v>
       </c>
     </row>
-    <row r="436" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:17" ht="15" customHeight="1">
       <c r="A436" s="3">
         <v>8</v>
       </c>
@@ -32878,7 +32873,7 @@
         <v>2699</v>
       </c>
     </row>
-    <row r="437" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:17" ht="15" customHeight="1">
       <c r="A437" s="3">
         <v>8</v>
       </c>
@@ -32931,7 +32926,7 @@
         <v>2700</v>
       </c>
     </row>
-    <row r="438" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:17" ht="15" customHeight="1">
       <c r="A438" s="3">
         <v>8</v>
       </c>
@@ -32984,7 +32979,7 @@
         <v>2701</v>
       </c>
     </row>
-    <row r="439" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:17" ht="15" customHeight="1">
       <c r="A439" s="3">
         <v>8</v>
       </c>
@@ -33037,7 +33032,7 @@
         <v>2702</v>
       </c>
     </row>
-    <row r="440" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:17" ht="15" customHeight="1">
       <c r="A440" s="3">
         <v>8</v>
       </c>
@@ -33090,7 +33085,7 @@
         <v>2703</v>
       </c>
     </row>
-    <row r="441" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:17" ht="15" customHeight="1">
       <c r="A441" s="3">
         <v>8</v>
       </c>
@@ -33143,7 +33138,7 @@
         <v>2704</v>
       </c>
     </row>
-    <row r="442" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:17" ht="15" customHeight="1">
       <c r="A442" s="3">
         <v>8</v>
       </c>
@@ -33196,7 +33191,7 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="443" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:17" ht="15" customHeight="1">
       <c r="A443" s="3">
         <v>8</v>
       </c>
@@ -33249,7 +33244,7 @@
         <v>2706</v>
       </c>
     </row>
-    <row r="444" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:17" ht="15" customHeight="1">
       <c r="A444" s="3">
         <v>8</v>
       </c>
@@ -33302,7 +33297,7 @@
         <v>2707</v>
       </c>
     </row>
-    <row r="445" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:17" ht="15" customHeight="1">
       <c r="A445" s="3">
         <v>8</v>
       </c>
@@ -33355,7 +33350,7 @@
         <v>2708</v>
       </c>
     </row>
-    <row r="446" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:17" ht="15" customHeight="1">
       <c r="A446" s="3">
         <v>8</v>
       </c>
@@ -33408,7 +33403,7 @@
         <v>2709</v>
       </c>
     </row>
-    <row r="447" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:17" ht="15" customHeight="1">
       <c r="A447" s="3">
         <v>8</v>
       </c>
@@ -33461,7 +33456,7 @@
         <v>2710</v>
       </c>
     </row>
-    <row r="448" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:17" ht="15" customHeight="1">
       <c r="A448" s="3">
         <v>8</v>
       </c>
@@ -33514,7 +33509,7 @@
         <v>2711</v>
       </c>
     </row>
-    <row r="449" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:17" ht="15" customHeight="1">
       <c r="A449" s="3">
         <v>8</v>
       </c>
@@ -33567,7 +33562,7 @@
         <v>2712</v>
       </c>
     </row>
-    <row r="450" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:17" ht="15" customHeight="1">
       <c r="A450" s="3">
         <v>8</v>
       </c>
@@ -33617,7 +33612,7 @@
         <v>2713</v>
       </c>
     </row>
-    <row r="451" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:17" ht="15" customHeight="1">
       <c r="A451" s="3">
         <v>8</v>
       </c>
@@ -33670,7 +33665,7 @@
         <v>2714</v>
       </c>
     </row>
-    <row r="452" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:17" ht="15" customHeight="1">
       <c r="A452" s="3">
         <v>8</v>
       </c>
@@ -33723,7 +33718,7 @@
         <v>2715</v>
       </c>
     </row>
-    <row r="453" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:17" ht="15" customHeight="1">
       <c r="A453" s="3">
         <v>8</v>
       </c>
@@ -33773,7 +33768,7 @@
         <v>2716</v>
       </c>
     </row>
-    <row r="454" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:17" ht="15" customHeight="1">
       <c r="A454" s="3">
         <v>8</v>
       </c>
@@ -33826,7 +33821,7 @@
         <v>2717</v>
       </c>
     </row>
-    <row r="455" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:17" ht="15" customHeight="1">
       <c r="A455" s="3">
         <v>8</v>
       </c>
@@ -33879,7 +33874,7 @@
         <v>2718</v>
       </c>
     </row>
-    <row r="456" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:17" ht="15" customHeight="1">
       <c r="A456" s="3">
         <v>8</v>
       </c>
@@ -33932,7 +33927,7 @@
         <v>2719</v>
       </c>
     </row>
-    <row r="457" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:17" ht="15" customHeight="1">
       <c r="A457" s="3">
         <v>8</v>
       </c>
@@ -33985,7 +33980,7 @@
         <v>2720</v>
       </c>
     </row>
-    <row r="458" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:17" ht="15" customHeight="1">
       <c r="A458" s="3">
         <v>17</v>
       </c>
@@ -34038,7 +34033,7 @@
         <v>2721</v>
       </c>
     </row>
-    <row r="459" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:17" ht="15" customHeight="1">
       <c r="A459" s="3">
         <v>11</v>
       </c>
@@ -34088,7 +34083,7 @@
         <v>2722</v>
       </c>
     </row>
-    <row r="460" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:17" ht="15" customHeight="1">
       <c r="A460" s="3">
         <v>8</v>
       </c>
@@ -34141,7 +34136,7 @@
         <v>2723</v>
       </c>
     </row>
-    <row r="461" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:17" ht="15" customHeight="1">
       <c r="A461" s="3">
         <v>8</v>
       </c>
@@ -34194,7 +34189,7 @@
         <v>2724</v>
       </c>
     </row>
-    <row r="462" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:17" ht="15" customHeight="1">
       <c r="A462" s="3">
         <v>8</v>
       </c>
@@ -34247,7 +34242,7 @@
         <v>2725</v>
       </c>
     </row>
-    <row r="463" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:17" ht="15" customHeight="1">
       <c r="A463" s="3">
         <v>8</v>
       </c>
@@ -34300,7 +34295,7 @@
         <v>2726</v>
       </c>
     </row>
-    <row r="464" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:17" ht="15" customHeight="1">
       <c r="A464" s="3">
         <v>8</v>
       </c>
@@ -34353,7 +34348,7 @@
         <v>2727</v>
       </c>
     </row>
-    <row r="465" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:17" ht="15" customHeight="1">
       <c r="A465" s="3">
         <v>8</v>
       </c>
@@ -34406,7 +34401,7 @@
         <v>2728</v>
       </c>
     </row>
-    <row r="466" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:17" ht="15" customHeight="1">
       <c r="A466" s="3">
         <v>8</v>
       </c>
@@ -34459,7 +34454,7 @@
         <v>2729</v>
       </c>
     </row>
-    <row r="467" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:17" ht="15" customHeight="1">
       <c r="A467" s="3">
         <v>6</v>
       </c>
@@ -34515,7 +34510,7 @@
         <v>2309</v>
       </c>
     </row>
-    <row r="468" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:17" ht="15" customHeight="1">
       <c r="A468" s="3">
         <v>6</v>
       </c>
@@ -34571,7 +34566,7 @@
         <v>2310</v>
       </c>
     </row>
-    <row r="469" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:17" ht="15" customHeight="1">
       <c r="A469" s="3">
         <v>12</v>
       </c>
@@ -34624,7 +34619,7 @@
         <v>2730</v>
       </c>
     </row>
-    <row r="470" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:17" ht="15" customHeight="1">
       <c r="A470" s="3">
         <v>12</v>
       </c>
@@ -34677,7 +34672,7 @@
         <v>2731</v>
       </c>
     </row>
-    <row r="471" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:17" ht="15" customHeight="1">
       <c r="A471" s="3">
         <v>15</v>
       </c>
@@ -34730,7 +34725,7 @@
         <v>2732</v>
       </c>
     </row>
-    <row r="472" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:17" ht="15" customHeight="1">
       <c r="A472" s="3">
         <v>12</v>
       </c>
@@ -34780,7 +34775,7 @@
         <v>2733</v>
       </c>
     </row>
-    <row r="473" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:17" ht="15" customHeight="1">
       <c r="A473" s="3">
         <v>12</v>
       </c>
@@ -34830,7 +34825,7 @@
         <v>2734</v>
       </c>
     </row>
-    <row r="474" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:17" ht="15" customHeight="1">
       <c r="A474" s="3">
         <v>12</v>
       </c>
@@ -34883,7 +34878,7 @@
         <v>2735</v>
       </c>
     </row>
-    <row r="475" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:17" ht="15" customHeight="1">
       <c r="A475" s="3">
         <v>12</v>
       </c>
@@ -34936,7 +34931,7 @@
         <v>2736</v>
       </c>
     </row>
-    <row r="476" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:17" ht="15" customHeight="1">
       <c r="A476" s="3">
         <v>12</v>
       </c>
@@ -34989,7 +34984,7 @@
         <v>2737</v>
       </c>
     </row>
-    <row r="477" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:17" ht="15" customHeight="1">
       <c r="A477" s="3">
         <v>12</v>
       </c>
@@ -35042,7 +35037,7 @@
         <v>2738</v>
       </c>
     </row>
-    <row r="478" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:17" ht="15" customHeight="1">
       <c r="A478" s="3">
         <v>12</v>
       </c>
@@ -35095,7 +35090,7 @@
         <v>2739</v>
       </c>
     </row>
-    <row r="479" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:17" ht="15" customHeight="1">
       <c r="A479" s="3">
         <v>12</v>
       </c>
@@ -35148,7 +35143,7 @@
         <v>2740</v>
       </c>
     </row>
-    <row r="480" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:17" ht="15" customHeight="1">
       <c r="A480" s="3">
         <v>12</v>
       </c>
@@ -35198,7 +35193,7 @@
         <v>2741</v>
       </c>
     </row>
-    <row r="481" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:17" ht="15" customHeight="1">
       <c r="A481" s="3">
         <v>12</v>
       </c>
@@ -35251,7 +35246,7 @@
         <v>2742</v>
       </c>
     </row>
-    <row r="482" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:17" ht="15" customHeight="1">
       <c r="A482" s="3">
         <v>12</v>
       </c>
@@ -35304,7 +35299,7 @@
         <v>2743</v>
       </c>
     </row>
-    <row r="483" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:17" ht="15" customHeight="1">
       <c r="A483" s="3">
         <v>12</v>
       </c>
@@ -35357,7 +35352,7 @@
         <v>2744</v>
       </c>
     </row>
-    <row r="484" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:17" ht="15" customHeight="1">
       <c r="A484" s="3">
         <v>12</v>
       </c>
@@ -35410,7 +35405,7 @@
         <v>2745</v>
       </c>
     </row>
-    <row r="485" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:17" ht="15" customHeight="1">
       <c r="A485" s="3">
         <v>12</v>
       </c>
@@ -35460,7 +35455,7 @@
         <v>2746</v>
       </c>
     </row>
-    <row r="486" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:17" ht="15" customHeight="1">
       <c r="A486" s="3">
         <v>12</v>
       </c>
@@ -35513,7 +35508,7 @@
         <v>2747</v>
       </c>
     </row>
-    <row r="487" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:17" ht="15" customHeight="1">
       <c r="A487" s="3">
         <v>12</v>
       </c>
@@ -35566,7 +35561,7 @@
         <v>2748</v>
       </c>
     </row>
-    <row r="488" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:17" ht="15" customHeight="1">
       <c r="A488" s="3">
         <v>12</v>
       </c>
@@ -35616,7 +35611,7 @@
         <v>2749</v>
       </c>
     </row>
-    <row r="489" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:17" ht="15" customHeight="1">
       <c r="A489" s="3">
         <v>12</v>
       </c>
@@ -35666,7 +35661,7 @@
         <v>2750</v>
       </c>
     </row>
-    <row r="490" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:17" ht="15" customHeight="1">
       <c r="A490" s="3">
         <v>12</v>
       </c>
@@ -35719,7 +35714,7 @@
         <v>2751</v>
       </c>
     </row>
-    <row r="491" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:17" ht="15" customHeight="1">
       <c r="A491" s="3">
         <v>14</v>
       </c>
@@ -35772,7 +35767,7 @@
         <v>2752</v>
       </c>
     </row>
-    <row r="492" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:17" ht="15" customHeight="1">
       <c r="A492" s="3">
         <v>12</v>
       </c>
@@ -35825,7 +35820,7 @@
         <v>2753</v>
       </c>
     </row>
-    <row r="493" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:17" ht="15" customHeight="1">
       <c r="A493" s="3">
         <v>12</v>
       </c>
@@ -35878,7 +35873,7 @@
         <v>2754</v>
       </c>
     </row>
-    <row r="494" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:17" ht="15" customHeight="1">
       <c r="A494" s="3">
         <v>12</v>
       </c>
@@ -35931,7 +35926,7 @@
         <v>2755</v>
       </c>
     </row>
-    <row r="495" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:17" ht="15" customHeight="1">
       <c r="A495" s="3">
         <v>12</v>
       </c>
@@ -35984,7 +35979,7 @@
         <v>2756</v>
       </c>
     </row>
-    <row r="496" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:17" ht="15" customHeight="1">
       <c r="A496" s="3">
         <v>12</v>
       </c>
@@ -36037,7 +36032,7 @@
         <v>2757</v>
       </c>
     </row>
-    <row r="497" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:17" ht="15" customHeight="1">
       <c r="A497" s="3">
         <v>12</v>
       </c>
@@ -36090,7 +36085,7 @@
         <v>2758</v>
       </c>
     </row>
-    <row r="498" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:17" ht="15" customHeight="1">
       <c r="A498" s="3">
         <v>14</v>
       </c>
@@ -36143,7 +36138,7 @@
         <v>2759</v>
       </c>
     </row>
-    <row r="499" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:17" ht="15" customHeight="1">
       <c r="A499" s="3">
         <v>12</v>
       </c>
@@ -36196,7 +36191,7 @@
         <v>2760</v>
       </c>
     </row>
-    <row r="500" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:17" ht="15" customHeight="1">
       <c r="A500" s="3">
         <v>4</v>
       </c>
@@ -36246,7 +36241,7 @@
         <v>2342</v>
       </c>
     </row>
-    <row r="501" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:17" ht="15" customHeight="1">
       <c r="A501" s="3">
         <v>12</v>
       </c>
@@ -36299,7 +36294,7 @@
         <v>2761</v>
       </c>
     </row>
-    <row r="502" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:17" ht="15" customHeight="1">
       <c r="A502" s="3">
         <v>12</v>
       </c>
@@ -36352,7 +36347,7 @@
         <v>2762</v>
       </c>
     </row>
-    <row r="503" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:17" ht="15" customHeight="1">
       <c r="A503" s="3">
         <v>12</v>
       </c>
@@ -36405,7 +36400,7 @@
         <v>2763</v>
       </c>
     </row>
-    <row r="504" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:17" ht="15" customHeight="1">
       <c r="A504" s="3">
         <v>12</v>
       </c>
@@ -36458,7 +36453,7 @@
         <v>2764</v>
       </c>
     </row>
-    <row r="505" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:17" ht="15" customHeight="1">
       <c r="A505" s="3">
         <v>12</v>
       </c>
@@ -36511,7 +36506,7 @@
         <v>2765</v>
       </c>
     </row>
-    <row r="506" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:17" ht="15" customHeight="1">
       <c r="A506" s="3">
         <v>12</v>
       </c>
@@ -36561,7 +36556,7 @@
         <v>2766</v>
       </c>
     </row>
-    <row r="507" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:17" ht="15" customHeight="1">
       <c r="A507" s="3">
         <v>12</v>
       </c>
@@ -36614,7 +36609,7 @@
         <v>2767</v>
       </c>
     </row>
-    <row r="508" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:17" ht="15" customHeight="1">
       <c r="A508" s="3">
         <v>12</v>
       </c>
@@ -36667,7 +36662,7 @@
         <v>2768</v>
       </c>
     </row>
-    <row r="509" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:17" ht="15" customHeight="1">
       <c r="A509" s="3">
         <v>4</v>
       </c>
@@ -36717,7 +36712,7 @@
         <v>2351</v>
       </c>
     </row>
-    <row r="510" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:17" ht="15" customHeight="1">
       <c r="A510" s="3">
         <v>4</v>
       </c>
@@ -36767,7 +36762,7 @@
         <v>2352</v>
       </c>
     </row>
-    <row r="511" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:17" ht="15" customHeight="1">
       <c r="A511" s="3">
         <v>22</v>
       </c>
@@ -36820,7 +36815,7 @@
         <v>2353</v>
       </c>
     </row>
-    <row r="512" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:17" ht="15" customHeight="1">
       <c r="A512" s="3">
         <v>22</v>
       </c>
@@ -36873,7 +36868,7 @@
         <v>2354</v>
       </c>
     </row>
-    <row r="513" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:17" ht="15" customHeight="1">
       <c r="A513" s="3">
         <v>12</v>
       </c>
@@ -36926,7 +36921,7 @@
         <v>2769</v>
       </c>
     </row>
-    <row r="514" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:17" ht="15" customHeight="1">
       <c r="A514" s="3">
         <v>12</v>
       </c>
@@ -36979,7 +36974,7 @@
         <v>2770</v>
       </c>
     </row>
-    <row r="515" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:17" ht="15" customHeight="1">
       <c r="A515" s="3">
         <v>3</v>
       </c>
@@ -37035,7 +37030,7 @@
         <v>2771</v>
       </c>
     </row>
-    <row r="516" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:17" ht="15" customHeight="1">
       <c r="A516" s="3">
         <v>3</v>
       </c>
@@ -37088,7 +37083,7 @@
         <v>2358</v>
       </c>
     </row>
-    <row r="517" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:17" ht="15" customHeight="1">
       <c r="A517" s="3">
         <v>12</v>
       </c>
@@ -37141,7 +37136,7 @@
         <v>2772</v>
       </c>
     </row>
-    <row r="518" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:17" ht="15" customHeight="1">
       <c r="A518" s="3">
         <v>12</v>
       </c>
@@ -37194,7 +37189,7 @@
         <v>2773</v>
       </c>
     </row>
-    <row r="519" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:17" ht="15" customHeight="1">
       <c r="A519" s="3">
         <v>12</v>
       </c>
@@ -37247,7 +37242,7 @@
         <v>2774</v>
       </c>
     </row>
-    <row r="520" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:17" ht="15" customHeight="1">
       <c r="A520" s="3">
         <v>12</v>
       </c>
@@ -37300,7 +37295,7 @@
         <v>2775</v>
       </c>
     </row>
-    <row r="521" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:17" ht="15" customHeight="1">
       <c r="A521" s="3">
         <v>11</v>
       </c>
@@ -37353,7 +37348,7 @@
         <v>2776</v>
       </c>
     </row>
-    <row r="522" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:17" ht="15" customHeight="1">
       <c r="A522" s="3">
         <v>13</v>
       </c>
@@ -37403,7 +37398,7 @@
         <v>2777</v>
       </c>
     </row>
-    <row r="523" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:17" ht="15" customHeight="1">
       <c r="A523" s="3">
         <v>13</v>
       </c>
@@ -37456,7 +37451,7 @@
         <v>2778</v>
       </c>
     </row>
-    <row r="524" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:17" ht="15" customHeight="1">
       <c r="A524" s="3">
         <v>8</v>
       </c>
@@ -37509,7 +37504,7 @@
         <v>2779</v>
       </c>
     </row>
-    <row r="525" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:17" ht="15" customHeight="1">
       <c r="A525" s="3">
         <v>17</v>
       </c>
@@ -37562,7 +37557,7 @@
         <v>2780</v>
       </c>
     </row>
-    <row r="526" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:17" ht="15" customHeight="1">
       <c r="A526" s="3">
         <v>17</v>
       </c>
@@ -37615,7 +37610,7 @@
         <v>2781</v>
       </c>
     </row>
-    <row r="527" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:17" ht="15" customHeight="1">
       <c r="A527" s="3">
         <v>4</v>
       </c>
@@ -37665,7 +37660,7 @@
         <v>2782</v>
       </c>
     </row>
-    <row r="528" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:17" ht="15" customHeight="1">
       <c r="A528" s="3">
         <v>8</v>
       </c>
@@ -37718,7 +37713,7 @@
         <v>2783</v>
       </c>
     </row>
-    <row r="529" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:17" ht="15" customHeight="1">
       <c r="A529" s="3">
         <v>8</v>
       </c>
@@ -37771,7 +37766,7 @@
         <v>2784</v>
       </c>
     </row>
-    <row r="530" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:17" ht="15" customHeight="1">
       <c r="A530" s="3">
         <v>12</v>
       </c>
@@ -37824,7 +37819,7 @@
         <v>2785</v>
       </c>
     </row>
-    <row r="531" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:17" ht="15" customHeight="1">
       <c r="A531" s="3">
         <v>8</v>
       </c>
@@ -37877,7 +37872,7 @@
         <v>2786</v>
       </c>
     </row>
-    <row r="532" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:17" ht="15" customHeight="1">
       <c r="A532" s="3">
         <v>8</v>
       </c>
@@ -37927,7 +37922,7 @@
         <v>2787</v>
       </c>
     </row>
-    <row r="533" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:17" ht="15" customHeight="1">
       <c r="A533" s="3">
         <v>8</v>
       </c>
@@ -37980,7 +37975,7 @@
         <v>2788</v>
       </c>
     </row>
-    <row r="534" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:17" ht="15" customHeight="1">
       <c r="A534" s="3">
         <v>11</v>
       </c>
@@ -38033,7 +38028,7 @@
         <v>2789</v>
       </c>
     </row>
-    <row r="535" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:17" ht="15" customHeight="1">
       <c r="A535" s="3">
         <v>22</v>
       </c>
@@ -38083,7 +38078,7 @@
         <v>2377</v>
       </c>
     </row>
-    <row r="536" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:17" ht="15" customHeight="1">
       <c r="A536" s="3">
         <v>4</v>
       </c>
@@ -38133,7 +38128,7 @@
         <v>2378</v>
       </c>
     </row>
-    <row r="537" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:17" ht="15" customHeight="1">
       <c r="A537" s="3">
         <v>22</v>
       </c>
@@ -38186,7 +38181,7 @@
         <v>2790</v>
       </c>
     </row>
-    <row r="538" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:17" ht="15" customHeight="1">
       <c r="A538" s="3">
         <v>22</v>
       </c>
@@ -38236,7 +38231,7 @@
         <v>2380</v>
       </c>
     </row>
-    <row r="539" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:17" ht="15" customHeight="1">
       <c r="A539" s="3">
         <v>22</v>
       </c>
@@ -38289,7 +38284,7 @@
         <v>2381</v>
       </c>
     </row>
-    <row r="540" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:17" ht="15" customHeight="1">
       <c r="A540" s="3">
         <v>22</v>
       </c>
@@ -38342,7 +38337,7 @@
         <v>2382</v>
       </c>
     </row>
-    <row r="541" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:17" ht="15" customHeight="1">
       <c r="A541" s="3">
         <v>4</v>
       </c>
@@ -38392,7 +38387,7 @@
         <v>2383</v>
       </c>
     </row>
-    <row r="542" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:17" ht="15" customHeight="1">
       <c r="A542" s="3">
         <v>4</v>
       </c>
@@ -38442,7 +38437,7 @@
         <v>2384</v>
       </c>
     </row>
-    <row r="543" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:17" ht="15" customHeight="1">
       <c r="A543" s="3">
         <v>4</v>
       </c>
@@ -38492,7 +38487,7 @@
         <v>2385</v>
       </c>
     </row>
-    <row r="544" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:17" ht="15" customHeight="1">
       <c r="A544" s="3">
         <v>4</v>
       </c>
@@ -38545,7 +38540,7 @@
         <v>2386</v>
       </c>
     </row>
-    <row r="545" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:17" ht="15" customHeight="1">
       <c r="A545" s="3">
         <v>4</v>
       </c>
@@ -38598,7 +38593,7 @@
         <v>2387</v>
       </c>
     </row>
-    <row r="546" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:17" ht="15" customHeight="1">
       <c r="A546" s="3">
         <v>4</v>
       </c>
@@ -38651,7 +38646,7 @@
         <v>2791</v>
       </c>
     </row>
-    <row r="547" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:17" ht="15" customHeight="1">
       <c r="A547" s="3">
         <v>4</v>
       </c>
@@ -38704,7 +38699,7 @@
         <v>2792</v>
       </c>
     </row>
-    <row r="548" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:17" ht="15" customHeight="1">
       <c r="A548" s="3">
         <v>22</v>
       </c>
@@ -38754,7 +38749,7 @@
         <v>2390</v>
       </c>
     </row>
-    <row r="549" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:17" ht="15" customHeight="1">
       <c r="A549" s="3">
         <v>8</v>
       </c>
@@ -38807,7 +38802,7 @@
         <v>2793</v>
       </c>
     </row>
-    <row r="550" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:17" ht="15" customHeight="1">
       <c r="A550" s="3">
         <v>4</v>
       </c>
@@ -38857,7 +38852,7 @@
         <v>2392</v>
       </c>
     </row>
-    <row r="551" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:17" ht="15" customHeight="1">
       <c r="A551" s="3">
         <v>22</v>
       </c>
@@ -38910,7 +38905,7 @@
         <v>2393</v>
       </c>
     </row>
-    <row r="552" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:17" ht="15" customHeight="1">
       <c r="A552" s="3">
         <v>22</v>
       </c>
@@ -38963,7 +38958,7 @@
         <v>2794</v>
       </c>
     </row>
-    <row r="553" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:17" ht="15" customHeight="1">
       <c r="A553" s="3">
         <v>22</v>
       </c>
@@ -39016,7 +39011,7 @@
         <v>2795</v>
       </c>
     </row>
-    <row r="554" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:17" ht="15" customHeight="1">
       <c r="A554" s="3">
         <v>22</v>
       </c>
@@ -39069,7 +39064,7 @@
         <v>2796</v>
       </c>
     </row>
-    <row r="555" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:17" ht="15" customHeight="1">
       <c r="A555" s="3">
         <v>22</v>
       </c>
@@ -39122,7 +39117,7 @@
         <v>2797</v>
       </c>
     </row>
-    <row r="556" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:17" ht="15" customHeight="1">
       <c r="A556" s="3">
         <v>22</v>
       </c>
@@ -39175,7 +39170,7 @@
         <v>2398</v>
       </c>
     </row>
-    <row r="557" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:17" ht="15" customHeight="1">
       <c r="A557" s="3">
         <v>22</v>
       </c>
@@ -39228,7 +39223,7 @@
         <v>2399</v>
       </c>
     </row>
-    <row r="558" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:17" ht="15" customHeight="1">
       <c r="A558" s="3">
         <v>22</v>
       </c>
@@ -39281,7 +39276,7 @@
         <v>2400</v>
       </c>
     </row>
-    <row r="559" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:17" ht="15" customHeight="1">
       <c r="A559" s="3">
         <v>22</v>
       </c>
@@ -39337,7 +39332,7 @@
         <v>2798</v>
       </c>
     </row>
-    <row r="560" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:17" ht="15" customHeight="1">
       <c r="A560" s="3">
         <v>3</v>
       </c>
@@ -39390,7 +39385,7 @@
         <v>2402</v>
       </c>
     </row>
-    <row r="561" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:17" ht="15" customHeight="1">
       <c r="A561" s="3">
         <v>8</v>
       </c>
@@ -39443,7 +39438,7 @@
         <v>2799</v>
       </c>
     </row>
-    <row r="562" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:17" ht="15" customHeight="1">
       <c r="A562" s="3">
         <v>22</v>
       </c>
@@ -39496,7 +39491,7 @@
         <v>2404</v>
       </c>
     </row>
-    <row r="563" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:17" ht="15" customHeight="1">
       <c r="A563" s="3">
         <v>22</v>
       </c>
@@ -39549,7 +39544,7 @@
         <v>2405</v>
       </c>
     </row>
-    <row r="564" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:17">
       <c r="A564" s="3">
         <v>45</v>
       </c>
@@ -39599,7 +39594,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="565" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:17" ht="15" customHeight="1">
       <c r="A565" s="3">
         <v>8</v>
       </c>
@@ -39652,7 +39647,7 @@
         <v>2800</v>
       </c>
     </row>
-    <row r="566" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:17">
       <c r="A566" s="3">
         <v>45</v>
       </c>
@@ -39708,7 +39703,7 @@
         <v>2408</v>
       </c>
     </row>
-    <row r="567" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:17">
       <c r="A567" s="3">
         <v>45</v>
       </c>
@@ -39761,7 +39756,7 @@
         <v>2409</v>
       </c>
     </row>
-    <row r="568" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:17">
       <c r="A568" s="3">
         <v>45</v>
       </c>
@@ -39811,7 +39806,7 @@
         <v>2410</v>
       </c>
     </row>
-    <row r="569" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:17">
       <c r="A569" s="3">
         <v>45</v>
       </c>
@@ -39861,7 +39856,7 @@
         <v>2411</v>
       </c>
     </row>
-    <row r="570" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:17">
       <c r="A570" s="3">
         <v>45</v>
       </c>
@@ -39911,7 +39906,7 @@
         <v>2412</v>
       </c>
     </row>
-    <row r="571" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:17" ht="15" customHeight="1">
       <c r="A571" s="3">
         <v>13</v>
       </c>
@@ -39961,7 +39956,7 @@
         <v>2801</v>
       </c>
     </row>
-    <row r="572" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:17">
       <c r="A572" s="3">
         <v>45</v>
       </c>
@@ -40011,7 +40006,7 @@
         <v>2802</v>
       </c>
     </row>
-    <row r="573" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:17">
       <c r="A573" s="3">
         <v>45</v>
       </c>
@@ -40064,7 +40059,7 @@
         <v>2415</v>
       </c>
     </row>
-    <row r="574" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:17">
       <c r="A574" s="3">
         <v>45</v>
       </c>
@@ -40117,7 +40112,7 @@
         <v>2416</v>
       </c>
     </row>
-    <row r="575" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:17">
       <c r="A575" s="3">
         <v>45</v>
       </c>
@@ -40170,7 +40165,7 @@
         <v>2417</v>
       </c>
     </row>
-    <row r="576" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:17" ht="15" customHeight="1">
       <c r="A576" s="3">
         <v>3</v>
       </c>
@@ -40220,7 +40215,7 @@
         <v>2803</v>
       </c>
     </row>
-    <row r="577" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:17" ht="15" customHeight="1">
       <c r="A577" s="3">
         <v>13</v>
       </c>
@@ -40270,7 +40265,7 @@
         <v>2804</v>
       </c>
     </row>
-    <row r="578" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:17" ht="15" customHeight="1">
       <c r="A578" s="3">
         <v>13</v>
       </c>
@@ -40323,7 +40318,7 @@
         <v>2805</v>
       </c>
     </row>
-    <row r="579" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:17" ht="15" customHeight="1">
       <c r="A579" s="3">
         <v>3</v>
       </c>
@@ -40373,7 +40368,7 @@
         <v>2806</v>
       </c>
     </row>
-    <row r="580" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:17" ht="15" customHeight="1">
       <c r="A580" s="3">
         <v>13</v>
       </c>
@@ -40423,7 +40418,7 @@
         <v>2807</v>
       </c>
     </row>
-    <row r="581" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:17" ht="15" customHeight="1">
       <c r="A581" s="3">
         <v>13</v>
       </c>
@@ -40476,7 +40471,7 @@
         <v>2808</v>
       </c>
     </row>
-    <row r="582" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:17" ht="15" customHeight="1">
       <c r="A582" s="3">
         <v>13</v>
       </c>
@@ -40529,7 +40524,7 @@
         <v>2809</v>
       </c>
     </row>
-    <row r="583" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:17" ht="15" customHeight="1">
       <c r="A583" s="3">
         <v>8</v>
       </c>
@@ -40582,7 +40577,7 @@
         <v>2810</v>
       </c>
     </row>
-    <row r="584" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:17" ht="15" customHeight="1">
       <c r="A584" s="3">
         <v>13</v>
       </c>
@@ -40635,7 +40630,7 @@
         <v>2811</v>
       </c>
     </row>
-    <row r="585" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:17" ht="15" customHeight="1">
       <c r="A585" s="3">
         <v>13</v>
       </c>
@@ -40688,7 +40683,7 @@
         <v>2812</v>
       </c>
     </row>
-    <row r="586" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:17" ht="15" customHeight="1">
       <c r="A586" s="3">
         <v>13</v>
       </c>
@@ -40738,7 +40733,7 @@
         <v>2813</v>
       </c>
     </row>
-    <row r="587" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:17" ht="15" customHeight="1">
       <c r="A587" s="3">
         <v>13</v>
       </c>
@@ -40791,7 +40786,7 @@
         <v>2814</v>
       </c>
     </row>
-    <row r="588" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:17" ht="15" customHeight="1">
       <c r="A588" s="3">
         <v>13</v>
       </c>
@@ -40844,7 +40839,7 @@
         <v>2815</v>
       </c>
     </row>
-    <row r="589" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:17" ht="15" customHeight="1">
       <c r="A589" s="3">
         <v>13</v>
       </c>
@@ -40894,7 +40889,7 @@
         <v>2816</v>
       </c>
     </row>
-    <row r="590" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:17" ht="15" customHeight="1">
       <c r="A590" s="3">
         <v>17</v>
       </c>
@@ -40950,7 +40945,7 @@
         <v>2817</v>
       </c>
     </row>
-    <row r="591" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:17" ht="15" customHeight="1">
       <c r="A591" s="3">
         <v>8</v>
       </c>
@@ -41000,7 +40995,7 @@
         <v>2818</v>
       </c>
     </row>
-    <row r="592" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:17">
       <c r="A592" s="3">
         <v>12</v>
       </c>
@@ -41056,7 +41051,7 @@
         <v>3069</v>
       </c>
     </row>
-    <row r="593" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:17">
       <c r="A593" s="3">
         <v>12</v>
       </c>
@@ -41112,7 +41107,7 @@
         <v>3070</v>
       </c>
     </row>
-    <row r="594" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:17" ht="15" customHeight="1">
       <c r="A594" s="3">
         <v>11</v>
       </c>
@@ -41168,7 +41163,7 @@
         <v>3086</v>
       </c>
     </row>
-    <row r="595" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:17" ht="15" customHeight="1">
       <c r="A595" s="3">
         <v>11</v>
       </c>
@@ -41224,7 +41219,7 @@
         <v>3087</v>
       </c>
     </row>
-    <row r="596" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:17" ht="15" customHeight="1">
       <c r="A596" s="3">
         <v>11</v>
       </c>
@@ -41280,24 +41275,24 @@
         <v>3085</v>
       </c>
     </row>
-    <row r="597" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="598" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="599" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="600" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="601" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="602" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="603" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="604" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="605" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="606" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="607" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="608" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="609" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="610" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="611" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="612" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="597" spans="1:17" ht="15" customHeight="1"/>
+    <row r="598" spans="1:17" ht="15" customHeight="1"/>
+    <row r="599" spans="1:17" ht="15" customHeight="1"/>
+    <row r="600" spans="1:17" ht="15" customHeight="1"/>
+    <row r="601" spans="1:17" ht="15" customHeight="1"/>
+    <row r="602" spans="1:17" ht="15" customHeight="1"/>
+    <row r="603" spans="1:17" ht="15" customHeight="1"/>
+    <row r="604" spans="1:17" ht="15" customHeight="1"/>
+    <row r="605" spans="1:17" ht="15" customHeight="1"/>
+    <row r="606" spans="1:17" ht="15" customHeight="1"/>
+    <row r="607" spans="1:17" ht="15" customHeight="1"/>
+    <row r="608" spans="1:17" ht="15" customHeight="1"/>
+    <row r="609" ht="15" customHeight="1"/>
+    <row r="610" ht="15" customHeight="1"/>
+    <row r="611" ht="15" customHeight="1"/>
+    <row r="612" ht="15" customHeight="1"/>
   </sheetData>
-  <autoFilter ref="A1:Q593"/>
+  <autoFilter ref="A1:Q596"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/update_db/items.xlsx
+++ b/update_db/items.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6357" uniqueCount="3088">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6357" uniqueCount="3089">
   <si>
     <t>Браслет - кожаный шнур Спаси и Сохрани</t>
   </si>
@@ -9148,9 +9148,6 @@
   </si>
   <si>
     <t>Размер ушка: 6 * 4 мм</t>
-  </si>
-  <si>
-    <t>литье, ручная работа</t>
   </si>
   <si>
     <t>горячая перегородчатая эмаль, ручная работа</t>
@@ -9232,15 +9229,6 @@
     <t>литье, покрытие золочение, чернение, ручная работа</t>
   </si>
   <si>
-    <t>литье, золочение, ручная работа</t>
-  </si>
-  <si>
-    <t>podveska-pudo-svyatitelya-spiridona-205</t>
-  </si>
-  <si>
-    <t>podveska-pudo-svyatitelya-spiridona-205p</t>
-  </si>
-  <si>
     <t>Подвеска Чудо Святителя Спиридона «Стоптанный тапочек»</t>
   </si>
   <si>
@@ -9251,9 +9239,6 @@
   </si>
   <si>
     <t>22 * 11 * 8 мм</t>
-  </si>
-  <si>
-    <t>Шнур или цепь в комплект не входит</t>
   </si>
   <si>
     <t>Святитель Спиридон Тримифунтский – защитник Православия. Святость его была неопровержима ещё и при жизни, а чудеса его совершаются и поныне. В 325 году на 1 Вселенском Соборе святой Спиридон наглядно доказал еретикам Единство во Святой Троице. Этот сюжет из жизни святого в историю вошёл как «случай с кирпичом». Он взял в руки кирпич и стиснул его: мгновенно вышел из него вверх огонь, вниз потекла вода, а глина осталась в руках Чудотворца. «Се три стихии, а кирпич один, а Божество Едино». Поэтому изделие имеет форму кирпича.
@@ -9283,9 +9268,6 @@
     <t>16.00 г</t>
   </si>
   <si>
-    <t>Длина шнура 60, 65 см. В комплекте к мощевику идет шнур с переходником.</t>
-  </si>
-  <si>
     <t>kirpich-spiridona-trimifuntskogo-so-shnurom-185-1;kirpich-spiridona-trimifuntskogo-so-shnurom-185-1_2</t>
   </si>
   <si>
@@ -9293,6 +9275,27 @@
   </si>
   <si>
     <t>kirpich-spiridona-trimifuntskogo-185p;kirpich-spiridona-trimifuntskogo-185p_2;kirpich-spiridona-trimifuntskogo-185p_3</t>
+  </si>
+  <si>
+    <t>podveska-chudo-svyatitelya-spiridona-205</t>
+  </si>
+  <si>
+    <t>podveska-chudo-svyatitelya-spiridona-205p</t>
+  </si>
+  <si>
+    <t>&lt;span class="red"&gt;Шнур или цепь в комплект не входит&lt;/span&gt;</t>
+  </si>
+  <si>
+    <t>Длина шнура 60, 65 см. &lt;br/&gt;&lt;span class="green"&gt;В комплекте к мощевику идет шнур с переходником.&lt;/span&gt;</t>
+  </si>
+  <si>
+    <t>литье, чернение, золочение, ручная работа</t>
+  </si>
+  <si>
+    <t>podveska-chudo-svyatitelya-spiridona-205;podveska-chudo-svyatitelya-spiridona-205_2</t>
+  </si>
+  <si>
+    <t>podveska-chudo-svyatitelya-spiridona-205p;podveska-chudo-svyatitelya-spiridona-205p_2</t>
   </si>
 </sst>
 </file>
@@ -9635,7 +9638,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -9645,9 +9648,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q612"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J8" sqref="J8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="H573" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="N594" sqref="N594"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9810,7 +9815,7 @@
         <v>14</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>3046</v>
+        <v>3045</v>
       </c>
       <c r="Q3" t="s">
         <v>1846</v>
@@ -9859,7 +9864,7 @@
         <v>14</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>3046</v>
+        <v>3045</v>
       </c>
       <c r="Q4" t="s">
         <v>2435</v>
@@ -10067,7 +10072,7 @@
         <v>14</v>
       </c>
       <c r="O8" s="3" t="s">
-        <v>3047</v>
+        <v>3046</v>
       </c>
       <c r="P8" t="s">
         <v>649</v>
@@ -10119,7 +10124,7 @@
         <v>14</v>
       </c>
       <c r="O9" s="3" t="s">
-        <v>3047</v>
+        <v>3046</v>
       </c>
       <c r="P9" t="s">
         <v>651</v>
@@ -10171,7 +10176,7 @@
         <v>14</v>
       </c>
       <c r="O10" s="3" t="s">
-        <v>3047</v>
+        <v>3046</v>
       </c>
       <c r="P10" t="s">
         <v>653</v>
@@ -10225,7 +10230,7 @@
         <v>14</v>
       </c>
       <c r="O11" s="3" t="s">
-        <v>3047</v>
+        <v>3046</v>
       </c>
       <c r="P11" t="s">
         <v>918</v>
@@ -10333,7 +10338,7 @@
         <v>14</v>
       </c>
       <c r="O13" s="3" t="s">
-        <v>3048</v>
+        <v>3047</v>
       </c>
       <c r="P13" t="s">
         <v>922</v>
@@ -10437,7 +10442,7 @@
         <v>926</v>
       </c>
       <c r="O15" s="3" t="s">
-        <v>3049</v>
+        <v>3048</v>
       </c>
       <c r="P15" t="s">
         <v>26</v>
@@ -10489,7 +10494,7 @@
         <v>14</v>
       </c>
       <c r="O16" s="3" t="s">
-        <v>3050</v>
+        <v>3049</v>
       </c>
       <c r="P16" t="s">
         <v>928</v>
@@ -10703,7 +10708,7 @@
         <v>32</v>
       </c>
       <c r="O20" s="3" t="s">
-        <v>3051</v>
+        <v>3050</v>
       </c>
       <c r="P20" t="s">
         <v>933</v>
@@ -10919,7 +10924,7 @@
         <v>22</v>
       </c>
       <c r="O24" s="3" t="s">
-        <v>3052</v>
+        <v>3051</v>
       </c>
       <c r="P24" t="s">
         <v>939</v>
@@ -11023,7 +11028,7 @@
         <v>14</v>
       </c>
       <c r="O26" s="3" t="s">
-        <v>3049</v>
+        <v>3048</v>
       </c>
       <c r="P26" t="s">
         <v>200</v>
@@ -11077,7 +11082,7 @@
         <v>47</v>
       </c>
       <c r="O27" s="3" t="s">
-        <v>3053</v>
+        <v>3052</v>
       </c>
       <c r="P27" t="s">
         <v>942</v>
@@ -11131,7 +11136,7 @@
         <v>32</v>
       </c>
       <c r="O28" s="3" t="s">
-        <v>3051</v>
+        <v>3050</v>
       </c>
       <c r="P28" t="s">
         <v>944</v>
@@ -11185,7 +11190,7 @@
         <v>14</v>
       </c>
       <c r="O29" s="3" t="s">
-        <v>3050</v>
+        <v>3049</v>
       </c>
       <c r="P29" t="s">
         <v>945</v>
@@ -11449,7 +11454,7 @@
         <v>14</v>
       </c>
       <c r="O34" s="3" t="s">
-        <v>3049</v>
+        <v>3048</v>
       </c>
       <c r="P34" t="s">
         <v>222</v>
@@ -11501,7 +11506,7 @@
         <v>14</v>
       </c>
       <c r="O35" s="3" t="s">
-        <v>3047</v>
+        <v>3046</v>
       </c>
       <c r="P35" t="s">
         <v>29</v>
@@ -11555,7 +11560,7 @@
         <v>32</v>
       </c>
       <c r="O36" s="3" t="s">
-        <v>3051</v>
+        <v>3050</v>
       </c>
       <c r="P36" t="s">
         <v>954</v>
@@ -11609,7 +11614,7 @@
         <v>32</v>
       </c>
       <c r="O37" s="3" t="s">
-        <v>3050</v>
+        <v>3049</v>
       </c>
       <c r="P37" t="s">
         <v>955</v>
@@ -11715,7 +11720,7 @@
         <v>47</v>
       </c>
       <c r="O39" s="3" t="s">
-        <v>3051</v>
+        <v>3050</v>
       </c>
       <c r="P39" t="s">
         <v>955</v>
@@ -11767,7 +11772,7 @@
         <v>958</v>
       </c>
       <c r="O40" s="3" t="s">
-        <v>3051</v>
+        <v>3050</v>
       </c>
       <c r="P40" t="s">
         <v>955</v>
@@ -11821,7 +11826,7 @@
         <v>32</v>
       </c>
       <c r="O41" s="3" t="s">
-        <v>3052</v>
+        <v>3051</v>
       </c>
       <c r="P41" t="s">
         <v>959</v>
@@ -11875,7 +11880,7 @@
         <v>14</v>
       </c>
       <c r="O42" s="3" t="s">
-        <v>3052</v>
+        <v>3051</v>
       </c>
       <c r="P42" t="s">
         <v>960</v>
@@ -11929,7 +11934,7 @@
         <v>14</v>
       </c>
       <c r="O43" s="3" t="s">
-        <v>3050</v>
+        <v>3049</v>
       </c>
       <c r="P43" t="s">
         <v>961</v>
@@ -11981,7 +11986,7 @@
         <v>14</v>
       </c>
       <c r="O44" s="3" t="s">
-        <v>3049</v>
+        <v>3048</v>
       </c>
       <c r="P44" t="s">
         <v>45</v>
@@ -12033,7 +12038,7 @@
         <v>14</v>
       </c>
       <c r="O45" s="3" t="s">
-        <v>3049</v>
+        <v>3048</v>
       </c>
       <c r="P45" t="s">
         <v>224</v>
@@ -12085,7 +12090,7 @@
         <v>14</v>
       </c>
       <c r="O46" s="3" t="s">
-        <v>3049</v>
+        <v>3048</v>
       </c>
       <c r="P46" t="s">
         <v>224</v>
@@ -12139,7 +12144,7 @@
         <v>47</v>
       </c>
       <c r="O47" s="3" t="s">
-        <v>3050</v>
+        <v>3049</v>
       </c>
       <c r="P47" t="s">
         <v>963</v>
@@ -12193,7 +12198,7 @@
         <v>14</v>
       </c>
       <c r="O48" s="3" t="s">
-        <v>3050</v>
+        <v>3049</v>
       </c>
       <c r="P48" t="s">
         <v>963</v>
@@ -12247,7 +12252,7 @@
         <v>14</v>
       </c>
       <c r="O49" s="3" t="s">
-        <v>3048</v>
+        <v>3047</v>
       </c>
       <c r="P49" t="s">
         <v>965</v>
@@ -12301,7 +12306,7 @@
         <v>22</v>
       </c>
       <c r="O50" s="3" t="s">
-        <v>3052</v>
+        <v>3051</v>
       </c>
       <c r="P50" t="s">
         <v>939</v>
@@ -12355,7 +12360,7 @@
         <v>14</v>
       </c>
       <c r="O51" s="3" t="s">
-        <v>3050</v>
+        <v>3049</v>
       </c>
       <c r="P51" t="s">
         <v>966</v>
@@ -12409,7 +12414,7 @@
         <v>47</v>
       </c>
       <c r="O52" s="3" t="s">
-        <v>3054</v>
+        <v>3053</v>
       </c>
       <c r="P52" t="s">
         <v>966</v>
@@ -12461,7 +12466,7 @@
         <v>14</v>
       </c>
       <c r="O53" s="3" t="s">
-        <v>3050</v>
+        <v>3049</v>
       </c>
       <c r="P53" t="s">
         <v>968</v>
@@ -12565,7 +12570,7 @@
         <v>14</v>
       </c>
       <c r="O55" s="3" t="s">
-        <v>3049</v>
+        <v>3048</v>
       </c>
       <c r="P55" t="s">
         <v>71</v>
@@ -12619,7 +12624,7 @@
         <v>14</v>
       </c>
       <c r="O56" s="3" t="s">
-        <v>3050</v>
+        <v>3049</v>
       </c>
       <c r="P56" t="s">
         <v>970</v>
@@ -12723,7 +12728,7 @@
         <v>14</v>
       </c>
       <c r="O58" s="3" t="s">
-        <v>3049</v>
+        <v>3048</v>
       </c>
       <c r="P58" t="s">
         <v>226</v>
@@ -12775,7 +12780,7 @@
         <v>14</v>
       </c>
       <c r="O59" s="3" t="s">
-        <v>3049</v>
+        <v>3048</v>
       </c>
       <c r="P59" t="s">
         <v>226</v>
@@ -12935,7 +12940,7 @@
         <v>32</v>
       </c>
       <c r="O62" s="3" t="s">
-        <v>3050</v>
+        <v>3049</v>
       </c>
       <c r="P62" t="s">
         <v>972</v>
@@ -12989,7 +12994,7 @@
         <v>47</v>
       </c>
       <c r="O63" s="3" t="s">
-        <v>3050</v>
+        <v>3049</v>
       </c>
       <c r="P63" t="s">
         <v>972</v>
@@ -13043,7 +13048,7 @@
         <v>14</v>
       </c>
       <c r="O64" s="3" t="s">
-        <v>3050</v>
+        <v>3049</v>
       </c>
       <c r="P64" t="s">
         <v>973</v>
@@ -13097,7 +13102,7 @@
         <v>32</v>
       </c>
       <c r="O65" s="3" t="s">
-        <v>3055</v>
+        <v>3054</v>
       </c>
       <c r="P65" t="s">
         <v>974</v>
@@ -13151,7 +13156,7 @@
         <v>14</v>
       </c>
       <c r="O66" s="3" t="s">
-        <v>3052</v>
+        <v>3051</v>
       </c>
       <c r="P66" t="s">
         <v>975</v>
@@ -13313,7 +13318,7 @@
         <v>14</v>
       </c>
       <c r="O69" s="3" t="s">
-        <v>3052</v>
+        <v>3051</v>
       </c>
       <c r="P69" t="s">
         <v>977</v>
@@ -13473,7 +13478,7 @@
         <v>926</v>
       </c>
       <c r="O72" s="3" t="s">
-        <v>3049</v>
+        <v>3048</v>
       </c>
       <c r="P72" t="s">
         <v>75</v>
@@ -13747,7 +13752,7 @@
         <v>14</v>
       </c>
       <c r="O77" s="3" t="s">
-        <v>3056</v>
+        <v>3055</v>
       </c>
       <c r="P77" t="s">
         <v>984</v>
@@ -13853,7 +13858,7 @@
         <v>14</v>
       </c>
       <c r="O79" s="3" t="s">
-        <v>3049</v>
+        <v>3048</v>
       </c>
       <c r="P79" t="s">
         <v>85</v>
@@ -14065,7 +14070,7 @@
         <v>14</v>
       </c>
       <c r="O83" s="3" t="s">
-        <v>3049</v>
+        <v>3048</v>
       </c>
       <c r="P83" t="s">
         <v>87</v>
@@ -14117,7 +14122,7 @@
         <v>14</v>
       </c>
       <c r="O84" s="3" t="s">
-        <v>3049</v>
+        <v>3048</v>
       </c>
       <c r="P84" t="s">
         <v>87</v>
@@ -14275,7 +14280,7 @@
         <v>14</v>
       </c>
       <c r="O87" s="3" t="s">
-        <v>3049</v>
+        <v>3048</v>
       </c>
       <c r="P87" t="s">
         <v>91</v>
@@ -14329,7 +14334,7 @@
         <v>14</v>
       </c>
       <c r="O88" s="3" t="s">
-        <v>3052</v>
+        <v>3051</v>
       </c>
       <c r="P88" t="s">
         <v>989</v>
@@ -14383,7 +14388,7 @@
         <v>32</v>
       </c>
       <c r="O89" s="3" t="s">
-        <v>3057</v>
+        <v>3056</v>
       </c>
       <c r="P89" t="s">
         <v>990</v>
@@ -14757,7 +14762,7 @@
         <v>32</v>
       </c>
       <c r="O96" s="3" t="s">
-        <v>3050</v>
+        <v>3049</v>
       </c>
       <c r="P96" t="s">
         <v>998</v>
@@ -14811,7 +14816,7 @@
         <v>47</v>
       </c>
       <c r="O97" s="3" t="s">
-        <v>3050</v>
+        <v>3049</v>
       </c>
       <c r="P97" t="s">
         <v>999</v>
@@ -14919,7 +14924,7 @@
         <v>14</v>
       </c>
       <c r="O99" s="3" t="s">
-        <v>3052</v>
+        <v>3051</v>
       </c>
       <c r="P99" t="s">
         <v>1002</v>
@@ -14973,7 +14978,7 @@
         <v>14</v>
       </c>
       <c r="O100" s="3" t="s">
-        <v>3050</v>
+        <v>3049</v>
       </c>
       <c r="P100" t="s">
         <v>1003</v>
@@ -15247,7 +15252,7 @@
         <v>14</v>
       </c>
       <c r="O105" s="3" t="s">
-        <v>3046</v>
+        <v>3045</v>
       </c>
       <c r="P105" t="s">
         <v>1007</v>
@@ -15459,7 +15464,7 @@
         <v>14</v>
       </c>
       <c r="O109" s="3" t="s">
-        <v>3046</v>
+        <v>3045</v>
       </c>
       <c r="Q109" t="s">
         <v>2473</v>
@@ -15508,7 +15513,7 @@
         <v>14</v>
       </c>
       <c r="O110" s="3" t="s">
-        <v>3049</v>
+        <v>3048</v>
       </c>
       <c r="P110" t="s">
         <v>96</v>
@@ -15666,7 +15671,7 @@
         <v>14</v>
       </c>
       <c r="O113" s="3" t="s">
-        <v>3049</v>
+        <v>3048</v>
       </c>
       <c r="P113" t="s">
         <v>100</v>
@@ -15878,7 +15883,7 @@
         <v>1018</v>
       </c>
       <c r="O117" s="3" t="s">
-        <v>3049</v>
+        <v>3048</v>
       </c>
       <c r="P117" t="s">
         <v>103</v>
@@ -16090,7 +16095,7 @@
         <v>14</v>
       </c>
       <c r="O121" s="3" t="s">
-        <v>3049</v>
+        <v>3048</v>
       </c>
       <c r="P121" t="s">
         <v>107</v>
@@ -16142,7 +16147,7 @@
         <v>14</v>
       </c>
       <c r="O122" s="3" t="s">
-        <v>3049</v>
+        <v>3048</v>
       </c>
       <c r="P122" t="s">
         <v>107</v>
@@ -16678,7 +16683,7 @@
         <v>14</v>
       </c>
       <c r="O132" s="3" t="s">
-        <v>3049</v>
+        <v>3048</v>
       </c>
       <c r="P132" t="s">
         <v>122</v>
@@ -16786,7 +16791,7 @@
         <v>14</v>
       </c>
       <c r="O134" s="3" t="s">
-        <v>3049</v>
+        <v>3048</v>
       </c>
       <c r="P134" t="s">
         <v>1031</v>
@@ -16838,7 +16843,7 @@
         <v>14</v>
       </c>
       <c r="O135" s="3" t="s">
-        <v>3049</v>
+        <v>3048</v>
       </c>
       <c r="Q135" t="s">
         <v>2482</v>
@@ -16887,7 +16892,7 @@
         <v>14</v>
       </c>
       <c r="O136" s="3" t="s">
-        <v>3049</v>
+        <v>3048</v>
       </c>
       <c r="P136" t="s">
         <v>5</v>
@@ -17315,7 +17320,7 @@
         <v>12</v>
       </c>
       <c r="O144" s="3" t="s">
-        <v>3043</v>
+        <v>3042</v>
       </c>
       <c r="P144" t="s">
         <v>692</v>
@@ -17419,7 +17424,7 @@
         <v>14</v>
       </c>
       <c r="O146" s="3" t="s">
-        <v>3058</v>
+        <v>3057</v>
       </c>
       <c r="P146" t="s">
         <v>695</v>
@@ -17525,7 +17530,7 @@
         <v>14</v>
       </c>
       <c r="O148" s="3" t="s">
-        <v>3046</v>
+        <v>3045</v>
       </c>
       <c r="Q148" t="s">
         <v>2488</v>
@@ -17574,7 +17579,7 @@
         <v>14</v>
       </c>
       <c r="O149" s="3" t="s">
-        <v>3046</v>
+        <v>3045</v>
       </c>
       <c r="P149" t="s">
         <v>133</v>
@@ -17626,7 +17631,7 @@
         <v>14</v>
       </c>
       <c r="O150" s="3" t="s">
-        <v>3059</v>
+        <v>3058</v>
       </c>
       <c r="P150" t="s">
         <v>699</v>
@@ -17678,7 +17683,7 @@
         <v>14</v>
       </c>
       <c r="O151" s="3" t="s">
-        <v>3046</v>
+        <v>3045</v>
       </c>
       <c r="P151" t="s">
         <v>133</v>
@@ -18051,7 +18056,7 @@
         <v>14</v>
       </c>
       <c r="O158" s="3" t="s">
-        <v>3060</v>
+        <v>3059</v>
       </c>
       <c r="P158" t="s">
         <v>1056</v>
@@ -18103,7 +18108,7 @@
         <v>14</v>
       </c>
       <c r="O159" s="3" t="s">
-        <v>3047</v>
+        <v>3046</v>
       </c>
       <c r="P159" t="s">
         <v>130</v>
@@ -18475,7 +18480,7 @@
         <v>14</v>
       </c>
       <c r="O166" s="3" t="s">
-        <v>3049</v>
+        <v>3048</v>
       </c>
       <c r="P166" t="s">
         <v>702</v>
@@ -18527,7 +18532,7 @@
         <v>14</v>
       </c>
       <c r="O167" s="3" t="s">
-        <v>3047</v>
+        <v>3046</v>
       </c>
       <c r="P167" t="s">
         <v>136</v>
@@ -18793,7 +18798,7 @@
         <v>14</v>
       </c>
       <c r="O172" s="3" t="s">
-        <v>3049</v>
+        <v>3048</v>
       </c>
       <c r="P172" t="s">
         <v>705</v>
@@ -18845,7 +18850,7 @@
         <v>14</v>
       </c>
       <c r="O173" s="3" t="s">
-        <v>3049</v>
+        <v>3048</v>
       </c>
       <c r="P173" t="s">
         <v>705</v>
@@ -18897,7 +18902,7 @@
         <v>14</v>
       </c>
       <c r="O174" s="3" t="s">
-        <v>3049</v>
+        <v>3048</v>
       </c>
       <c r="P174" t="s">
         <v>161</v>
@@ -19435,7 +19440,7 @@
         <v>14</v>
       </c>
       <c r="O184" s="3" t="s">
-        <v>3049</v>
+        <v>3048</v>
       </c>
       <c r="P184" t="s">
         <v>161</v>
@@ -19487,7 +19492,7 @@
         <v>14</v>
       </c>
       <c r="O185" s="3" t="s">
-        <v>3047</v>
+        <v>3046</v>
       </c>
       <c r="P185" t="s">
         <v>143</v>
@@ -19705,7 +19710,7 @@
         <v>14</v>
       </c>
       <c r="O189" s="3" t="s">
-        <v>3047</v>
+        <v>3046</v>
       </c>
       <c r="P189" t="s">
         <v>164</v>
@@ -20832,7 +20837,7 @@
         <v>14</v>
       </c>
       <c r="O210" s="3" t="s">
-        <v>3049</v>
+        <v>3048</v>
       </c>
       <c r="P210" t="s">
         <v>174</v>
@@ -21152,7 +21157,7 @@
         <v>14</v>
       </c>
       <c r="O216" s="3" t="s">
-        <v>3049</v>
+        <v>3048</v>
       </c>
       <c r="P216" t="s">
         <v>1108</v>
@@ -21420,7 +21425,7 @@
         <v>14</v>
       </c>
       <c r="O221" s="3" t="s">
-        <v>3049</v>
+        <v>3048</v>
       </c>
       <c r="P221" t="s">
         <v>1115</v>
@@ -21474,7 +21479,7 @@
         <v>14</v>
       </c>
       <c r="O222" s="3" t="s">
-        <v>3049</v>
+        <v>3048</v>
       </c>
       <c r="P222" t="s">
         <v>1116</v>
@@ -21902,7 +21907,7 @@
         <v>926</v>
       </c>
       <c r="O230" s="3" t="s">
-        <v>3049</v>
+        <v>3048</v>
       </c>
       <c r="P230" t="s">
         <v>1128</v>
@@ -22172,7 +22177,7 @@
         <v>14</v>
       </c>
       <c r="O235" s="3" t="s">
-        <v>3049</v>
+        <v>3048</v>
       </c>
       <c r="P235" t="s">
         <v>1136</v>
@@ -22226,7 +22231,7 @@
         <v>14</v>
       </c>
       <c r="O236" s="3" t="s">
-        <v>3049</v>
+        <v>3048</v>
       </c>
       <c r="P236" t="s">
         <v>1138</v>
@@ -22550,7 +22555,7 @@
         <v>14</v>
       </c>
       <c r="O242" s="3" t="s">
-        <v>3049</v>
+        <v>3048</v>
       </c>
       <c r="P242" t="s">
         <v>1144</v>
@@ -22820,7 +22825,7 @@
         <v>14</v>
       </c>
       <c r="O247" s="3" t="s">
-        <v>3049</v>
+        <v>3048</v>
       </c>
       <c r="P247" t="s">
         <v>1150</v>
@@ -22872,7 +22877,7 @@
         <v>14</v>
       </c>
       <c r="O248" s="3" t="s">
-        <v>3049</v>
+        <v>3048</v>
       </c>
       <c r="P248" t="s">
         <v>1152</v>
@@ -23246,7 +23251,7 @@
         <v>14</v>
       </c>
       <c r="O255" s="3" t="s">
-        <v>3061</v>
+        <v>3060</v>
       </c>
       <c r="P255" t="s">
         <v>1161</v>
@@ -23622,7 +23627,7 @@
         <v>14</v>
       </c>
       <c r="O262" s="3" t="s">
-        <v>3058</v>
+        <v>3057</v>
       </c>
       <c r="P262" t="s">
         <v>1170</v>
@@ -23674,7 +23679,7 @@
         <v>14</v>
       </c>
       <c r="O263" s="3" t="s">
-        <v>3049</v>
+        <v>3048</v>
       </c>
       <c r="P263" t="s">
         <v>283</v>
@@ -25056,7 +25061,7 @@
         <v>14</v>
       </c>
       <c r="O289" s="3" t="s">
-        <v>3062</v>
+        <v>3061</v>
       </c>
       <c r="P289" t="s">
         <v>1190</v>
@@ -26396,7 +26401,7 @@
         <v>14</v>
       </c>
       <c r="O314" s="3" t="s">
-        <v>3056</v>
+        <v>3055</v>
       </c>
       <c r="P314" t="s">
         <v>1218</v>
@@ -26612,7 +26617,7 @@
         <v>14</v>
       </c>
       <c r="O318" s="3" t="s">
-        <v>3050</v>
+        <v>3049</v>
       </c>
       <c r="P318" t="s">
         <v>1225</v>
@@ -27424,7 +27429,7 @@
         <v>14</v>
       </c>
       <c r="O333" s="3" t="s">
-        <v>3050</v>
+        <v>3049</v>
       </c>
       <c r="P333" t="s">
         <v>1246</v>
@@ -27534,7 +27539,7 @@
         <v>14</v>
       </c>
       <c r="O335" s="3" t="s">
-        <v>3049</v>
+        <v>3048</v>
       </c>
       <c r="P335" t="s">
         <v>1249</v>
@@ -28392,7 +28397,7 @@
         <v>14</v>
       </c>
       <c r="O351" s="3" t="s">
-        <v>3050</v>
+        <v>3049</v>
       </c>
       <c r="P351" t="s">
         <v>1263</v>
@@ -28498,7 +28503,7 @@
         <v>14</v>
       </c>
       <c r="O353" s="3" t="s">
-        <v>3049</v>
+        <v>3048</v>
       </c>
       <c r="P353" t="s">
         <v>1264</v>
@@ -28552,7 +28557,7 @@
         <v>14</v>
       </c>
       <c r="O354" s="3" t="s">
-        <v>3049</v>
+        <v>3048</v>
       </c>
       <c r="P354" t="s">
         <v>1266</v>
@@ -28604,7 +28609,7 @@
         <v>14</v>
       </c>
       <c r="O355" s="3" t="s">
-        <v>3049</v>
+        <v>3048</v>
       </c>
       <c r="P355" t="s">
         <v>302</v>
@@ -29225,7 +29230,7 @@
         <v>14</v>
       </c>
       <c r="O367" t="s">
-        <v>3063</v>
+        <v>3062</v>
       </c>
       <c r="P367" t="s">
         <v>170</v>
@@ -29487,7 +29492,7 @@
         <v>14</v>
       </c>
       <c r="O372" t="s">
-        <v>3049</v>
+        <v>3048</v>
       </c>
       <c r="P372" t="s">
         <v>186</v>
@@ -32443,7 +32448,7 @@
         <v>14</v>
       </c>
       <c r="O428" t="s">
-        <v>3049</v>
+        <v>3048</v>
       </c>
       <c r="P428" t="s">
         <v>186</v>
@@ -34127,7 +34132,7 @@
         <v>14</v>
       </c>
       <c r="O460" t="s">
-        <v>3049</v>
+        <v>3048</v>
       </c>
       <c r="P460" t="s">
         <v>1379</v>
@@ -34180,7 +34185,7 @@
         <v>14</v>
       </c>
       <c r="O461" t="s">
-        <v>3049</v>
+        <v>3048</v>
       </c>
       <c r="P461" t="s">
         <v>1381</v>
@@ -34233,7 +34238,7 @@
         <v>14</v>
       </c>
       <c r="O462" t="s">
-        <v>3049</v>
+        <v>3048</v>
       </c>
       <c r="P462" t="s">
         <v>1383</v>
@@ -34286,7 +34291,7 @@
         <v>14</v>
       </c>
       <c r="O463" t="s">
-        <v>3049</v>
+        <v>3048</v>
       </c>
       <c r="P463" t="s">
         <v>1384</v>
@@ -34339,7 +34344,7 @@
         <v>14</v>
       </c>
       <c r="O464" t="s">
-        <v>3049</v>
+        <v>3048</v>
       </c>
       <c r="P464" t="s">
         <v>1385</v>
@@ -34392,7 +34397,7 @@
         <v>14</v>
       </c>
       <c r="O465" t="s">
-        <v>3049</v>
+        <v>3048</v>
       </c>
       <c r="P465" t="s">
         <v>1387</v>
@@ -34445,7 +34450,7 @@
         <v>14</v>
       </c>
       <c r="O466" t="s">
-        <v>3049</v>
+        <v>3048</v>
       </c>
       <c r="P466" t="s">
         <v>1388</v>
@@ -34501,7 +34506,7 @@
         <v>14</v>
       </c>
       <c r="O467" t="s">
-        <v>3050</v>
+        <v>3049</v>
       </c>
       <c r="P467" t="s">
         <v>1390</v>
@@ -34610,7 +34615,7 @@
         <v>14</v>
       </c>
       <c r="O469" t="s">
-        <v>3049</v>
+        <v>3048</v>
       </c>
       <c r="P469" t="s">
         <v>1392</v>
@@ -34716,7 +34721,7 @@
         <v>14</v>
       </c>
       <c r="O471" t="s">
-        <v>3049</v>
+        <v>3048</v>
       </c>
       <c r="P471" t="s">
         <v>1394</v>
@@ -34869,7 +34874,7 @@
         <v>14</v>
       </c>
       <c r="O474" t="s">
-        <v>3050</v>
+        <v>3049</v>
       </c>
       <c r="P474" t="s">
         <v>1395</v>
@@ -34922,7 +34927,7 @@
         <v>14</v>
       </c>
       <c r="O475" t="s">
-        <v>3050</v>
+        <v>3049</v>
       </c>
       <c r="P475" t="s">
         <v>1396</v>
@@ -34975,7 +34980,7 @@
         <v>14</v>
       </c>
       <c r="O476" t="s">
-        <v>3050</v>
+        <v>3049</v>
       </c>
       <c r="P476" t="s">
         <v>1397</v>
@@ -35028,7 +35033,7 @@
         <v>14</v>
       </c>
       <c r="O477" t="s">
-        <v>3050</v>
+        <v>3049</v>
       </c>
       <c r="P477" t="s">
         <v>1398</v>
@@ -35081,7 +35086,7 @@
         <v>14</v>
       </c>
       <c r="O478" t="s">
-        <v>3050</v>
+        <v>3049</v>
       </c>
       <c r="P478" t="s">
         <v>1399</v>
@@ -35134,7 +35139,7 @@
         <v>14</v>
       </c>
       <c r="O479" t="s">
-        <v>3050</v>
+        <v>3049</v>
       </c>
       <c r="P479" t="s">
         <v>603</v>
@@ -36232,7 +36237,7 @@
         <v>14</v>
       </c>
       <c r="O500" t="s">
-        <v>3049</v>
+        <v>3048</v>
       </c>
       <c r="P500" t="s">
         <v>716</v>
@@ -36703,7 +36708,7 @@
         <v>14</v>
       </c>
       <c r="O509" t="s">
-        <v>3049</v>
+        <v>3048</v>
       </c>
       <c r="P509" t="s">
         <v>716</v>
@@ -36753,7 +36758,7 @@
         <v>14</v>
       </c>
       <c r="O510" t="s">
-        <v>3064</v>
+        <v>3063</v>
       </c>
       <c r="P510" t="s">
         <v>1425</v>
@@ -37339,7 +37344,7 @@
         <v>12</v>
       </c>
       <c r="O521" t="s">
-        <v>3049</v>
+        <v>3048</v>
       </c>
       <c r="P521" t="s">
         <v>1441</v>
@@ -37442,7 +37447,7 @@
         <v>14</v>
       </c>
       <c r="O523" t="s">
-        <v>3049</v>
+        <v>3048</v>
       </c>
       <c r="P523" t="s">
         <v>1442</v>
@@ -37495,7 +37500,7 @@
         <v>14</v>
       </c>
       <c r="O524" t="s">
-        <v>3049</v>
+        <v>3048</v>
       </c>
       <c r="P524" t="s">
         <v>1443</v>
@@ -37863,7 +37868,7 @@
         <v>926</v>
       </c>
       <c r="O531" t="s">
-        <v>3049</v>
+        <v>3048</v>
       </c>
       <c r="P531" t="s">
         <v>1451</v>
@@ -37966,7 +37971,7 @@
         <v>14</v>
       </c>
       <c r="O533" t="s">
-        <v>3049</v>
+        <v>3048</v>
       </c>
       <c r="P533" t="s">
         <v>1454</v>
@@ -38019,7 +38024,7 @@
         <v>14</v>
       </c>
       <c r="O534" t="s">
-        <v>3065</v>
+        <v>3064</v>
       </c>
       <c r="P534" t="s">
         <v>1455</v>
@@ -38119,7 +38124,7 @@
         <v>926</v>
       </c>
       <c r="O536" t="s">
-        <v>3047</v>
+        <v>3046</v>
       </c>
       <c r="P536" t="s">
         <v>180</v>
@@ -38428,7 +38433,7 @@
         <v>926</v>
       </c>
       <c r="O542" t="s">
-        <v>3049</v>
+        <v>3048</v>
       </c>
       <c r="P542" t="s">
         <v>56</v>
@@ -38478,7 +38483,7 @@
         <v>926</v>
       </c>
       <c r="O543" t="s">
-        <v>3049</v>
+        <v>3048</v>
       </c>
       <c r="P543" t="s">
         <v>56</v>
@@ -38843,7 +38848,7 @@
         <v>14</v>
       </c>
       <c r="O550" t="s">
-        <v>3047</v>
+        <v>3046</v>
       </c>
       <c r="P550" t="s">
         <v>193</v>
@@ -39323,7 +39328,7 @@
         <v>14</v>
       </c>
       <c r="O559" t="s">
-        <v>3066</v>
+        <v>3065</v>
       </c>
       <c r="P559" t="s">
         <v>1473</v>
@@ -39482,7 +39487,7 @@
         <v>14</v>
       </c>
       <c r="O562" t="s">
-        <v>3067</v>
+        <v>3066</v>
       </c>
       <c r="P562" t="s">
         <v>1479</v>
@@ -39535,7 +39540,7 @@
         <v>14</v>
       </c>
       <c r="O563" t="s">
-        <v>3067</v>
+        <v>3066</v>
       </c>
       <c r="P563" t="s">
         <v>1481</v>
@@ -40359,7 +40364,7 @@
         <v>1489</v>
       </c>
       <c r="O579" t="s">
-        <v>3056</v>
+        <v>3055</v>
       </c>
       <c r="P579" t="s">
         <v>1492</v>
@@ -40568,7 +40573,7 @@
         <v>14</v>
       </c>
       <c r="O583" t="s">
-        <v>3049</v>
+        <v>3048</v>
       </c>
       <c r="P583" t="s">
         <v>1497</v>
@@ -40936,7 +40941,7 @@
         <v>1502</v>
       </c>
       <c r="O590" t="s">
-        <v>3056</v>
+        <v>3055</v>
       </c>
       <c r="P590" t="s">
         <v>1503</v>
@@ -41000,10 +41005,10 @@
         <v>12</v>
       </c>
       <c r="B592" s="3" t="s">
-        <v>3071</v>
+        <v>3067</v>
       </c>
       <c r="C592" t="s">
-        <v>3069</v>
+        <v>3082</v>
       </c>
       <c r="D592" t="s">
         <v>3038</v>
@@ -41042,13 +41047,13 @@
         <v>12</v>
       </c>
       <c r="O592" t="s">
-        <v>3042</v>
+        <v>1247</v>
       </c>
       <c r="P592" s="8" t="s">
-        <v>3044</v>
+        <v>3043</v>
       </c>
       <c r="Q592" t="s">
-        <v>3069</v>
+        <v>3087</v>
       </c>
     </row>
     <row r="593" spans="1:17">
@@ -41056,16 +41061,16 @@
         <v>12</v>
       </c>
       <c r="B593" s="3" t="s">
-        <v>3071</v>
+        <v>3067</v>
       </c>
       <c r="C593" t="s">
-        <v>3070</v>
+        <v>3083</v>
       </c>
       <c r="D593" t="s">
         <v>3038</v>
       </c>
       <c r="E593" s="5" t="s">
-        <v>3045</v>
+        <v>3044</v>
       </c>
       <c r="F593" s="5" t="str">
         <f t="shared" ref="F593:F594" si="30">LOWER(B593)&amp;", интернет-магазин, купить, недорого, доставка, Москва"</f>
@@ -41098,13 +41103,13 @@
         <v>14</v>
       </c>
       <c r="O593" t="s">
-        <v>3068</v>
+        <v>3086</v>
       </c>
       <c r="P593" s="8" t="s">
-        <v>3044</v>
+        <v>3043</v>
       </c>
       <c r="Q593" t="s">
-        <v>3070</v>
+        <v>3088</v>
       </c>
     </row>
     <row r="594" spans="1:17" ht="15" customHeight="1">
@@ -41112,10 +41117,10 @@
         <v>11</v>
       </c>
       <c r="B594" s="3" t="s">
-        <v>3072</v>
+        <v>3068</v>
       </c>
       <c r="C594" t="s">
-        <v>3078</v>
+        <v>3073</v>
       </c>
       <c r="D594" t="s">
         <v>3038</v>
@@ -41139,16 +41144,16 @@
         <v>906</v>
       </c>
       <c r="J594" t="s">
-        <v>3073</v>
+        <v>3069</v>
       </c>
       <c r="K594" s="6">
         <v>5500</v>
       </c>
       <c r="L594" t="s">
-        <v>3074</v>
+        <v>3070</v>
       </c>
       <c r="M594" t="s">
-        <v>3075</v>
+        <v>3084</v>
       </c>
       <c r="N594" t="s">
         <v>12</v>
@@ -41157,10 +41162,10 @@
         <v>908</v>
       </c>
       <c r="P594" s="8" t="s">
-        <v>3076</v>
+        <v>3071</v>
       </c>
       <c r="Q594" t="s">
-        <v>3086</v>
+        <v>3080</v>
       </c>
     </row>
     <row r="595" spans="1:17" ht="15" customHeight="1">
@@ -41168,16 +41173,16 @@
         <v>11</v>
       </c>
       <c r="B595" s="3" t="s">
-        <v>3072</v>
+        <v>3068</v>
       </c>
       <c r="C595" t="s">
-        <v>3079</v>
+        <v>3074</v>
       </c>
       <c r="D595" t="s">
         <v>3038</v>
       </c>
       <c r="E595" s="5" t="s">
-        <v>3077</v>
+        <v>3072</v>
       </c>
       <c r="F595" s="5" t="str">
         <f t="shared" ref="F595:F596" si="33">LOWER(B595)&amp;", интернет-магазин, купить, недорого, доставка, Москва"</f>
@@ -41195,16 +41200,16 @@
         <v>906</v>
       </c>
       <c r="J595" t="s">
-        <v>3073</v>
+        <v>3069</v>
       </c>
       <c r="K595" s="6">
         <v>9000</v>
       </c>
       <c r="L595" t="s">
-        <v>3074</v>
+        <v>3070</v>
       </c>
       <c r="M595" t="s">
-        <v>3075</v>
+        <v>3084</v>
       </c>
       <c r="N595" t="s">
         <v>14</v>
@@ -41213,10 +41218,10 @@
         <v>908</v>
       </c>
       <c r="P595" s="8" t="s">
-        <v>3076</v>
+        <v>3071</v>
       </c>
       <c r="Q595" t="s">
-        <v>3087</v>
+        <v>3081</v>
       </c>
     </row>
     <row r="596" spans="1:17" ht="15" customHeight="1">
@@ -41224,16 +41229,16 @@
         <v>11</v>
       </c>
       <c r="B596" s="3" t="s">
-        <v>3080</v>
+        <v>3075</v>
       </c>
       <c r="C596" t="s">
-        <v>3082</v>
+        <v>3077</v>
       </c>
       <c r="D596" t="s">
         <v>3038</v>
       </c>
       <c r="E596" s="5" t="s">
-        <v>3081</v>
+        <v>3076</v>
       </c>
       <c r="F596" s="5" t="str">
         <f t="shared" si="33"/>
@@ -41251,16 +41256,16 @@
         <v>906</v>
       </c>
       <c r="J596" t="s">
-        <v>3083</v>
+        <v>3078</v>
       </c>
       <c r="K596" s="6">
         <v>7000</v>
       </c>
       <c r="L596" t="s">
-        <v>3074</v>
+        <v>3070</v>
       </c>
       <c r="M596" t="s">
-        <v>3084</v>
+        <v>3085</v>
       </c>
       <c r="N596" t="s">
         <v>12</v>
@@ -41269,10 +41274,10 @@
         <v>908</v>
       </c>
       <c r="P596" s="9" t="s">
-        <v>3076</v>
+        <v>3071</v>
       </c>
       <c r="Q596" t="s">
-        <v>3085</v>
+        <v>3079</v>
       </c>
     </row>
     <row r="597" spans="1:17" ht="15" customHeight="1"/>

--- a/update_db/items.xlsx
+++ b/update_db/items.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12714" uniqueCount="3089">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6357" uniqueCount="3090">
   <si>
     <t>Браслет - кожаный шнур Спаси и Сохрани</t>
   </si>
@@ -9155,22 +9155,12 @@
     <t>горячая перегородчатая эмаль, ручная работа</t>
   </si>
   <si>
-    <t>"Святой Спиридон Тримифунтский опять ушёл кому-то помогать" . Так объявляют прихожанам на греческом острове Корфу ,когда не поворачивается ключ ,хранящий раку со святыми мощами. Рака с мощами святителя закрывается на два замка с двух противоположных сторон. Открыть её можно только вдвоём.
-Господь за пламенную любовь к Нему святителя Спиридона даровал его мощам особую степень нетления. Божией милостью вот уже почти 1700 лет тело праведника пребывает в неповреждённом виде.У него сохранились мягкие ткани, которые имеют температуру живого человеческого тела, черты лица святого вполне ясны.
-Житие угодника Божия Спиридона поражает удивительной простотой и силой чудотворения, дарованной ему от Господа.
-Угодник Божий скор на слышание, особенно в трудных обстоятельствах и тяжёлых болезнях. Жители острова Корфу верят, что святитель ходит по земле, навещая тех, кому нужна его помощь и таким образом изнашивает свою обувь.
-Мощи архипастыря обуты в вышитые золотой нитью бархатные тапочки, которые, по греческой традиции, меняют два раза в год (перед Пасхой и накануне дня памяти святого Спиридона).</t>
-  </si>
-  <si>
     <t>205п</t>
   </si>
   <si>
     <t>золочение, ручная работа, чернение</t>
   </si>
   <si>
-    <t>миниатюрный рельеф, литье, золочение, ручная работа, Горячая перегородчатая эмаль</t>
-  </si>
-  <si>
     <t>литье, золочение, горячая эмаль, ручная работа</t>
   </si>
   <si>
@@ -9211,12 +9201,6 @@
   </si>
   <si>
     <t>литье, золочение, ручная работа, чернение</t>
-  </si>
-  <si>
-    <t>миниатюрный рельеф, литье, золочение, ручная работа, чернение, Горячая перегородчатая эмаль</t>
-  </si>
-  <si>
-    <t>миниатюрный рельеф, литье, золочение, ручная работа, Горячая перегородчатая эмаль, золочение</t>
   </si>
   <si>
     <t>золочение, чернение, золочение, ручная работа</t>
@@ -9301,6 +9285,21 @@
   </si>
   <si>
     <t>180, 190, 200, 210 мм</t>
+  </si>
+  <si>
+    <t>«&lt;strong&gt;Святой Спиридон Тримифунтский опять ушёл кому-то помогать!&lt;/strong&gt;». &lt;p&gt;Так объявляют прихожанам на греческом острове Корфу, когда не поворачивается ключ, хранящий раку со святыми мощами. Рака с мощами святителя закрывается на два замка с двух противоположных сторон. Открыть её можно только вдвоём. &lt;p&gt;Господь за пламенную любовь к Нему святителя Спиридона даровал его мощам особую степень нетления. Божией милостью вот уже почти 1700 лет тело праведника пребывает в неповреждённом виде. У него сохранились мягкие ткани, которые имеют температуру живого человеческого тела, черты лица святого вполне ясны.</t>
+  </si>
+  <si>
+    <t>«&lt;strong&gt;Святой Спиридон Тримифунтский опять ушёл кому-то помогать!&lt;/strong&gt;». &lt;p&gt;Так объявляют прихожанам на греческом острове Корфу, когда не поворачивается ключ, хранящий раку со святыми мощами. Рака с мощами святителя закрывается на два замка с двух противоположных сторон. Открыть её можно только вдвоём. &lt;p&gt;Господь за пламенную любовь к Нему святителя Спиридона даровал его мощам особую степень нетления. Божией милостью вот уже почти 1700 лет тело праведника пребывает в неповреждённом виде. У него сохранились мягкие ткани, которые имеют температуру живого человеческого тела, черты лица святого вполне ясны. &lt;p&gt;&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/cUVk5VEN8Uc" frameborder="0" allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>миниатюрный рельеф, литье, золочение, ручная работа, горячая перегородчатая эмаль</t>
+  </si>
+  <si>
+    <t>миниатюрный рельеф, литье, золочение, ручная работа, чернение, горячая перегородчатая эмаль</t>
+  </si>
+  <si>
+    <t>миниатюрный рельеф, литье, золочение, ручная работа, горячая перегородчатая эмаль, золочение</t>
   </si>
 </sst>
 </file>
@@ -9346,7 +9345,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -9370,6 +9369,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -9654,10 +9656,10 @@
   <dimension ref="A1:Q612"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D543" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="M2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L566" sqref="L566"/>
+      <selection pane="bottomRight" activeCell="O5" sqref="O5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9670,7 +9672,7 @@
     <col min="11" max="11" width="9.140625" style="6"/>
     <col min="12" max="12" width="18.85546875" customWidth="1"/>
     <col min="13" max="13" width="33.42578125" customWidth="1"/>
-    <col min="15" max="15" width="19.28515625" customWidth="1"/>
+    <col min="15" max="15" width="55.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -9820,7 +9822,7 @@
         <v>14</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>3044</v>
+        <v>3043</v>
       </c>
       <c r="Q3" t="s">
         <v>1845</v>
@@ -9869,7 +9871,7 @@
         <v>14</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>3044</v>
+        <v>3043</v>
       </c>
       <c r="Q4" t="s">
         <v>2434</v>
@@ -10077,7 +10079,7 @@
         <v>14</v>
       </c>
       <c r="O8" s="3" t="s">
-        <v>3045</v>
+        <v>3087</v>
       </c>
       <c r="P8" t="s">
         <v>649</v>
@@ -10129,7 +10131,7 @@
         <v>14</v>
       </c>
       <c r="O9" s="3" t="s">
-        <v>3045</v>
+        <v>3087</v>
       </c>
       <c r="P9" t="s">
         <v>651</v>
@@ -10181,7 +10183,7 @@
         <v>14</v>
       </c>
       <c r="O10" s="3" t="s">
-        <v>3045</v>
+        <v>3087</v>
       </c>
       <c r="P10" t="s">
         <v>653</v>
@@ -10235,7 +10237,7 @@
         <v>14</v>
       </c>
       <c r="O11" s="3" t="s">
-        <v>3045</v>
+        <v>3087</v>
       </c>
       <c r="P11" t="s">
         <v>918</v>
@@ -10343,7 +10345,7 @@
         <v>14</v>
       </c>
       <c r="O13" s="3" t="s">
-        <v>3046</v>
+        <v>3044</v>
       </c>
       <c r="P13" t="s">
         <v>922</v>
@@ -10447,7 +10449,7 @@
         <v>926</v>
       </c>
       <c r="O15" s="3" t="s">
-        <v>3047</v>
+        <v>3045</v>
       </c>
       <c r="P15" t="s">
         <v>26</v>
@@ -10499,7 +10501,7 @@
         <v>14</v>
       </c>
       <c r="O16" s="3" t="s">
-        <v>3048</v>
+        <v>3046</v>
       </c>
       <c r="P16" t="s">
         <v>928</v>
@@ -10713,7 +10715,7 @@
         <v>32</v>
       </c>
       <c r="O20" s="3" t="s">
-        <v>3049</v>
+        <v>3047</v>
       </c>
       <c r="P20" t="s">
         <v>933</v>
@@ -10929,7 +10931,7 @@
         <v>22</v>
       </c>
       <c r="O24" s="3" t="s">
-        <v>3050</v>
+        <v>3048</v>
       </c>
       <c r="P24" t="s">
         <v>939</v>
@@ -11033,7 +11035,7 @@
         <v>14</v>
       </c>
       <c r="O26" s="3" t="s">
-        <v>3047</v>
+        <v>3045</v>
       </c>
       <c r="P26" t="s">
         <v>200</v>
@@ -11087,7 +11089,7 @@
         <v>47</v>
       </c>
       <c r="O27" s="3" t="s">
-        <v>3051</v>
+        <v>3049</v>
       </c>
       <c r="P27" t="s">
         <v>942</v>
@@ -11141,7 +11143,7 @@
         <v>32</v>
       </c>
       <c r="O28" s="3" t="s">
-        <v>3049</v>
+        <v>3047</v>
       </c>
       <c r="P28" t="s">
         <v>944</v>
@@ -11195,7 +11197,7 @@
         <v>14</v>
       </c>
       <c r="O29" s="3" t="s">
-        <v>3048</v>
+        <v>3046</v>
       </c>
       <c r="P29" t="s">
         <v>945</v>
@@ -11459,7 +11461,7 @@
         <v>14</v>
       </c>
       <c r="O34" s="3" t="s">
-        <v>3047</v>
+        <v>3045</v>
       </c>
       <c r="P34" t="s">
         <v>222</v>
@@ -11511,7 +11513,7 @@
         <v>14</v>
       </c>
       <c r="O35" s="3" t="s">
-        <v>3045</v>
+        <v>3087</v>
       </c>
       <c r="P35" t="s">
         <v>29</v>
@@ -11565,7 +11567,7 @@
         <v>32</v>
       </c>
       <c r="O36" s="3" t="s">
-        <v>3049</v>
+        <v>3047</v>
       </c>
       <c r="P36" t="s">
         <v>954</v>
@@ -11619,7 +11621,7 @@
         <v>32</v>
       </c>
       <c r="O37" s="3" t="s">
-        <v>3048</v>
+        <v>3046</v>
       </c>
       <c r="P37" t="s">
         <v>955</v>
@@ -11725,7 +11727,7 @@
         <v>47</v>
       </c>
       <c r="O39" s="3" t="s">
-        <v>3049</v>
+        <v>3047</v>
       </c>
       <c r="P39" t="s">
         <v>955</v>
@@ -11777,7 +11779,7 @@
         <v>958</v>
       </c>
       <c r="O40" s="3" t="s">
-        <v>3049</v>
+        <v>3047</v>
       </c>
       <c r="P40" t="s">
         <v>955</v>
@@ -11831,7 +11833,7 @@
         <v>32</v>
       </c>
       <c r="O41" s="3" t="s">
-        <v>3050</v>
+        <v>3048</v>
       </c>
       <c r="P41" t="s">
         <v>959</v>
@@ -11885,7 +11887,7 @@
         <v>14</v>
       </c>
       <c r="O42" s="3" t="s">
-        <v>3050</v>
+        <v>3048</v>
       </c>
       <c r="P42" t="s">
         <v>960</v>
@@ -11939,7 +11941,7 @@
         <v>14</v>
       </c>
       <c r="O43" s="3" t="s">
-        <v>3048</v>
+        <v>3046</v>
       </c>
       <c r="P43" t="s">
         <v>961</v>
@@ -11991,7 +11993,7 @@
         <v>14</v>
       </c>
       <c r="O44" s="3" t="s">
-        <v>3047</v>
+        <v>3045</v>
       </c>
       <c r="P44" t="s">
         <v>45</v>
@@ -12043,7 +12045,7 @@
         <v>14</v>
       </c>
       <c r="O45" s="3" t="s">
-        <v>3047</v>
+        <v>3045</v>
       </c>
       <c r="P45" t="s">
         <v>224</v>
@@ -12095,7 +12097,7 @@
         <v>14</v>
       </c>
       <c r="O46" s="3" t="s">
-        <v>3047</v>
+        <v>3045</v>
       </c>
       <c r="P46" t="s">
         <v>224</v>
@@ -12149,7 +12151,7 @@
         <v>47</v>
       </c>
       <c r="O47" s="3" t="s">
-        <v>3048</v>
+        <v>3046</v>
       </c>
       <c r="P47" t="s">
         <v>963</v>
@@ -12203,7 +12205,7 @@
         <v>14</v>
       </c>
       <c r="O48" s="3" t="s">
-        <v>3048</v>
+        <v>3046</v>
       </c>
       <c r="P48" t="s">
         <v>963</v>
@@ -12257,7 +12259,7 @@
         <v>14</v>
       </c>
       <c r="O49" s="3" t="s">
-        <v>3046</v>
+        <v>3044</v>
       </c>
       <c r="P49" t="s">
         <v>965</v>
@@ -12311,7 +12313,7 @@
         <v>22</v>
       </c>
       <c r="O50" s="3" t="s">
-        <v>3050</v>
+        <v>3048</v>
       </c>
       <c r="P50" t="s">
         <v>939</v>
@@ -12365,7 +12367,7 @@
         <v>14</v>
       </c>
       <c r="O51" s="3" t="s">
-        <v>3048</v>
+        <v>3046</v>
       </c>
       <c r="P51" t="s">
         <v>966</v>
@@ -12419,7 +12421,7 @@
         <v>47</v>
       </c>
       <c r="O52" s="3" t="s">
-        <v>3052</v>
+        <v>3050</v>
       </c>
       <c r="P52" t="s">
         <v>966</v>
@@ -12471,7 +12473,7 @@
         <v>14</v>
       </c>
       <c r="O53" s="3" t="s">
-        <v>3048</v>
+        <v>3046</v>
       </c>
       <c r="P53" t="s">
         <v>968</v>
@@ -12575,7 +12577,7 @@
         <v>14</v>
       </c>
       <c r="O55" s="3" t="s">
-        <v>3047</v>
+        <v>3045</v>
       </c>
       <c r="P55" t="s">
         <v>71</v>
@@ -12629,7 +12631,7 @@
         <v>14</v>
       </c>
       <c r="O56" s="3" t="s">
-        <v>3048</v>
+        <v>3046</v>
       </c>
       <c r="P56" t="s">
         <v>970</v>
@@ -12733,7 +12735,7 @@
         <v>14</v>
       </c>
       <c r="O58" s="3" t="s">
-        <v>3047</v>
+        <v>3045</v>
       </c>
       <c r="P58" t="s">
         <v>226</v>
@@ -12785,7 +12787,7 @@
         <v>14</v>
       </c>
       <c r="O59" s="3" t="s">
-        <v>3047</v>
+        <v>3045</v>
       </c>
       <c r="P59" t="s">
         <v>226</v>
@@ -12945,7 +12947,7 @@
         <v>32</v>
       </c>
       <c r="O62" s="3" t="s">
-        <v>3048</v>
+        <v>3046</v>
       </c>
       <c r="P62" t="s">
         <v>972</v>
@@ -12999,7 +13001,7 @@
         <v>47</v>
       </c>
       <c r="O63" s="3" t="s">
-        <v>3048</v>
+        <v>3046</v>
       </c>
       <c r="P63" t="s">
         <v>972</v>
@@ -13053,7 +13055,7 @@
         <v>14</v>
       </c>
       <c r="O64" s="3" t="s">
-        <v>3048</v>
+        <v>3046</v>
       </c>
       <c r="P64" t="s">
         <v>973</v>
@@ -13107,7 +13109,7 @@
         <v>32</v>
       </c>
       <c r="O65" s="3" t="s">
-        <v>3053</v>
+        <v>3051</v>
       </c>
       <c r="P65" t="s">
         <v>974</v>
@@ -13161,7 +13163,7 @@
         <v>14</v>
       </c>
       <c r="O66" s="3" t="s">
-        <v>3050</v>
+        <v>3048</v>
       </c>
       <c r="P66" t="s">
         <v>975</v>
@@ -13323,7 +13325,7 @@
         <v>14</v>
       </c>
       <c r="O69" s="3" t="s">
-        <v>3050</v>
+        <v>3048</v>
       </c>
       <c r="P69" t="s">
         <v>977</v>
@@ -13483,7 +13485,7 @@
         <v>926</v>
       </c>
       <c r="O72" s="3" t="s">
-        <v>3047</v>
+        <v>3045</v>
       </c>
       <c r="P72" t="s">
         <v>75</v>
@@ -13757,7 +13759,7 @@
         <v>14</v>
       </c>
       <c r="O77" s="3" t="s">
-        <v>3054</v>
+        <v>3052</v>
       </c>
       <c r="P77" t="s">
         <v>984</v>
@@ -13863,7 +13865,7 @@
         <v>14</v>
       </c>
       <c r="O79" s="3" t="s">
-        <v>3047</v>
+        <v>3045</v>
       </c>
       <c r="P79" t="s">
         <v>85</v>
@@ -14075,7 +14077,7 @@
         <v>14</v>
       </c>
       <c r="O83" s="3" t="s">
-        <v>3047</v>
+        <v>3045</v>
       </c>
       <c r="P83" t="s">
         <v>87</v>
@@ -14127,7 +14129,7 @@
         <v>14</v>
       </c>
       <c r="O84" s="3" t="s">
-        <v>3047</v>
+        <v>3045</v>
       </c>
       <c r="P84" t="s">
         <v>87</v>
@@ -14285,7 +14287,7 @@
         <v>14</v>
       </c>
       <c r="O87" s="3" t="s">
-        <v>3047</v>
+        <v>3045</v>
       </c>
       <c r="P87" t="s">
         <v>91</v>
@@ -14339,7 +14341,7 @@
         <v>14</v>
       </c>
       <c r="O88" s="3" t="s">
-        <v>3050</v>
+        <v>3048</v>
       </c>
       <c r="P88" t="s">
         <v>989</v>
@@ -14393,7 +14395,7 @@
         <v>32</v>
       </c>
       <c r="O89" s="3" t="s">
-        <v>3055</v>
+        <v>3053</v>
       </c>
       <c r="P89" t="s">
         <v>990</v>
@@ -14767,7 +14769,7 @@
         <v>32</v>
       </c>
       <c r="O96" s="3" t="s">
-        <v>3048</v>
+        <v>3046</v>
       </c>
       <c r="P96" t="s">
         <v>998</v>
@@ -14821,7 +14823,7 @@
         <v>47</v>
       </c>
       <c r="O97" s="3" t="s">
-        <v>3048</v>
+        <v>3046</v>
       </c>
       <c r="P97" t="s">
         <v>999</v>
@@ -14929,7 +14931,7 @@
         <v>14</v>
       </c>
       <c r="O99" s="3" t="s">
-        <v>3050</v>
+        <v>3048</v>
       </c>
       <c r="P99" t="s">
         <v>1002</v>
@@ -14983,7 +14985,7 @@
         <v>14</v>
       </c>
       <c r="O100" s="3" t="s">
-        <v>3048</v>
+        <v>3046</v>
       </c>
       <c r="P100" t="s">
         <v>1003</v>
@@ -15257,7 +15259,7 @@
         <v>14</v>
       </c>
       <c r="O105" s="3" t="s">
-        <v>3044</v>
+        <v>3043</v>
       </c>
       <c r="P105" t="s">
         <v>1007</v>
@@ -15469,7 +15471,7 @@
         <v>14</v>
       </c>
       <c r="O109" s="3" t="s">
-        <v>3044</v>
+        <v>3043</v>
       </c>
       <c r="Q109" t="s">
         <v>2472</v>
@@ -15518,7 +15520,7 @@
         <v>14</v>
       </c>
       <c r="O110" s="3" t="s">
-        <v>3047</v>
+        <v>3045</v>
       </c>
       <c r="P110" t="s">
         <v>96</v>
@@ -15676,7 +15678,7 @@
         <v>14</v>
       </c>
       <c r="O113" s="3" t="s">
-        <v>3047</v>
+        <v>3045</v>
       </c>
       <c r="P113" t="s">
         <v>100</v>
@@ -15888,7 +15890,7 @@
         <v>1018</v>
       </c>
       <c r="O117" s="3" t="s">
-        <v>3047</v>
+        <v>3045</v>
       </c>
       <c r="P117" t="s">
         <v>103</v>
@@ -16100,7 +16102,7 @@
         <v>14</v>
       </c>
       <c r="O121" s="3" t="s">
-        <v>3047</v>
+        <v>3045</v>
       </c>
       <c r="P121" t="s">
         <v>107</v>
@@ -16152,7 +16154,7 @@
         <v>14</v>
       </c>
       <c r="O122" s="3" t="s">
-        <v>3047</v>
+        <v>3045</v>
       </c>
       <c r="P122" t="s">
         <v>107</v>
@@ -16688,7 +16690,7 @@
         <v>14</v>
       </c>
       <c r="O132" s="3" t="s">
-        <v>3047</v>
+        <v>3045</v>
       </c>
       <c r="P132" t="s">
         <v>122</v>
@@ -16796,7 +16798,7 @@
         <v>14</v>
       </c>
       <c r="O134" s="3" t="s">
-        <v>3047</v>
+        <v>3045</v>
       </c>
       <c r="P134" t="s">
         <v>1031</v>
@@ -16848,7 +16850,7 @@
         <v>14</v>
       </c>
       <c r="O135" s="3" t="s">
-        <v>3047</v>
+        <v>3045</v>
       </c>
       <c r="Q135" t="s">
         <v>2481</v>
@@ -16897,7 +16899,7 @@
         <v>14</v>
       </c>
       <c r="O136" s="3" t="s">
-        <v>3047</v>
+        <v>3045</v>
       </c>
       <c r="P136" t="s">
         <v>5</v>
@@ -17429,7 +17431,7 @@
         <v>14</v>
       </c>
       <c r="O146" s="3" t="s">
-        <v>3056</v>
+        <v>3054</v>
       </c>
       <c r="P146" t="s">
         <v>695</v>
@@ -17535,7 +17537,7 @@
         <v>14</v>
       </c>
       <c r="O148" s="3" t="s">
-        <v>3044</v>
+        <v>3043</v>
       </c>
       <c r="Q148" t="s">
         <v>2487</v>
@@ -17584,7 +17586,7 @@
         <v>14</v>
       </c>
       <c r="O149" s="3" t="s">
-        <v>3044</v>
+        <v>3043</v>
       </c>
       <c r="P149" t="s">
         <v>133</v>
@@ -17636,7 +17638,7 @@
         <v>14</v>
       </c>
       <c r="O150" s="3" t="s">
-        <v>3057</v>
+        <v>3055</v>
       </c>
       <c r="P150" t="s">
         <v>699</v>
@@ -17688,7 +17690,7 @@
         <v>14</v>
       </c>
       <c r="O151" s="3" t="s">
-        <v>3044</v>
+        <v>3043</v>
       </c>
       <c r="P151" t="s">
         <v>133</v>
@@ -18061,7 +18063,7 @@
         <v>14</v>
       </c>
       <c r="O158" s="3" t="s">
-        <v>3058</v>
+        <v>3056</v>
       </c>
       <c r="P158" t="s">
         <v>1056</v>
@@ -18113,7 +18115,7 @@
         <v>14</v>
       </c>
       <c r="O159" s="3" t="s">
-        <v>3045</v>
+        <v>3087</v>
       </c>
       <c r="P159" t="s">
         <v>130</v>
@@ -18485,7 +18487,7 @@
         <v>14</v>
       </c>
       <c r="O166" s="3" t="s">
-        <v>3047</v>
+        <v>3045</v>
       </c>
       <c r="P166" t="s">
         <v>702</v>
@@ -18537,7 +18539,7 @@
         <v>14</v>
       </c>
       <c r="O167" s="3" t="s">
-        <v>3045</v>
+        <v>3087</v>
       </c>
       <c r="P167" t="s">
         <v>136</v>
@@ -18803,7 +18805,7 @@
         <v>14</v>
       </c>
       <c r="O172" s="3" t="s">
-        <v>3047</v>
+        <v>3045</v>
       </c>
       <c r="P172" t="s">
         <v>705</v>
@@ -18855,7 +18857,7 @@
         <v>14</v>
       </c>
       <c r="O173" s="3" t="s">
-        <v>3047</v>
+        <v>3045</v>
       </c>
       <c r="P173" t="s">
         <v>705</v>
@@ -18907,7 +18909,7 @@
         <v>14</v>
       </c>
       <c r="O174" s="3" t="s">
-        <v>3047</v>
+        <v>3045</v>
       </c>
       <c r="P174" t="s">
         <v>161</v>
@@ -19445,7 +19447,7 @@
         <v>14</v>
       </c>
       <c r="O184" s="3" t="s">
-        <v>3047</v>
+        <v>3045</v>
       </c>
       <c r="P184" t="s">
         <v>161</v>
@@ -19497,7 +19499,7 @@
         <v>14</v>
       </c>
       <c r="O185" s="3" t="s">
-        <v>3045</v>
+        <v>3087</v>
       </c>
       <c r="P185" t="s">
         <v>143</v>
@@ -19715,7 +19717,7 @@
         <v>14</v>
       </c>
       <c r="O189" s="3" t="s">
-        <v>3045</v>
+        <v>3087</v>
       </c>
       <c r="P189" t="s">
         <v>164</v>
@@ -20842,7 +20844,7 @@
         <v>14</v>
       </c>
       <c r="O210" s="3" t="s">
-        <v>3047</v>
+        <v>3045</v>
       </c>
       <c r="P210" t="s">
         <v>174</v>
@@ -21162,7 +21164,7 @@
         <v>14</v>
       </c>
       <c r="O216" s="3" t="s">
-        <v>3047</v>
+        <v>3045</v>
       </c>
       <c r="P216" t="s">
         <v>1108</v>
@@ -21430,7 +21432,7 @@
         <v>14</v>
       </c>
       <c r="O221" s="3" t="s">
-        <v>3047</v>
+        <v>3045</v>
       </c>
       <c r="P221" t="s">
         <v>1115</v>
@@ -21484,7 +21486,7 @@
         <v>14</v>
       </c>
       <c r="O222" s="3" t="s">
-        <v>3047</v>
+        <v>3045</v>
       </c>
       <c r="P222" t="s">
         <v>1116</v>
@@ -21912,7 +21914,7 @@
         <v>926</v>
       </c>
       <c r="O230" s="3" t="s">
-        <v>3047</v>
+        <v>3045</v>
       </c>
       <c r="P230" t="s">
         <v>1128</v>
@@ -22182,7 +22184,7 @@
         <v>14</v>
       </c>
       <c r="O235" s="3" t="s">
-        <v>3047</v>
+        <v>3045</v>
       </c>
       <c r="P235" t="s">
         <v>1136</v>
@@ -22236,7 +22238,7 @@
         <v>14</v>
       </c>
       <c r="O236" s="3" t="s">
-        <v>3047</v>
+        <v>3045</v>
       </c>
       <c r="P236" t="s">
         <v>1138</v>
@@ -22560,7 +22562,7 @@
         <v>14</v>
       </c>
       <c r="O242" s="3" t="s">
-        <v>3047</v>
+        <v>3045</v>
       </c>
       <c r="P242" t="s">
         <v>1144</v>
@@ -22830,7 +22832,7 @@
         <v>14</v>
       </c>
       <c r="O247" s="3" t="s">
-        <v>3047</v>
+        <v>3045</v>
       </c>
       <c r="P247" t="s">
         <v>1150</v>
@@ -22882,7 +22884,7 @@
         <v>14</v>
       </c>
       <c r="O248" s="3" t="s">
-        <v>3047</v>
+        <v>3045</v>
       </c>
       <c r="P248" t="s">
         <v>1152</v>
@@ -23256,7 +23258,7 @@
         <v>14</v>
       </c>
       <c r="O255" s="3" t="s">
-        <v>3059</v>
+        <v>3057</v>
       </c>
       <c r="P255" t="s">
         <v>1161</v>
@@ -23632,7 +23634,7 @@
         <v>14</v>
       </c>
       <c r="O262" s="3" t="s">
-        <v>3056</v>
+        <v>3054</v>
       </c>
       <c r="P262" t="s">
         <v>1170</v>
@@ -23684,7 +23686,7 @@
         <v>14</v>
       </c>
       <c r="O263" s="3" t="s">
-        <v>3047</v>
+        <v>3045</v>
       </c>
       <c r="P263" t="s">
         <v>283</v>
@@ -25066,7 +25068,7 @@
         <v>14</v>
       </c>
       <c r="O289" s="3" t="s">
-        <v>3060</v>
+        <v>3088</v>
       </c>
       <c r="P289" t="s">
         <v>1190</v>
@@ -26406,7 +26408,7 @@
         <v>14</v>
       </c>
       <c r="O314" s="3" t="s">
-        <v>3054</v>
+        <v>3052</v>
       </c>
       <c r="P314" t="s">
         <v>1218</v>
@@ -26622,7 +26624,7 @@
         <v>14</v>
       </c>
       <c r="O318" s="3" t="s">
-        <v>3048</v>
+        <v>3046</v>
       </c>
       <c r="P318" t="s">
         <v>1225</v>
@@ -27434,7 +27436,7 @@
         <v>14</v>
       </c>
       <c r="O333" s="3" t="s">
-        <v>3048</v>
+        <v>3046</v>
       </c>
       <c r="P333" t="s">
         <v>1246</v>
@@ -27544,7 +27546,7 @@
         <v>14</v>
       </c>
       <c r="O335" s="3" t="s">
-        <v>3047</v>
+        <v>3045</v>
       </c>
       <c r="P335" t="s">
         <v>1249</v>
@@ -28402,7 +28404,7 @@
         <v>14</v>
       </c>
       <c r="O351" s="3" t="s">
-        <v>3048</v>
+        <v>3046</v>
       </c>
       <c r="P351" t="s">
         <v>1263</v>
@@ -28508,7 +28510,7 @@
         <v>14</v>
       </c>
       <c r="O353" s="3" t="s">
-        <v>3047</v>
+        <v>3045</v>
       </c>
       <c r="P353" t="s">
         <v>1264</v>
@@ -28562,7 +28564,7 @@
         <v>14</v>
       </c>
       <c r="O354" s="3" t="s">
-        <v>3047</v>
+        <v>3045</v>
       </c>
       <c r="P354" t="s">
         <v>1266</v>
@@ -28614,7 +28616,7 @@
         <v>14</v>
       </c>
       <c r="O355" s="3" t="s">
-        <v>3047</v>
+        <v>3045</v>
       </c>
       <c r="P355" t="s">
         <v>302</v>
@@ -29235,7 +29237,7 @@
         <v>14</v>
       </c>
       <c r="O367" t="s">
-        <v>3061</v>
+        <v>3089</v>
       </c>
       <c r="P367" t="s">
         <v>170</v>
@@ -29497,7 +29499,7 @@
         <v>14</v>
       </c>
       <c r="O372" t="s">
-        <v>3047</v>
+        <v>3045</v>
       </c>
       <c r="P372" t="s">
         <v>186</v>
@@ -32453,7 +32455,7 @@
         <v>14</v>
       </c>
       <c r="O428" t="s">
-        <v>3047</v>
+        <v>3045</v>
       </c>
       <c r="P428" t="s">
         <v>186</v>
@@ -34137,7 +34139,7 @@
         <v>14</v>
       </c>
       <c r="O460" t="s">
-        <v>3047</v>
+        <v>3045</v>
       </c>
       <c r="P460" t="s">
         <v>1379</v>
@@ -34190,7 +34192,7 @@
         <v>14</v>
       </c>
       <c r="O461" t="s">
-        <v>3047</v>
+        <v>3045</v>
       </c>
       <c r="P461" t="s">
         <v>1381</v>
@@ -34243,7 +34245,7 @@
         <v>14</v>
       </c>
       <c r="O462" t="s">
-        <v>3047</v>
+        <v>3045</v>
       </c>
       <c r="P462" t="s">
         <v>1383</v>
@@ -34296,7 +34298,7 @@
         <v>14</v>
       </c>
       <c r="O463" t="s">
-        <v>3047</v>
+        <v>3045</v>
       </c>
       <c r="P463" t="s">
         <v>1384</v>
@@ -34349,7 +34351,7 @@
         <v>14</v>
       </c>
       <c r="O464" t="s">
-        <v>3047</v>
+        <v>3045</v>
       </c>
       <c r="P464" t="s">
         <v>1385</v>
@@ -34402,7 +34404,7 @@
         <v>14</v>
       </c>
       <c r="O465" t="s">
-        <v>3047</v>
+        <v>3045</v>
       </c>
       <c r="P465" t="s">
         <v>1387</v>
@@ -34455,7 +34457,7 @@
         <v>14</v>
       </c>
       <c r="O466" t="s">
-        <v>3047</v>
+        <v>3045</v>
       </c>
       <c r="P466" t="s">
         <v>1388</v>
@@ -34511,7 +34513,7 @@
         <v>14</v>
       </c>
       <c r="O467" t="s">
-        <v>3048</v>
+        <v>3046</v>
       </c>
       <c r="P467" t="s">
         <v>1390</v>
@@ -34620,7 +34622,7 @@
         <v>14</v>
       </c>
       <c r="O469" t="s">
-        <v>3047</v>
+        <v>3045</v>
       </c>
       <c r="P469" t="s">
         <v>1392</v>
@@ -34726,7 +34728,7 @@
         <v>14</v>
       </c>
       <c r="O471" t="s">
-        <v>3047</v>
+        <v>3045</v>
       </c>
       <c r="P471" t="s">
         <v>1394</v>
@@ -34879,7 +34881,7 @@
         <v>14</v>
       </c>
       <c r="O474" t="s">
-        <v>3048</v>
+        <v>3046</v>
       </c>
       <c r="P474" t="s">
         <v>1395</v>
@@ -34932,7 +34934,7 @@
         <v>14</v>
       </c>
       <c r="O475" t="s">
-        <v>3048</v>
+        <v>3046</v>
       </c>
       <c r="P475" t="s">
         <v>1396</v>
@@ -34985,7 +34987,7 @@
         <v>14</v>
       </c>
       <c r="O476" t="s">
-        <v>3048</v>
+        <v>3046</v>
       </c>
       <c r="P476" t="s">
         <v>1397</v>
@@ -35038,7 +35040,7 @@
         <v>14</v>
       </c>
       <c r="O477" t="s">
-        <v>3048</v>
+        <v>3046</v>
       </c>
       <c r="P477" t="s">
         <v>1398</v>
@@ -35091,7 +35093,7 @@
         <v>14</v>
       </c>
       <c r="O478" t="s">
-        <v>3048</v>
+        <v>3046</v>
       </c>
       <c r="P478" t="s">
         <v>1399</v>
@@ -35144,7 +35146,7 @@
         <v>14</v>
       </c>
       <c r="O479" t="s">
-        <v>3048</v>
+        <v>3046</v>
       </c>
       <c r="P479" t="s">
         <v>603</v>
@@ -36242,7 +36244,7 @@
         <v>14</v>
       </c>
       <c r="O500" t="s">
-        <v>3047</v>
+        <v>3045</v>
       </c>
       <c r="P500" t="s">
         <v>716</v>
@@ -36713,7 +36715,7 @@
         <v>14</v>
       </c>
       <c r="O509" t="s">
-        <v>3047</v>
+        <v>3045</v>
       </c>
       <c r="P509" t="s">
         <v>716</v>
@@ -36763,7 +36765,7 @@
         <v>14</v>
       </c>
       <c r="O510" t="s">
-        <v>3062</v>
+        <v>3058</v>
       </c>
       <c r="P510" t="s">
         <v>1425</v>
@@ -37349,7 +37351,7 @@
         <v>12</v>
       </c>
       <c r="O521" t="s">
-        <v>3047</v>
+        <v>3045</v>
       </c>
       <c r="P521" t="s">
         <v>1441</v>
@@ -37452,7 +37454,7 @@
         <v>14</v>
       </c>
       <c r="O523" t="s">
-        <v>3047</v>
+        <v>3045</v>
       </c>
       <c r="P523" t="s">
         <v>1442</v>
@@ -37505,7 +37507,7 @@
         <v>14</v>
       </c>
       <c r="O524" t="s">
-        <v>3047</v>
+        <v>3045</v>
       </c>
       <c r="P524" t="s">
         <v>1443</v>
@@ -37873,7 +37875,7 @@
         <v>926</v>
       </c>
       <c r="O531" t="s">
-        <v>3047</v>
+        <v>3045</v>
       </c>
       <c r="P531" t="s">
         <v>1451</v>
@@ -37976,7 +37978,7 @@
         <v>14</v>
       </c>
       <c r="O533" t="s">
-        <v>3047</v>
+        <v>3045</v>
       </c>
       <c r="P533" t="s">
         <v>1454</v>
@@ -38029,7 +38031,7 @@
         <v>14</v>
       </c>
       <c r="O534" t="s">
-        <v>3063</v>
+        <v>3059</v>
       </c>
       <c r="P534" t="s">
         <v>1455</v>
@@ -38129,7 +38131,7 @@
         <v>926</v>
       </c>
       <c r="O536" t="s">
-        <v>3045</v>
+        <v>3087</v>
       </c>
       <c r="P536" t="s">
         <v>180</v>
@@ -38438,7 +38440,7 @@
         <v>926</v>
       </c>
       <c r="O542" t="s">
-        <v>3047</v>
+        <v>3045</v>
       </c>
       <c r="P542" t="s">
         <v>56</v>
@@ -38488,7 +38490,7 @@
         <v>926</v>
       </c>
       <c r="O543" t="s">
-        <v>3047</v>
+        <v>3045</v>
       </c>
       <c r="P543" t="s">
         <v>56</v>
@@ -38853,7 +38855,7 @@
         <v>14</v>
       </c>
       <c r="O550" t="s">
-        <v>3045</v>
+        <v>3087</v>
       </c>
       <c r="P550" t="s">
         <v>193</v>
@@ -39333,7 +39335,7 @@
         <v>14</v>
       </c>
       <c r="O559" t="s">
-        <v>3064</v>
+        <v>3060</v>
       </c>
       <c r="P559" t="s">
         <v>1473</v>
@@ -39380,7 +39382,7 @@
         <v>2600</v>
       </c>
       <c r="L560" t="s">
-        <v>3088</v>
+        <v>3084</v>
       </c>
       <c r="N560" s="3" t="s">
         <v>12</v>
@@ -39492,7 +39494,7 @@
         <v>14</v>
       </c>
       <c r="O562" t="s">
-        <v>3065</v>
+        <v>3061</v>
       </c>
       <c r="P562" t="s">
         <v>1478</v>
@@ -39545,7 +39547,7 @@
         <v>14</v>
       </c>
       <c r="O563" t="s">
-        <v>3065</v>
+        <v>3061</v>
       </c>
       <c r="P563" t="s">
         <v>1480</v>
@@ -40369,7 +40371,7 @@
         <v>1488</v>
       </c>
       <c r="O579" t="s">
-        <v>3054</v>
+        <v>3052</v>
       </c>
       <c r="P579" t="s">
         <v>1491</v>
@@ -40578,7 +40580,7 @@
         <v>14</v>
       </c>
       <c r="O583" t="s">
-        <v>3047</v>
+        <v>3045</v>
       </c>
       <c r="P583" t="s">
         <v>1496</v>
@@ -40946,7 +40948,7 @@
         <v>1501</v>
       </c>
       <c r="O590" t="s">
-        <v>3054</v>
+        <v>3052</v>
       </c>
       <c r="P590" t="s">
         <v>1502</v>
@@ -41010,10 +41012,10 @@
         <v>12</v>
       </c>
       <c r="B592" s="3" t="s">
-        <v>3066</v>
+        <v>3062</v>
       </c>
       <c r="C592" t="s">
-        <v>3081</v>
+        <v>3077</v>
       </c>
       <c r="D592" t="s">
         <v>3037</v>
@@ -41054,11 +41056,11 @@
       <c r="O592" t="s">
         <v>1247</v>
       </c>
-      <c r="P592" s="8" t="s">
-        <v>3042</v>
+      <c r="P592" s="10" t="s">
+        <v>3086</v>
       </c>
       <c r="Q592" t="s">
-        <v>3086</v>
+        <v>3082</v>
       </c>
     </row>
     <row r="593" spans="1:17" x14ac:dyDescent="0.25">
@@ -41066,16 +41068,16 @@
         <v>12</v>
       </c>
       <c r="B593" s="3" t="s">
-        <v>3066</v>
+        <v>3062</v>
       </c>
       <c r="C593" t="s">
-        <v>3082</v>
+        <v>3078</v>
       </c>
       <c r="D593" t="s">
         <v>3037</v>
       </c>
       <c r="E593" s="5" t="s">
-        <v>3043</v>
+        <v>3042</v>
       </c>
       <c r="F593" s="5" t="str">
         <f t="shared" ref="F593:F594" si="30">LOWER(B593)&amp;", интернет-магазин, купить, недорого, доставка, Москва"</f>
@@ -41108,13 +41110,13 @@
         <v>14</v>
       </c>
       <c r="O593" t="s">
+        <v>3081</v>
+      </c>
+      <c r="P593" s="10" t="s">
         <v>3085</v>
       </c>
-      <c r="P593" s="8" t="s">
-        <v>3042</v>
-      </c>
       <c r="Q593" t="s">
-        <v>3087</v>
+        <v>3083</v>
       </c>
     </row>
     <row r="594" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -41122,10 +41124,10 @@
         <v>11</v>
       </c>
       <c r="B594" s="3" t="s">
-        <v>3067</v>
+        <v>3063</v>
       </c>
       <c r="C594" t="s">
-        <v>3072</v>
+        <v>3068</v>
       </c>
       <c r="D594" t="s">
         <v>3037</v>
@@ -41149,16 +41151,16 @@
         <v>906</v>
       </c>
       <c r="J594" t="s">
-        <v>3068</v>
+        <v>3064</v>
       </c>
       <c r="K594" s="6">
         <v>5500</v>
       </c>
       <c r="L594" t="s">
-        <v>3069</v>
+        <v>3065</v>
       </c>
       <c r="M594" t="s">
-        <v>3083</v>
+        <v>3079</v>
       </c>
       <c r="N594" t="s">
         <v>12</v>
@@ -41167,10 +41169,10 @@
         <v>908</v>
       </c>
       <c r="P594" s="8" t="s">
-        <v>3070</v>
+        <v>3066</v>
       </c>
       <c r="Q594" t="s">
-        <v>3079</v>
+        <v>3075</v>
       </c>
     </row>
     <row r="595" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -41178,16 +41180,16 @@
         <v>11</v>
       </c>
       <c r="B595" s="3" t="s">
-        <v>3067</v>
+        <v>3063</v>
       </c>
       <c r="C595" t="s">
-        <v>3073</v>
+        <v>3069</v>
       </c>
       <c r="D595" t="s">
         <v>3037</v>
       </c>
       <c r="E595" s="5" t="s">
-        <v>3071</v>
+        <v>3067</v>
       </c>
       <c r="F595" s="5" t="str">
         <f t="shared" ref="F595:F596" si="33">LOWER(B595)&amp;", интернет-магазин, купить, недорого, доставка, Москва"</f>
@@ -41205,16 +41207,16 @@
         <v>906</v>
       </c>
       <c r="J595" t="s">
-        <v>3068</v>
+        <v>3064</v>
       </c>
       <c r="K595" s="6">
         <v>9000</v>
       </c>
       <c r="L595" t="s">
-        <v>3069</v>
+        <v>3065</v>
       </c>
       <c r="M595" t="s">
-        <v>3083</v>
+        <v>3079</v>
       </c>
       <c r="N595" t="s">
         <v>14</v>
@@ -41223,10 +41225,10 @@
         <v>908</v>
       </c>
       <c r="P595" s="8" t="s">
-        <v>3070</v>
+        <v>3066</v>
       </c>
       <c r="Q595" t="s">
-        <v>3080</v>
+        <v>3076</v>
       </c>
     </row>
     <row r="596" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -41234,16 +41236,16 @@
         <v>11</v>
       </c>
       <c r="B596" s="3" t="s">
-        <v>3074</v>
+        <v>3070</v>
       </c>
       <c r="C596" t="s">
-        <v>3076</v>
+        <v>3072</v>
       </c>
       <c r="D596" t="s">
         <v>3037</v>
       </c>
       <c r="E596" s="5" t="s">
-        <v>3075</v>
+        <v>3071</v>
       </c>
       <c r="F596" s="5" t="str">
         <f t="shared" si="33"/>
@@ -41261,16 +41263,16 @@
         <v>906</v>
       </c>
       <c r="J596" t="s">
-        <v>3077</v>
+        <v>3073</v>
       </c>
       <c r="K596" s="6">
         <v>7000</v>
       </c>
       <c r="L596" t="s">
-        <v>3069</v>
+        <v>3065</v>
       </c>
       <c r="M596" t="s">
-        <v>3084</v>
+        <v>3080</v>
       </c>
       <c r="N596" t="s">
         <v>12</v>
@@ -41279,10 +41281,10 @@
         <v>908</v>
       </c>
       <c r="P596" s="9" t="s">
-        <v>3070</v>
+        <v>3066</v>
       </c>
       <c r="Q596" t="s">
-        <v>3078</v>
+        <v>3074</v>
       </c>
     </row>
     <row r="597" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
